--- a/Data/s_data/점수 산출 데이터.xlsx
+++ b/Data/s_data/점수 산출 데이터.xlsx
@@ -771,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,12 +834,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1010,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,33 +1042,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1372,9 +1360,9 @@
     <col min="7" max="7" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.796875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.8984375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="8.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.8984375" style="16" customWidth="1"/>
     <col min="14" max="17" width="8.8984375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1407,13 +1395,13 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>229</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1460,14 +1448,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>0.182</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <v>12</v>
       </c>
-      <c r="M2" s="13">
-        <v>0.6</v>
+      <c r="M2" s="15">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N2" s="9">
         <v>18.18</v>
@@ -1513,14 +1501,14 @@
       <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>0.111</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>11.71</v>
       </c>
-      <c r="M3" s="13">
-        <v>0.4</v>
+      <c r="M3" s="15">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N3" s="9">
         <v>11.11</v>
@@ -1564,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>5.86</v>
       </c>
-      <c r="M4" s="13">
-        <v>2.2000000000000002</v>
+      <c r="M4" s="15">
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N4" s="9">
         <v>14.285</v>
@@ -1615,14 +1603,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>0.28599999999999998</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>5.3</v>
       </c>
-      <c r="M5" s="13">
-        <v>3.2</v>
+      <c r="M5" s="15">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="N5" s="9">
         <v>28.57</v>
@@ -1666,14 +1654,14 @@
         <v>1</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <v>3.6</v>
       </c>
-      <c r="M6" s="13">
-        <v>5.0999999999999996</v>
+      <c r="M6" s="15">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N6" s="9">
         <v>14.285</v>
@@ -1717,14 +1705,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="15">
         <v>10.16</v>
       </c>
-      <c r="M7" s="13">
-        <v>1.2</v>
+      <c r="M7" s="15">
+        <v>1.2E-2</v>
       </c>
       <c r="N7" s="9">
         <v>6.25</v>
@@ -1768,14 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>11.07</v>
       </c>
-      <c r="M8" s="13">
-        <v>8.4</v>
+      <c r="M8" s="15">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="N8" s="9">
         <v>7.29</v>
@@ -1819,14 +1807,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <v>15.9</v>
       </c>
-      <c r="M9" s="13">
-        <v>6.4</v>
+      <c r="M9" s="15">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -1870,14 +1858,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>0.122</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="15">
         <v>4.7</v>
       </c>
-      <c r="M10" s="13">
-        <v>5.4</v>
+      <c r="M10" s="15">
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="N10" s="9">
         <v>12.244999999999999</v>
@@ -1921,14 +1909,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>18.899999999999999</v>
       </c>
-      <c r="M11" s="13">
-        <v>1.3</v>
+      <c r="M11" s="15">
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
@@ -1972,14 +1960,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <v>15.6</v>
       </c>
-      <c r="M12" s="13">
-        <v>1.5</v>
+      <c r="M12" s="15">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
@@ -2023,14 +2011,14 @@
         <v>0</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>13.93</v>
       </c>
-      <c r="M13" s="13">
-        <v>4.2</v>
+      <c r="M13" s="15">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -2074,14 +2062,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>0.111</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <v>11.3</v>
       </c>
-      <c r="M14" s="13">
-        <v>11.8</v>
+      <c r="M14" s="15">
+        <v>0.11800000000000001</v>
       </c>
       <c r="N14" s="9">
         <v>11.11</v>
@@ -2125,14 +2113,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <v>11.3</v>
       </c>
-      <c r="M15" s="13">
-        <v>3.4</v>
+      <c r="M15" s="15">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N15" s="9">
         <v>2.21</v>
@@ -2176,14 +2164,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>1.35</v>
       </c>
-      <c r="M16" s="13">
-        <v>28.5</v>
+      <c r="M16" s="15">
+        <v>0.28499999999999998</v>
       </c>
       <c r="N16" s="9">
         <v>13.335000000000001</v>
@@ -2227,14 +2215,14 @@
         <v>1</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <v>9.14</v>
       </c>
-      <c r="M17" s="13">
-        <v>3.5</v>
+      <c r="M17" s="15">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N17" s="9">
         <v>7.29</v>
@@ -2278,14 +2266,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="16">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
         <v>11.53</v>
       </c>
-      <c r="M18" s="13">
-        <v>1.4</v>
+      <c r="M18" s="15">
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -2329,14 +2317,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <v>0.125</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <v>10.5</v>
       </c>
-      <c r="M19" s="13">
-        <v>4.0999999999999996</v>
+      <c r="M19" s="15">
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="N19" s="9">
         <v>12.5</v>
@@ -2380,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <v>3.71</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="15">
         <v>0</v>
       </c>
       <c r="N20" s="9">
@@ -2431,14 +2419,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="16">
+      <c r="K21" s="14">
         <v>0.08</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <v>3.4</v>
       </c>
-      <c r="M21" s="13">
-        <v>10.199999999999999</v>
+      <c r="M21" s="15">
+        <v>0.10199999999999999</v>
       </c>
       <c r="N21" s="9">
         <v>8</v>
@@ -2482,14 +2470,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <v>9.7899999999999991</v>
       </c>
-      <c r="M22" s="13">
-        <v>3.4</v>
+      <c r="M22" s="15">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N22" s="9">
         <v>3.57</v>
@@ -2533,14 +2521,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="16">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>6.88</v>
       </c>
-      <c r="M23" s="13">
-        <v>5.7</v>
+      <c r="M23" s="15">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="N23" s="9">
         <v>0</v>
@@ -2584,14 +2572,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="16">
+      <c r="K24" s="14">
         <v>0.1</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <v>13.95</v>
       </c>
-      <c r="M24" s="13">
-        <v>0.7</v>
+      <c r="M24" s="15">
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="N24" s="9">
         <v>10</v>
@@ -2635,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="16">
+      <c r="K25" s="14">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="15">
         <v>3.35</v>
       </c>
-      <c r="M25" s="13">
-        <v>1.6</v>
+      <c r="M25" s="15">
+        <v>1.6E-2</v>
       </c>
       <c r="N25" s="9">
         <v>4.165</v>
@@ -2686,14 +2674,14 @@
         <v>0</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="15">
         <v>15.7</v>
       </c>
-      <c r="M26" s="13">
-        <v>5.0999999999999996</v>
+      <c r="M26" s="15">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N26" s="9">
         <v>6.1550000000000002</v>
@@ -2739,13 +2727,13 @@
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="15">
         <v>0</v>
       </c>
       <c r="N27" s="9">
@@ -2792,14 +2780,14 @@
       <c r="J28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="15">
         <v>12.4</v>
       </c>
-      <c r="M28" s="13">
-        <v>1.7</v>
+      <c r="M28" s="15">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N28" s="9">
         <v>14.285</v>
@@ -2845,14 +2833,14 @@
       <c r="J29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="15">
         <v>5.6</v>
       </c>
       <c r="M29" s="19">
-        <v>3.2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="N29" s="9">
         <v>14.285</v>
@@ -2898,14 +2886,14 @@
       <c r="J30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="15">
         <v>11.75</v>
       </c>
       <c r="M30" s="19">
-        <v>0.3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N30" s="9">
         <v>14.285</v>
@@ -2949,14 +2937,14 @@
         <v>0</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="16">
+      <c r="K31" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="15">
         <v>3.15</v>
       </c>
       <c r="M31" s="19">
-        <v>14.5</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N31" s="9">
         <v>3.57</v>
@@ -3000,14 +2988,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="16">
+      <c r="K32" s="14">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="15">
         <v>10.9</v>
       </c>
       <c r="M32" s="19">
-        <v>3.6</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N32" s="9">
         <v>23.19</v>
@@ -3051,14 +3039,14 @@
         <v>0</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="16">
+      <c r="K33" s="14">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="15">
         <v>9.65</v>
       </c>
       <c r="M33" s="19">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N33" s="9">
         <v>16.664999999999999</v>
@@ -3102,14 +3090,14 @@
         <v>0</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="16">
+      <c r="K34" s="14">
         <v>0.03</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="15">
         <v>16.8</v>
       </c>
       <c r="M34" s="19">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N34" s="9">
         <v>3.03</v>
@@ -3153,14 +3141,14 @@
         <v>1</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="16">
+      <c r="K35" s="14">
         <v>0.158</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="15">
         <v>1.5</v>
       </c>
       <c r="M35" s="19">
-        <v>4.5</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N35" s="9">
         <v>15.79</v>
@@ -3204,14 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="16">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
         <v>10.53</v>
       </c>
       <c r="M36" s="19">
-        <v>16.3</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="N36" s="9">
         <v>0</v>
@@ -3255,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="16">
+      <c r="K37" s="14">
         <v>0.06</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="15">
         <v>17.420000000000002</v>
       </c>
       <c r="M37" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="N37" s="20">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="N37" s="17">
         <v>6.0250000000000004</v>
       </c>
       <c r="O37" s="9">
@@ -3273,7 +3261,7 @@
       <c r="P37" s="9">
         <v>17.5</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="18">
         <v>48.524999999999999</v>
       </c>
     </row>
@@ -3306,14 +3294,14 @@
         <v>0</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="16">
+      <c r="K38" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="15">
         <v>4.6500000000000004</v>
       </c>
-      <c r="M38" s="13">
-        <v>3.8</v>
+      <c r="M38" s="15">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N38" s="9">
         <v>14.285</v>
@@ -3357,14 +3345,14 @@
         <v>0</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="16">
+      <c r="K39" s="14">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="15">
         <v>13.15</v>
       </c>
-      <c r="M39" s="13">
-        <v>2.2000000000000002</v>
+      <c r="M39" s="15">
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N39" s="9">
         <v>9.6750000000000007</v>
@@ -3408,14 +3396,14 @@
         <v>0</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="16">
+      <c r="K40" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="15">
         <v>14.6</v>
       </c>
-      <c r="M40" s="13">
-        <v>1.5</v>
+      <c r="M40" s="15">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N40" s="9">
         <v>3.2250000000000001</v>
@@ -3459,14 +3447,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="16">
-        <v>0</v>
-      </c>
-      <c r="L41" s="17">
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>10.8</v>
       </c>
-      <c r="M41" s="13">
-        <v>4.0999999999999996</v>
+      <c r="M41" s="15">
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="N41" s="9">
         <v>0</v>
@@ -3510,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="16">
+      <c r="K42" s="14">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="15">
         <v>3.25</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="15">
         <v>0</v>
       </c>
       <c r="N42" s="9">
@@ -3561,14 +3549,14 @@
         <v>0</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="16">
+      <c r="K43" s="14">
         <v>0.111</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="15">
         <v>14.2</v>
       </c>
-      <c r="M43" s="13">
-        <v>5.7</v>
+      <c r="M43" s="15">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="N43" s="9">
         <v>11.11</v>
@@ -3612,14 +3600,14 @@
         <v>0</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="16">
+      <c r="K44" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="15">
         <v>20.399999999999999</v>
       </c>
-      <c r="M44" s="13">
-        <v>2.6</v>
+      <c r="M44" s="15">
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="N44" s="9">
         <v>9.09</v>
@@ -3663,14 +3651,14 @@
         <v>0</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="16">
+      <c r="K45" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="15">
         <v>11.6</v>
       </c>
-      <c r="M45" s="13">
-        <v>2.4</v>
+      <c r="M45" s="15">
+        <v>2.4E-2</v>
       </c>
       <c r="N45" s="9">
         <v>4.125</v>
@@ -3714,14 +3702,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="16">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
         <v>1.55</v>
       </c>
-      <c r="M46" s="13">
-        <v>20.6</v>
+      <c r="M46" s="15">
+        <v>0.20600000000000002</v>
       </c>
       <c r="N46" s="9">
         <v>0</v>
@@ -3765,14 +3753,14 @@
         <v>0</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="K47" s="16">
-        <v>0</v>
-      </c>
-      <c r="L47" s="17">
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
         <v>5.9</v>
       </c>
-      <c r="M47" s="13">
-        <v>4.7</v>
+      <c r="M47" s="15">
+        <v>4.7E-2</v>
       </c>
       <c r="N47" s="9">
         <v>0</v>
@@ -3816,14 +3804,14 @@
         <v>0</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="16">
+      <c r="K48" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="15">
         <v>9.33</v>
       </c>
-      <c r="M48" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M48" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N48" s="9">
         <v>1.25</v>
@@ -3867,14 +3855,14 @@
         <v>0</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="K49" s="16">
+      <c r="K49" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="15">
         <v>14.75</v>
       </c>
-      <c r="M49" s="13">
-        <v>1.4</v>
+      <c r="M49" s="15">
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="N49" s="9">
         <v>4.5449999999999999</v>
@@ -3918,14 +3906,14 @@
         <v>0</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="K50" s="16">
+      <c r="K50" s="14">
         <v>0.03</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="15">
         <v>10.85</v>
       </c>
-      <c r="M50" s="13">
-        <v>0.1</v>
+      <c r="M50" s="15">
+        <v>1E-3</v>
       </c>
       <c r="N50" s="9">
         <v>3</v>
@@ -3969,14 +3957,14 @@
         <v>0</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="16">
-        <v>0</v>
-      </c>
-      <c r="L51" s="17">
-        <v>0</v>
-      </c>
-      <c r="M51" s="13">
-        <v>6.2</v>
+      <c r="K51" s="14">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>6.2E-2</v>
       </c>
       <c r="N51" s="9">
         <v>0</v>
@@ -4020,14 +4008,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="K52" s="16">
-        <v>0</v>
-      </c>
-      <c r="L52" s="17">
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
         <v>11.25</v>
       </c>
-      <c r="M52" s="13">
-        <v>3.6</v>
+      <c r="M52" s="15">
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N52" s="9">
         <v>0</v>
@@ -4071,14 +4059,14 @@
         <v>0</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="16">
-        <v>0</v>
-      </c>
-      <c r="L53" s="17">
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
         <v>6.6</v>
       </c>
-      <c r="M53" s="13">
-        <v>0.7</v>
+      <c r="M53" s="15">
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="N53" s="9">
         <v>0</v>
@@ -4122,14 +4110,14 @@
         <v>0</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="16">
+      <c r="K54" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="15">
         <v>7.85</v>
       </c>
-      <c r="M54" s="13">
-        <v>6.8</v>
+      <c r="M54" s="15">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N54" s="9">
         <v>8.6950000000000003</v>
@@ -4173,14 +4161,14 @@
         <v>0</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="K55" s="16">
+      <c r="K55" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="15">
         <v>12.11</v>
       </c>
-      <c r="M55" s="13">
-        <v>7</v>
+      <c r="M55" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N55" s="9">
         <v>6.52</v>
@@ -4226,13 +4214,13 @@
       <c r="J56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="L56" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="15">
         <v>0</v>
       </c>
       <c r="N56" s="9">
@@ -4277,14 +4265,14 @@
         <v>0</v>
       </c>
       <c r="J57" s="5"/>
-      <c r="K57" s="16">
-        <v>0</v>
-      </c>
-      <c r="L57" s="17">
+      <c r="K57" s="14">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
         <v>12.73</v>
       </c>
-      <c r="M57" s="13">
-        <v>33.1</v>
+      <c r="M57" s="15">
+        <v>0.33100000000000002</v>
       </c>
       <c r="N57" s="9">
         <v>0</v>
@@ -4328,14 +4316,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="16">
-        <v>0</v>
-      </c>
-      <c r="L58" s="17">
+      <c r="K58" s="14">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
         <v>6.8</v>
       </c>
-      <c r="M58" s="13">
-        <v>3.3</v>
+      <c r="M58" s="15">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N58" s="9">
         <v>0</v>
@@ -4379,14 +4367,14 @@
         <v>0</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="16">
+      <c r="K59" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="15">
         <v>6.9</v>
       </c>
-      <c r="M59" s="13">
-        <v>0.8</v>
+      <c r="M59" s="15">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N59" s="9">
         <v>14.285</v>
@@ -4430,14 +4418,14 @@
         <v>0</v>
       </c>
       <c r="J60" s="5"/>
-      <c r="K60" s="16">
+      <c r="K60" s="14">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="15">
         <v>13.3</v>
       </c>
-      <c r="M60" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M60" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N60" s="9">
         <v>6.8949999999999996</v>
@@ -4481,14 +4469,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="5"/>
-      <c r="K61" s="16">
+      <c r="K61" s="14">
         <v>6.3E-2</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="15">
         <v>13.47</v>
       </c>
-      <c r="M61" s="13">
-        <v>16.2</v>
+      <c r="M61" s="15">
+        <v>0.16200000000000001</v>
       </c>
       <c r="N61" s="9">
         <v>6.3049999999999997</v>
@@ -4532,14 +4520,14 @@
         <v>0</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" s="16">
+      <c r="K62" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="15">
         <v>8.26</v>
       </c>
-      <c r="M62" s="13">
-        <v>30.5</v>
+      <c r="M62" s="15">
+        <v>0.30499999999999999</v>
       </c>
       <c r="N62" s="9">
         <v>2.5649999999999999</v>
@@ -4583,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="5"/>
-      <c r="K63" s="16">
-        <v>0</v>
-      </c>
-      <c r="L63" s="17">
+      <c r="K63" s="14">
+        <v>0</v>
+      </c>
+      <c r="L63" s="15">
         <v>1.75</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="15">
         <v>0</v>
       </c>
       <c r="N63" s="9">
@@ -4634,14 +4622,14 @@
         <v>0</v>
       </c>
       <c r="J64" s="5"/>
-      <c r="K64" s="16">
-        <v>0</v>
-      </c>
-      <c r="L64" s="17">
+      <c r="K64" s="14">
+        <v>0</v>
+      </c>
+      <c r="L64" s="15">
         <v>4.03</v>
       </c>
-      <c r="M64" s="13">
-        <v>8.6</v>
+      <c r="M64" s="15">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="N64" s="9">
         <v>0</v>
@@ -4685,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="5"/>
-      <c r="K65" s="16">
+      <c r="K65" s="14">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="15">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="15">
         <v>0</v>
       </c>
       <c r="N65" s="9">
@@ -4736,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="16">
-        <v>0</v>
-      </c>
-      <c r="L66" s="17">
+      <c r="K66" s="14">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
         <v>10.050000000000001</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="15">
         <v>0</v>
       </c>
       <c r="N66" s="9">
@@ -4787,14 +4775,14 @@
         <v>0</v>
       </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="16">
-        <v>0</v>
-      </c>
-      <c r="L67" s="17">
+      <c r="K67" s="14">
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
         <v>9</v>
       </c>
-      <c r="M67" s="13">
-        <v>1.8</v>
+      <c r="M67" s="15">
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="N67" s="9">
         <v>0</v>
@@ -4838,14 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J68" s="5"/>
-      <c r="K68" s="16">
-        <v>0</v>
-      </c>
-      <c r="L68" s="17">
+      <c r="K68" s="14">
+        <v>0</v>
+      </c>
+      <c r="L68" s="15">
         <v>8.5</v>
       </c>
-      <c r="M68" s="13">
-        <v>22.4</v>
+      <c r="M68" s="15">
+        <v>0.22399999999999998</v>
       </c>
       <c r="N68" s="9">
         <v>0</v>
@@ -4889,14 +4877,14 @@
         <v>0</v>
       </c>
       <c r="J69" s="5"/>
-      <c r="K69" s="16">
+      <c r="K69" s="14">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="15">
         <v>9.1</v>
       </c>
-      <c r="M69" s="13">
-        <v>2.1</v>
+      <c r="M69" s="15">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N69" s="9">
         <v>7.1449999999999996</v>
@@ -4940,14 +4928,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="16">
+      <c r="K70" s="14">
         <v>0.115</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="15">
         <v>8.4</v>
       </c>
-      <c r="M70" s="13">
-        <v>1.6</v>
+      <c r="M70" s="15">
+        <v>1.6E-2</v>
       </c>
       <c r="N70" s="9">
         <v>11.54</v>
@@ -4991,14 +4979,14 @@
         <v>0</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="16">
+      <c r="K71" s="14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="15">
         <v>11.3</v>
       </c>
-      <c r="M71" s="13">
-        <v>1.7</v>
+      <c r="M71" s="15">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N71" s="9">
         <v>7.4050000000000002</v>
@@ -5042,14 +5030,14 @@
         <v>0</v>
       </c>
       <c r="J72" s="5"/>
-      <c r="K72" s="16">
+      <c r="K72" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="15">
         <v>3.21</v>
       </c>
-      <c r="M72" s="13">
-        <v>3.3</v>
+      <c r="M72" s="15">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N72" s="9">
         <v>13.335000000000001</v>
@@ -5093,14 +5081,14 @@
         <v>0</v>
       </c>
       <c r="J73" s="5"/>
-      <c r="K73" s="16">
-        <v>0</v>
-      </c>
-      <c r="L73" s="17">
+      <c r="K73" s="14">
+        <v>0</v>
+      </c>
+      <c r="L73" s="15">
         <v>2.9</v>
       </c>
-      <c r="M73" s="13">
-        <v>2.2000000000000002</v>
+      <c r="M73" s="15">
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N73" s="9">
         <v>0</v>
@@ -5144,14 +5132,14 @@
         <v>0</v>
       </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="16">
+      <c r="K74" s="14">
         <v>0.1</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="15">
         <v>8.49</v>
       </c>
-      <c r="M74" s="13">
-        <v>7.2</v>
+      <c r="M74" s="15">
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="N74" s="9">
         <v>10</v>
@@ -5195,14 +5183,14 @@
         <v>0</v>
       </c>
       <c r="J75" s="5"/>
-      <c r="K75" s="16">
-        <v>0</v>
-      </c>
-      <c r="L75" s="17">
+      <c r="K75" s="14">
+        <v>0</v>
+      </c>
+      <c r="L75" s="15">
         <v>11.2</v>
       </c>
-      <c r="M75" s="13">
-        <v>4.7</v>
+      <c r="M75" s="15">
+        <v>4.7E-2</v>
       </c>
       <c r="N75" s="9">
         <v>0</v>
@@ -5246,14 +5234,14 @@
         <v>0</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="K76" s="16">
-        <v>0</v>
-      </c>
-      <c r="L76" s="17">
+      <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
         <v>15.05</v>
       </c>
-      <c r="M76" s="13">
-        <v>6.5</v>
+      <c r="M76" s="15">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N76" s="9">
         <v>0</v>
@@ -5297,14 +5285,14 @@
         <v>0</v>
       </c>
       <c r="J77" s="5"/>
-      <c r="K77" s="16">
-        <v>0</v>
-      </c>
-      <c r="L77" s="17">
+      <c r="K77" s="14">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
         <v>8.92</v>
       </c>
-      <c r="M77" s="13">
-        <v>28.7</v>
+      <c r="M77" s="15">
+        <v>0.28699999999999998</v>
       </c>
       <c r="N77" s="9">
         <v>0</v>
@@ -5348,14 +5336,14 @@
         <v>1</v>
       </c>
       <c r="J78" s="5"/>
-      <c r="K78" s="16">
+      <c r="K78" s="14">
         <v>0.1</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L78" s="15">
         <v>13.65</v>
       </c>
-      <c r="M78" s="13">
-        <v>12.4</v>
+      <c r="M78" s="15">
+        <v>0.124</v>
       </c>
       <c r="N78" s="9">
         <v>10</v>
@@ -5399,14 +5387,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="5"/>
-      <c r="K79" s="16">
-        <v>0</v>
-      </c>
-      <c r="L79" s="17">
+      <c r="K79" s="14">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15">
         <v>5.75</v>
       </c>
-      <c r="M79" s="13">
-        <v>11.1</v>
+      <c r="M79" s="15">
+        <v>0.111</v>
       </c>
       <c r="N79" s="9">
         <v>0</v>
@@ -5450,14 +5438,14 @@
         <v>0</v>
       </c>
       <c r="J80" s="5"/>
-      <c r="K80" s="16">
+      <c r="K80" s="14">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L80" s="15">
         <v>12.65</v>
       </c>
-      <c r="M80" s="13">
-        <v>2.6</v>
+      <c r="M80" s="15">
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="N80" s="9">
         <v>4.165</v>
@@ -5501,14 +5489,14 @@
         <v>0</v>
       </c>
       <c r="J81" s="5"/>
-      <c r="K81" s="16">
-        <v>0</v>
-      </c>
-      <c r="L81" s="17">
+      <c r="K81" s="14">
+        <v>0</v>
+      </c>
+      <c r="L81" s="15">
         <v>10.7</v>
       </c>
-      <c r="M81" s="13">
-        <v>3.8</v>
+      <c r="M81" s="15">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N81" s="9">
         <v>0</v>
@@ -5552,14 +5540,14 @@
         <v>0</v>
       </c>
       <c r="J82" s="5"/>
-      <c r="K82" s="16">
-        <v>0</v>
-      </c>
-      <c r="L82" s="17">
+      <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
         <v>13.02</v>
       </c>
-      <c r="M82" s="13">
-        <v>26</v>
+      <c r="M82" s="15">
+        <v>0.26</v>
       </c>
       <c r="N82" s="9">
         <v>0</v>
@@ -5603,14 +5591,14 @@
         <v>0</v>
       </c>
       <c r="J83" s="5"/>
-      <c r="K83" s="16">
-        <v>0</v>
-      </c>
-      <c r="L83" s="17">
+      <c r="K83" s="14">
+        <v>0</v>
+      </c>
+      <c r="L83" s="15">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M83" s="13">
-        <v>3.6</v>
+      <c r="M83" s="15">
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N83" s="9">
         <v>0</v>
@@ -5654,14 +5642,14 @@
         <v>0</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="K84" s="16">
+      <c r="K84" s="14">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L84" s="15">
         <v>7.15</v>
       </c>
-      <c r="M84" s="13">
-        <v>5.2</v>
+      <c r="M84" s="15">
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="N84" s="9">
         <v>24.39</v>
@@ -5705,14 +5693,14 @@
         <v>0</v>
       </c>
       <c r="J85" s="5"/>
-      <c r="K85" s="16">
+      <c r="K85" s="14">
         <v>0.03</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L85" s="15">
         <v>2.15</v>
       </c>
-      <c r="M85" s="13">
-        <v>0.7</v>
+      <c r="M85" s="15">
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="N85" s="9">
         <v>3.03</v>
@@ -5756,14 +5744,14 @@
         <v>0</v>
       </c>
       <c r="J86" s="5"/>
-      <c r="K86" s="16">
+      <c r="K86" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L86" s="15">
         <v>10.85</v>
       </c>
-      <c r="M86" s="13">
-        <v>1.7</v>
+      <c r="M86" s="15">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N86" s="9">
         <v>7.69</v>
@@ -5807,14 +5795,14 @@
         <v>0</v>
       </c>
       <c r="J87" s="5"/>
-      <c r="K87" s="16">
+      <c r="K87" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L87" s="15">
         <v>6.32</v>
       </c>
-      <c r="M87" s="13">
-        <v>62.6</v>
+      <c r="M87" s="15">
+        <v>0.626</v>
       </c>
       <c r="N87" s="9">
         <v>4.3499999999999996</v>
@@ -5858,14 +5846,14 @@
         <v>0</v>
       </c>
       <c r="J88" s="5"/>
-      <c r="K88" s="16">
+      <c r="K88" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L88" s="15">
         <v>11.96</v>
       </c>
-      <c r="M88" s="13">
-        <v>26.4</v>
+      <c r="M88" s="15">
+        <v>0.26400000000000001</v>
       </c>
       <c r="N88" s="9">
         <v>5.4550000000000001</v>
@@ -5909,14 +5897,14 @@
         <v>0</v>
       </c>
       <c r="J89" s="5"/>
-      <c r="K89" s="16">
+      <c r="K89" s="14">
         <v>0.105</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L89" s="15">
         <v>13.81</v>
       </c>
-      <c r="M89" s="13">
-        <v>0.4</v>
+      <c r="M89" s="15">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N89" s="9">
         <v>10.525</v>
@@ -5960,14 +5948,14 @@
         <v>0</v>
       </c>
       <c r="J90" s="5"/>
-      <c r="K90" s="16">
+      <c r="K90" s="14">
         <v>0.05</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="15">
         <v>9.0500000000000007</v>
       </c>
-      <c r="M90" s="13">
-        <v>2.9</v>
+      <c r="M90" s="15">
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="N90" s="9">
         <v>5</v>
@@ -6011,14 +5999,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="5"/>
-      <c r="K91" s="16">
-        <v>0</v>
-      </c>
-      <c r="L91" s="17">
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91" s="15">
         <v>12</v>
       </c>
-      <c r="M91" s="13">
-        <v>4.4000000000000004</v>
+      <c r="M91" s="15">
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="N91" s="9">
         <v>0</v>
@@ -6064,14 +6052,14 @@
       <c r="J92" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K92" s="16">
-        <v>0</v>
-      </c>
-      <c r="L92" s="17">
+      <c r="K92" s="14">
+        <v>0</v>
+      </c>
+      <c r="L92" s="15">
         <v>9</v>
       </c>
-      <c r="M92" s="13">
-        <v>17.3</v>
+      <c r="M92" s="15">
+        <v>0.17300000000000001</v>
       </c>
       <c r="N92" s="9">
         <v>0</v>
@@ -6115,14 +6103,14 @@
         <v>0</v>
       </c>
       <c r="J93" s="5"/>
-      <c r="K93" s="16">
+      <c r="K93" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="15">
         <v>7.95</v>
       </c>
-      <c r="M93" s="13">
-        <v>14.3</v>
+      <c r="M93" s="15">
+        <v>0.14300000000000002</v>
       </c>
       <c r="N93" s="9">
         <v>4.5449999999999999</v>
@@ -6166,14 +6154,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="5"/>
-      <c r="K94" s="16">
+      <c r="K94" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L94" s="15">
         <v>7</v>
       </c>
-      <c r="M94" s="13">
-        <v>7.5</v>
+      <c r="M94" s="15">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N94" s="9">
         <v>7.69</v>
@@ -6217,14 +6205,14 @@
         <v>0</v>
       </c>
       <c r="J95" s="5"/>
-      <c r="K95" s="16">
-        <v>0</v>
-      </c>
-      <c r="L95" s="17">
+      <c r="K95" s="14">
+        <v>0</v>
+      </c>
+      <c r="L95" s="15">
         <v>6.71</v>
       </c>
-      <c r="M95" s="13">
-        <v>10</v>
+      <c r="M95" s="15">
+        <v>0.1</v>
       </c>
       <c r="N95" s="9">
         <v>0</v>
@@ -6268,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="5"/>
-      <c r="K96" s="16">
-        <v>0</v>
-      </c>
-      <c r="L96" s="17">
+      <c r="K96" s="14">
+        <v>0</v>
+      </c>
+      <c r="L96" s="15">
         <v>3.83</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="15">
         <v>0</v>
       </c>
       <c r="N96" s="9">
@@ -6319,14 +6307,14 @@
         <v>0</v>
       </c>
       <c r="J97" s="5"/>
-      <c r="K97" s="16">
+      <c r="K97" s="14">
         <v>0.222</v>
       </c>
-      <c r="L97" s="17">
+      <c r="L97" s="15">
         <v>1.32</v>
       </c>
-      <c r="M97" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M97" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N97" s="9">
         <v>22.22</v>
@@ -6372,14 +6360,14 @@
       <c r="J98" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K98" s="16">
-        <v>0</v>
-      </c>
-      <c r="L98" s="17">
+      <c r="K98" s="14">
+        <v>0</v>
+      </c>
+      <c r="L98" s="15">
         <v>2.65</v>
       </c>
-      <c r="M98" s="13">
-        <v>3.3</v>
+      <c r="M98" s="15">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N98" s="9">
         <v>0</v>
@@ -6423,14 +6411,14 @@
         <v>0</v>
       </c>
       <c r="J99" s="5"/>
-      <c r="K99" s="16">
+      <c r="K99" s="14">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L99" s="17">
+      <c r="L99" s="15">
         <v>4.21</v>
       </c>
-      <c r="M99" s="13">
-        <v>31.3</v>
+      <c r="M99" s="15">
+        <v>0.313</v>
       </c>
       <c r="N99" s="9">
         <v>4.76</v>
@@ -6474,14 +6462,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="5"/>
-      <c r="K100" s="16">
-        <v>0</v>
-      </c>
-      <c r="L100" s="17">
+      <c r="K100" s="14">
+        <v>0</v>
+      </c>
+      <c r="L100" s="15">
         <v>13.55</v>
       </c>
-      <c r="M100" s="13">
-        <v>30.6</v>
+      <c r="M100" s="15">
+        <v>0.30599999999999999</v>
       </c>
       <c r="N100" s="9">
         <v>0</v>
@@ -6525,14 +6513,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="5"/>
-      <c r="K101" s="16">
-        <v>0</v>
-      </c>
-      <c r="L101" s="17">
+      <c r="K101" s="14">
+        <v>0</v>
+      </c>
+      <c r="L101" s="15">
         <v>10.8</v>
       </c>
-      <c r="M101" s="13">
-        <v>17.7</v>
+      <c r="M101" s="15">
+        <v>0.17699999999999999</v>
       </c>
       <c r="N101" s="9">
         <v>0</v>
@@ -6576,14 +6564,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="5"/>
-      <c r="K102" s="16">
+      <c r="K102" s="14">
         <v>0.125</v>
       </c>
-      <c r="L102" s="17">
+      <c r="L102" s="15">
         <v>10.8</v>
       </c>
-      <c r="M102" s="13">
-        <v>0.4</v>
+      <c r="M102" s="15">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N102" s="9">
         <v>12.5</v>
@@ -6629,14 +6617,14 @@
       <c r="J103" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L103" s="17">
+      <c r="L103" s="15">
         <v>12</v>
       </c>
-      <c r="M103" s="13">
-        <v>11.6</v>
+      <c r="M103" s="15">
+        <v>0.11599999999999999</v>
       </c>
       <c r="N103" s="9">
         <v>1.7849999999999999</v>
@@ -6680,14 +6668,14 @@
         <v>0</v>
       </c>
       <c r="J104" s="5"/>
-      <c r="K104" s="16">
-        <v>0</v>
-      </c>
-      <c r="L104" s="17">
+      <c r="K104" s="14">
+        <v>0</v>
+      </c>
+      <c r="L104" s="15">
         <v>9.35</v>
       </c>
-      <c r="M104" s="13">
-        <v>11.3</v>
+      <c r="M104" s="15">
+        <v>0.113</v>
       </c>
       <c r="N104" s="9">
         <v>0</v>
@@ -6731,14 +6719,14 @@
         <v>0</v>
       </c>
       <c r="J105" s="5"/>
-      <c r="K105" s="16">
-        <v>0</v>
-      </c>
-      <c r="L105" s="17">
+      <c r="K105" s="14">
+        <v>0</v>
+      </c>
+      <c r="L105" s="15">
         <v>10.6</v>
       </c>
-      <c r="M105" s="13">
-        <v>3.3</v>
+      <c r="M105" s="15">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N105" s="9">
         <v>0</v>
@@ -6782,14 +6770,14 @@
         <v>0</v>
       </c>
       <c r="J106" s="5"/>
-      <c r="K106" s="16">
-        <v>0</v>
-      </c>
-      <c r="L106" s="17">
+      <c r="K106" s="14">
+        <v>0</v>
+      </c>
+      <c r="L106" s="15">
         <v>2.65</v>
       </c>
-      <c r="M106" s="13">
-        <v>19.5</v>
+      <c r="M106" s="15">
+        <v>0.19500000000000001</v>
       </c>
       <c r="N106" s="9">
         <v>0</v>
@@ -6835,14 +6823,14 @@
       <c r="J107" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K107" s="16">
-        <v>0</v>
-      </c>
-      <c r="L107" s="17">
+      <c r="K107" s="14">
+        <v>0</v>
+      </c>
+      <c r="L107" s="15">
         <v>13.45</v>
       </c>
-      <c r="M107" s="13">
-        <v>4.4000000000000004</v>
+      <c r="M107" s="15">
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="N107" s="9">
         <v>0</v>
@@ -6886,14 +6874,14 @@
         <v>0</v>
       </c>
       <c r="J108" s="5"/>
-      <c r="K108" s="16">
+      <c r="K108" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L108" s="17">
+      <c r="L108" s="15">
         <v>10.75</v>
       </c>
-      <c r="M108" s="13">
-        <v>2.2000000000000002</v>
+      <c r="M108" s="15">
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N108" s="9">
         <v>14.285</v>
@@ -6937,14 +6925,14 @@
         <v>0</v>
       </c>
       <c r="J109" s="5"/>
-      <c r="K109" s="16">
-        <v>0</v>
-      </c>
-      <c r="L109" s="17">
+      <c r="K109" s="14">
+        <v>0</v>
+      </c>
+      <c r="L109" s="15">
         <v>15</v>
       </c>
-      <c r="M109" s="13">
-        <v>7.4</v>
+      <c r="M109" s="15">
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="N109" s="9">
         <v>0</v>
@@ -6990,14 +6978,14 @@
       <c r="J110" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K110" s="16">
-        <v>0</v>
-      </c>
-      <c r="L110" s="17">
+      <c r="K110" s="14">
+        <v>0</v>
+      </c>
+      <c r="L110" s="15">
         <v>11.56</v>
       </c>
-      <c r="M110" s="13">
-        <v>3.6</v>
+      <c r="M110" s="15">
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N110" s="9">
         <v>0</v>
@@ -7041,14 +7029,14 @@
         <v>0</v>
       </c>
       <c r="J111" s="5"/>
-      <c r="K111" s="16">
+      <c r="K111" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="15">
         <v>12.45</v>
       </c>
-      <c r="M111" s="13">
-        <v>0.2</v>
+      <c r="M111" s="15">
+        <v>2E-3</v>
       </c>
       <c r="N111" s="9">
         <v>1.3149999999999999</v>
@@ -7092,14 +7080,14 @@
         <v>0</v>
       </c>
       <c r="J112" s="5"/>
-      <c r="K112" s="16">
+      <c r="K112" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L112" s="17">
+      <c r="L112" s="15">
         <v>6.13</v>
       </c>
-      <c r="M112" s="13">
-        <v>2.1</v>
+      <c r="M112" s="15">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N112" s="9">
         <v>13.335000000000001</v>
@@ -7143,14 +7131,14 @@
         <v>0</v>
       </c>
       <c r="J113" s="5"/>
-      <c r="K113" s="16">
-        <v>0</v>
-      </c>
-      <c r="L113" s="17">
+      <c r="K113" s="14">
+        <v>0</v>
+      </c>
+      <c r="L113" s="15">
         <v>12.5</v>
       </c>
-      <c r="M113" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M113" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N113" s="9">
         <v>0</v>
@@ -7194,14 +7182,14 @@
         <v>0</v>
       </c>
       <c r="J114" s="5"/>
-      <c r="K114" s="16">
+      <c r="K114" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L114" s="17">
+      <c r="L114" s="15">
         <v>18.2</v>
       </c>
-      <c r="M114" s="13">
-        <v>2</v>
+      <c r="M114" s="15">
+        <v>0.02</v>
       </c>
       <c r="N114" s="9">
         <v>4.4800000000000004</v>
@@ -7245,14 +7233,14 @@
         <v>0</v>
       </c>
       <c r="J115" s="5"/>
-      <c r="K115" s="16">
+      <c r="K115" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L115" s="17">
+      <c r="L115" s="15">
         <v>8.9499999999999993</v>
       </c>
-      <c r="M115" s="13">
-        <v>1.5</v>
+      <c r="M115" s="15">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N115" s="9">
         <v>13.335000000000001</v>
@@ -7296,14 +7284,14 @@
         <v>0</v>
       </c>
       <c r="J116" s="5"/>
-      <c r="K116" s="16">
+      <c r="K116" s="14">
         <v>0.125</v>
       </c>
-      <c r="L116" s="17">
+      <c r="L116" s="15">
         <v>3.55</v>
       </c>
-      <c r="M116" s="13">
-        <v>9.8000000000000007</v>
+      <c r="M116" s="15">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="N116" s="9">
         <v>12.5</v>
@@ -7347,14 +7335,14 @@
         <v>0</v>
       </c>
       <c r="J117" s="5"/>
-      <c r="K117" s="16">
+      <c r="K117" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L117" s="17">
+      <c r="L117" s="15">
         <v>13.2</v>
       </c>
-      <c r="M117" s="13">
-        <v>2</v>
+      <c r="M117" s="15">
+        <v>0.02</v>
       </c>
       <c r="N117" s="9">
         <v>2.5</v>
@@ -7400,14 +7388,14 @@
       <c r="J118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K118" s="16">
-        <v>0</v>
-      </c>
-      <c r="L118" s="17">
+      <c r="K118" s="14">
+        <v>0</v>
+      </c>
+      <c r="L118" s="15">
         <v>12.35</v>
       </c>
-      <c r="M118" s="13">
-        <v>0.1</v>
+      <c r="M118" s="15">
+        <v>1E-3</v>
       </c>
       <c r="N118" s="9">
         <v>0</v>
@@ -7451,14 +7439,14 @@
         <v>0</v>
       </c>
       <c r="J119" s="5"/>
-      <c r="K119" s="16">
-        <v>0</v>
-      </c>
-      <c r="L119" s="17">
+      <c r="K119" s="14">
+        <v>0</v>
+      </c>
+      <c r="L119" s="15">
         <v>9.35</v>
       </c>
-      <c r="M119" s="13">
-        <v>3.9</v>
+      <c r="M119" s="15">
+        <v>3.9E-2</v>
       </c>
       <c r="N119" s="9">
         <v>0</v>
@@ -7502,14 +7490,14 @@
         <v>0</v>
       </c>
       <c r="J120" s="5"/>
-      <c r="K120" s="16">
-        <v>0</v>
-      </c>
-      <c r="L120" s="17">
+      <c r="K120" s="14">
+        <v>0</v>
+      </c>
+      <c r="L120" s="15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M120" s="13">
-        <v>2.4</v>
+      <c r="M120" s="15">
+        <v>2.4E-2</v>
       </c>
       <c r="N120" s="9">
         <v>0</v>
@@ -7553,13 +7541,13 @@
       <c r="J121" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K121" s="16">
-        <v>0</v>
-      </c>
-      <c r="L121" s="17" t="s">
+      <c r="K121" s="14">
+        <v>0</v>
+      </c>
+      <c r="L121" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M121" s="13">
+      <c r="M121" s="15">
         <v>0</v>
       </c>
       <c r="N121" s="9">
@@ -7604,14 +7592,14 @@
         <v>0</v>
       </c>
       <c r="J122" s="5"/>
-      <c r="K122" s="16">
-        <v>0</v>
-      </c>
-      <c r="L122" s="17">
+      <c r="K122" s="14">
+        <v>0</v>
+      </c>
+      <c r="L122" s="15">
         <v>31.5</v>
       </c>
-      <c r="M122" s="13">
-        <v>13.4</v>
+      <c r="M122" s="15">
+        <v>0.13400000000000001</v>
       </c>
       <c r="N122" s="9">
         <v>0</v>
@@ -7655,14 +7643,14 @@
         <v>0</v>
       </c>
       <c r="J123" s="5"/>
-      <c r="K123" s="16">
+      <c r="K123" s="14">
         <v>0.03</v>
       </c>
-      <c r="L123" s="17">
+      <c r="L123" s="15">
         <v>14.9</v>
       </c>
-      <c r="M123" s="13">
-        <v>1.9</v>
+      <c r="M123" s="15">
+        <v>1.9E-2</v>
       </c>
       <c r="N123" s="9">
         <v>3.03</v>
@@ -7706,14 +7694,14 @@
         <v>0</v>
       </c>
       <c r="J124" s="5"/>
-      <c r="K124" s="16">
-        <v>0</v>
-      </c>
-      <c r="L124" s="17">
+      <c r="K124" s="14">
+        <v>0</v>
+      </c>
+      <c r="L124" s="15">
         <v>9.19</v>
       </c>
-      <c r="M124" s="13">
-        <v>0.6</v>
+      <c r="M124" s="15">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N124" s="9">
         <v>0</v>
@@ -7759,14 +7747,14 @@
       <c r="J125" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L125" s="17">
+      <c r="L125" s="15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M125" s="13">
-        <v>5.9</v>
+      <c r="M125" s="15">
+        <v>5.9000000000000004E-2</v>
       </c>
       <c r="N125" s="9">
         <v>4.3499999999999996</v>
@@ -7810,14 +7798,14 @@
         <v>0</v>
       </c>
       <c r="J126" s="5"/>
-      <c r="K126" s="16">
-        <v>0</v>
-      </c>
-      <c r="L126" s="17">
+      <c r="K126" s="14">
+        <v>0</v>
+      </c>
+      <c r="L126" s="15">
         <v>9.65</v>
       </c>
-      <c r="M126" s="13">
-        <v>3.8</v>
+      <c r="M126" s="15">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N126" s="9">
         <v>0</v>
@@ -7863,14 +7851,14 @@
       <c r="J127" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="14">
         <v>0.08</v>
       </c>
-      <c r="L127" s="17">
+      <c r="L127" s="15">
         <v>14.05</v>
       </c>
-      <c r="M127" s="13">
-        <v>4</v>
+      <c r="M127" s="15">
+        <v>0.04</v>
       </c>
       <c r="N127" s="9">
         <v>8</v>
@@ -7914,14 +7902,14 @@
         <v>0</v>
       </c>
       <c r="J128" s="5"/>
-      <c r="K128" s="16">
+      <c r="K128" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L128" s="17">
+      <c r="L128" s="15">
         <v>14.38</v>
       </c>
-      <c r="M128" s="13">
-        <v>5.4</v>
+      <c r="M128" s="15">
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="N128" s="9">
         <v>2.63</v>
@@ -7965,14 +7953,14 @@
         <v>0</v>
       </c>
       <c r="J129" s="5"/>
-      <c r="K129" s="16">
-        <v>0</v>
-      </c>
-      <c r="L129" s="17">
+      <c r="K129" s="14">
+        <v>0</v>
+      </c>
+      <c r="L129" s="15">
         <v>7.68</v>
       </c>
-      <c r="M129" s="13">
-        <v>1.3</v>
+      <c r="M129" s="15">
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="N129" s="9">
         <v>0</v>
@@ -8018,14 +8006,14 @@
       <c r="J130" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="14">
         <v>0.111</v>
       </c>
-      <c r="L130" s="17">
+      <c r="L130" s="15">
         <v>4.3</v>
       </c>
-      <c r="M130" s="13">
-        <v>4</v>
+      <c r="M130" s="15">
+        <v>0.04</v>
       </c>
       <c r="N130" s="9">
         <v>11.11</v>
@@ -8069,14 +8057,14 @@
         <v>0</v>
       </c>
       <c r="J131" s="5"/>
-      <c r="K131" s="16">
+      <c r="K131" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L131" s="17">
+      <c r="L131" s="15">
         <v>8.66</v>
       </c>
-      <c r="M131" s="13">
-        <v>12.3</v>
+      <c r="M131" s="15">
+        <v>0.12300000000000001</v>
       </c>
       <c r="N131" s="9">
         <v>14.285</v>
@@ -8120,14 +8108,14 @@
         <v>0</v>
       </c>
       <c r="J132" s="5"/>
-      <c r="K132" s="16">
-        <v>0</v>
-      </c>
-      <c r="L132" s="17">
+      <c r="K132" s="14">
+        <v>0</v>
+      </c>
+      <c r="L132" s="15">
         <v>15.4</v>
       </c>
-      <c r="M132" s="13">
-        <v>4</v>
+      <c r="M132" s="15">
+        <v>0.04</v>
       </c>
       <c r="N132" s="9">
         <v>0</v>
@@ -8171,14 +8159,14 @@
         <v>0</v>
       </c>
       <c r="J133" s="5"/>
-      <c r="K133" s="16">
+      <c r="K133" s="14">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L133" s="17">
+      <c r="L133" s="15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="M133" s="13">
-        <v>6.7</v>
+      <c r="M133" s="15">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="N133" s="9">
         <v>6.665</v>
@@ -8222,14 +8210,14 @@
         <v>0</v>
       </c>
       <c r="J134" s="5"/>
-      <c r="K134" s="16">
+      <c r="K134" s="14">
         <v>0.182</v>
       </c>
-      <c r="L134" s="17">
+      <c r="L134" s="15">
         <v>13.36</v>
       </c>
-      <c r="M134" s="13">
-        <v>9</v>
+      <c r="M134" s="15">
+        <v>0.09</v>
       </c>
       <c r="N134" s="9">
         <v>18.18</v>
@@ -8275,14 +8263,14 @@
       <c r="J135" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K135" s="16">
-        <v>0</v>
-      </c>
-      <c r="L135" s="17">
+      <c r="K135" s="14">
+        <v>0</v>
+      </c>
+      <c r="L135" s="15">
         <v>6.9</v>
       </c>
-      <c r="M135" s="13">
-        <v>1.8</v>
+      <c r="M135" s="15">
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="N135" s="9">
         <v>0</v>
@@ -8326,13 +8314,13 @@
         <v>0</v>
       </c>
       <c r="J136" s="5"/>
-      <c r="K136" s="16">
-        <v>0</v>
-      </c>
-      <c r="L136" s="17">
+      <c r="K136" s="14">
+        <v>0</v>
+      </c>
+      <c r="L136" s="15">
         <v>8.5500000000000007</v>
       </c>
-      <c r="M136" s="13">
+      <c r="M136" s="15">
         <v>0</v>
       </c>
       <c r="N136" s="9">
@@ -8377,14 +8365,14 @@
         <v>0</v>
       </c>
       <c r="J137" s="5"/>
-      <c r="K137" s="16">
-        <v>0</v>
-      </c>
-      <c r="L137" s="17">
+      <c r="K137" s="14">
+        <v>0</v>
+      </c>
+      <c r="L137" s="15">
         <v>9</v>
       </c>
-      <c r="M137" s="13">
-        <v>1.5</v>
+      <c r="M137" s="15">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N137" s="9">
         <v>0</v>
@@ -8428,14 +8416,14 @@
         <v>0</v>
       </c>
       <c r="J138" s="5"/>
-      <c r="K138" s="16">
-        <v>0</v>
-      </c>
-      <c r="L138" s="17">
+      <c r="K138" s="14">
+        <v>0</v>
+      </c>
+      <c r="L138" s="15">
         <v>8.5</v>
       </c>
-      <c r="M138" s="13">
-        <v>39</v>
+      <c r="M138" s="15">
+        <v>0.39</v>
       </c>
       <c r="N138" s="9">
         <v>0</v>
@@ -8479,14 +8467,14 @@
         <v>0</v>
       </c>
       <c r="J139" s="5"/>
-      <c r="K139" s="16">
-        <v>0</v>
-      </c>
-      <c r="L139" s="17">
+      <c r="K139" s="14">
+        <v>0</v>
+      </c>
+      <c r="L139" s="15">
         <v>12.43</v>
       </c>
-      <c r="M139" s="13">
-        <v>1.4</v>
+      <c r="M139" s="15">
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="N139" s="9">
         <v>0</v>
@@ -8532,14 +8520,14 @@
       <c r="J140" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K140" s="16">
-        <v>0</v>
-      </c>
-      <c r="L140" s="17">
+      <c r="K140" s="14">
+        <v>0</v>
+      </c>
+      <c r="L140" s="15">
         <v>12.15</v>
       </c>
-      <c r="M140" s="13">
-        <v>4.0999999999999996</v>
+      <c r="M140" s="15">
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="N140" s="9">
         <v>0</v>
@@ -8583,14 +8571,14 @@
         <v>0</v>
       </c>
       <c r="J141" s="5"/>
-      <c r="K141" s="16">
+      <c r="K141" s="14">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L141" s="17">
+      <c r="L141" s="15">
         <v>7.25</v>
       </c>
-      <c r="M141" s="13">
-        <v>13.4</v>
+      <c r="M141" s="15">
+        <v>0.13400000000000001</v>
       </c>
       <c r="N141" s="9">
         <v>33.335000000000001</v>
@@ -8634,14 +8622,14 @@
         <v>0</v>
       </c>
       <c r="J142" s="5"/>
-      <c r="K142" s="16">
-        <v>0</v>
-      </c>
-      <c r="L142" s="17">
+      <c r="K142" s="14">
+        <v>0</v>
+      </c>
+      <c r="L142" s="15">
         <v>12.25</v>
       </c>
-      <c r="M142" s="13">
-        <v>2.4</v>
+      <c r="M142" s="15">
+        <v>2.4E-2</v>
       </c>
       <c r="N142" s="9">
         <v>0</v>
@@ -8685,14 +8673,14 @@
         <v>0</v>
       </c>
       <c r="J143" s="5"/>
-      <c r="K143" s="16">
+      <c r="K143" s="14">
         <v>2.4E-2</v>
       </c>
-      <c r="L143" s="17">
+      <c r="L143" s="15">
         <v>13.45</v>
       </c>
-      <c r="M143" s="13">
-        <v>2.8</v>
+      <c r="M143" s="15">
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="N143" s="9">
         <v>2.44</v>
@@ -8736,14 +8724,14 @@
         <v>0</v>
       </c>
       <c r="J144" s="5"/>
-      <c r="K144" s="16">
+      <c r="K144" s="14">
         <v>0.1</v>
       </c>
-      <c r="L144" s="17">
+      <c r="L144" s="15">
         <v>9.6</v>
       </c>
-      <c r="M144" s="13">
-        <v>3.5</v>
+      <c r="M144" s="15">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N144" s="9">
         <v>10</v>
@@ -8787,14 +8775,14 @@
         <v>0</v>
       </c>
       <c r="J145" s="5"/>
-      <c r="K145" s="16">
+      <c r="K145" s="14">
         <v>2.4E-2</v>
       </c>
-      <c r="L145" s="17">
+      <c r="L145" s="15">
         <v>18.5</v>
       </c>
-      <c r="M145" s="13">
-        <v>1</v>
+      <c r="M145" s="15">
+        <v>0.01</v>
       </c>
       <c r="N145" s="9">
         <v>2.38</v>
@@ -8838,14 +8826,14 @@
         <v>0</v>
       </c>
       <c r="J146" s="5"/>
-      <c r="K146" s="16">
-        <v>0</v>
-      </c>
-      <c r="L146" s="17">
+      <c r="K146" s="14">
+        <v>0</v>
+      </c>
+      <c r="L146" s="15">
         <v>7.17</v>
       </c>
-      <c r="M146" s="13">
-        <v>0.9</v>
+      <c r="M146" s="15">
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="N146" s="9">
         <v>0</v>
@@ -8889,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="J147" s="5"/>
-      <c r="K147" s="16">
-        <v>0</v>
-      </c>
-      <c r="L147" s="17">
+      <c r="K147" s="14">
+        <v>0</v>
+      </c>
+      <c r="L147" s="15">
         <v>6</v>
       </c>
-      <c r="M147" s="13">
+      <c r="M147" s="15">
         <v>0</v>
       </c>
       <c r="N147" s="9">
@@ -8940,14 +8928,14 @@
         <v>0</v>
       </c>
       <c r="J148" s="5"/>
-      <c r="K148" s="16">
-        <v>0</v>
-      </c>
-      <c r="L148" s="17">
+      <c r="K148" s="14">
+        <v>0</v>
+      </c>
+      <c r="L148" s="15">
         <v>13.65</v>
       </c>
-      <c r="M148" s="13">
-        <v>1</v>
+      <c r="M148" s="15">
+        <v>0.01</v>
       </c>
       <c r="N148" s="9">
         <v>0</v>
@@ -8991,14 +8979,14 @@
         <v>0</v>
       </c>
       <c r="J149" s="5"/>
-      <c r="K149" s="16">
+      <c r="K149" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="L149" s="17">
+      <c r="L149" s="15">
         <v>11.23</v>
       </c>
-      <c r="M149" s="13">
-        <v>36.5</v>
+      <c r="M149" s="15">
+        <v>0.36499999999999999</v>
       </c>
       <c r="N149" s="9">
         <v>2.83</v>
@@ -9044,13 +9032,13 @@
       <c r="J150" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K150" s="16">
-        <v>0</v>
-      </c>
-      <c r="L150" s="17">
+      <c r="K150" s="14">
+        <v>0</v>
+      </c>
+      <c r="L150" s="15">
         <v>9.85</v>
       </c>
-      <c r="M150" s="13">
+      <c r="M150" s="15">
         <v>0</v>
       </c>
       <c r="N150" s="9">
@@ -9095,14 +9083,14 @@
         <v>0</v>
       </c>
       <c r="J151" s="5"/>
-      <c r="K151" s="16">
+      <c r="K151" s="14">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L151" s="17">
+      <c r="L151" s="15">
         <v>5.8</v>
       </c>
-      <c r="M151" s="13">
-        <v>0.3</v>
+      <c r="M151" s="15">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N151" s="9">
         <v>10.205</v>
@@ -9148,14 +9136,14 @@
       <c r="J152" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K152" s="16">
+      <c r="K152" s="14">
         <v>0.14599999999999999</v>
       </c>
-      <c r="L152" s="17">
+      <c r="L152" s="15">
         <v>7.55</v>
       </c>
-      <c r="M152" s="13">
-        <v>0.3</v>
+      <c r="M152" s="15">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N152" s="9">
         <v>14.635</v>
@@ -9199,14 +9187,14 @@
         <v>0</v>
       </c>
       <c r="J153" s="5"/>
-      <c r="K153" s="16">
+      <c r="K153" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L153" s="17">
+      <c r="L153" s="15">
         <v>2.1</v>
       </c>
-      <c r="M153" s="13">
-        <v>5.5</v>
+      <c r="M153" s="15">
+        <v>5.5E-2</v>
       </c>
       <c r="N153" s="9">
         <v>7.69</v>
@@ -9250,14 +9238,14 @@
         <v>0</v>
       </c>
       <c r="J154" s="5"/>
-      <c r="K154" s="16">
-        <v>0</v>
-      </c>
-      <c r="L154" s="17">
+      <c r="K154" s="14">
+        <v>0</v>
+      </c>
+      <c r="L154" s="15">
         <v>14.5</v>
       </c>
-      <c r="M154" s="13">
-        <v>1.8</v>
+      <c r="M154" s="15">
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="N154" s="9">
         <v>0</v>
@@ -9301,14 +9289,14 @@
         <v>0</v>
       </c>
       <c r="J155" s="5"/>
-      <c r="K155" s="16">
-        <v>0</v>
-      </c>
-      <c r="L155" s="17">
+      <c r="K155" s="14">
+        <v>0</v>
+      </c>
+      <c r="L155" s="15">
         <v>10.130000000000001</v>
       </c>
-      <c r="M155" s="13">
-        <v>1</v>
+      <c r="M155" s="15">
+        <v>0.01</v>
       </c>
       <c r="N155" s="9">
         <v>0</v>
@@ -9352,14 +9340,14 @@
         <v>0</v>
       </c>
       <c r="J156" s="5"/>
-      <c r="K156" s="16">
-        <v>0</v>
-      </c>
-      <c r="L156" s="17">
+      <c r="K156" s="14">
+        <v>0</v>
+      </c>
+      <c r="L156" s="15">
         <v>7.21</v>
       </c>
-      <c r="M156" s="13">
-        <v>2.6</v>
+      <c r="M156" s="15">
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="N156" s="9">
         <v>0</v>
@@ -9403,14 +9391,14 @@
         <v>179</v>
       </c>
       <c r="J157" s="5"/>
-      <c r="K157" s="16">
-        <v>0</v>
-      </c>
-      <c r="L157" s="17">
-        <v>0</v>
-      </c>
-      <c r="M157" s="13">
-        <v>2.6</v>
+      <c r="K157" s="14">
+        <v>0</v>
+      </c>
+      <c r="L157" s="15">
+        <v>0</v>
+      </c>
+      <c r="M157" s="15">
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="N157" s="9">
         <v>0</v>
@@ -9456,14 +9444,14 @@
       <c r="J158" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K158" s="16">
+      <c r="K158" s="14">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L158" s="17">
+      <c r="L158" s="15">
         <v>10.039999999999999</v>
       </c>
-      <c r="M158" s="13">
-        <v>5.8</v>
+      <c r="M158" s="15">
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="N158" s="9">
         <v>35.295000000000002</v>
@@ -9509,14 +9497,14 @@
       <c r="J159" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="14">
         <v>0.25</v>
       </c>
-      <c r="L159" s="17">
+      <c r="L159" s="15">
         <v>6.35</v>
       </c>
-      <c r="M159" s="13">
-        <v>1</v>
+      <c r="M159" s="15">
+        <v>0.01</v>
       </c>
       <c r="N159" s="9">
         <v>25</v>
@@ -9562,14 +9550,14 @@
       <c r="J160" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K160" s="16">
-        <v>0</v>
-      </c>
-      <c r="L160" s="17">
+      <c r="K160" s="14">
+        <v>0</v>
+      </c>
+      <c r="L160" s="15">
         <v>9.0500000000000007</v>
       </c>
-      <c r="M160" s="13">
-        <v>10.4</v>
+      <c r="M160" s="15">
+        <v>0.10400000000000001</v>
       </c>
       <c r="N160" s="9">
         <v>0</v>
@@ -9615,14 +9603,14 @@
       <c r="J161" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K161" s="16">
-        <v>0</v>
-      </c>
-      <c r="L161" s="17">
+      <c r="K161" s="14">
+        <v>0</v>
+      </c>
+      <c r="L161" s="15">
         <v>4.75</v>
       </c>
-      <c r="M161" s="13">
-        <v>0.9</v>
+      <c r="M161" s="15">
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="N161" s="9">
         <v>0</v>
@@ -9666,13 +9654,13 @@
         <v>0</v>
       </c>
       <c r="J162" s="5"/>
-      <c r="K162" s="16">
+      <c r="K162" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="L162" s="17">
+      <c r="L162" s="15">
         <v>3.65</v>
       </c>
-      <c r="M162" s="13">
+      <c r="M162" s="15">
         <v>0</v>
       </c>
       <c r="N162" s="9">
@@ -9717,13 +9705,13 @@
         <v>0</v>
       </c>
       <c r="J163" s="5"/>
-      <c r="K163" s="16">
+      <c r="K163" s="14">
         <v>0.189</v>
       </c>
-      <c r="L163" s="17">
+      <c r="L163" s="15">
         <v>1.65</v>
       </c>
-      <c r="M163" s="13">
+      <c r="M163" s="15">
         <v>0</v>
       </c>
       <c r="N163" s="9">
@@ -9768,14 +9756,14 @@
         <v>0</v>
       </c>
       <c r="J164" s="5"/>
-      <c r="K164" s="16">
+      <c r="K164" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="L164" s="17">
+      <c r="L164" s="15">
         <v>12.6</v>
       </c>
-      <c r="M164" s="13">
-        <v>3.6</v>
+      <c r="M164" s="15">
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N164" s="9">
         <v>9.09</v>
@@ -9819,14 +9807,14 @@
         <v>0</v>
       </c>
       <c r="J165" s="5"/>
-      <c r="K165" s="16">
+      <c r="K165" s="14">
         <v>0.122</v>
       </c>
-      <c r="L165" s="17">
+      <c r="L165" s="15">
         <v>11.1</v>
       </c>
-      <c r="M165" s="13">
-        <v>4.4000000000000004</v>
+      <c r="M165" s="15">
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="N165" s="9">
         <v>12.195</v>
@@ -9870,14 +9858,14 @@
         <v>0</v>
       </c>
       <c r="J166" s="5"/>
-      <c r="K166" s="16">
-        <v>0</v>
-      </c>
-      <c r="L166" s="17">
+      <c r="K166" s="14">
+        <v>0</v>
+      </c>
+      <c r="L166" s="15">
         <v>8</v>
       </c>
-      <c r="M166" s="13">
-        <v>3.1</v>
+      <c r="M166" s="15">
+        <v>3.1E-2</v>
       </c>
       <c r="N166" s="9">
         <v>0</v>
@@ -9921,14 +9909,14 @@
         <v>0</v>
       </c>
       <c r="J167" s="5"/>
-      <c r="K167" s="16">
-        <v>0</v>
-      </c>
-      <c r="L167" s="17">
+      <c r="K167" s="14">
+        <v>0</v>
+      </c>
+      <c r="L167" s="15">
         <v>3.6</v>
       </c>
-      <c r="M167" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M167" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N167" s="9">
         <v>0</v>
@@ -9972,14 +9960,14 @@
         <v>0</v>
       </c>
       <c r="J168" s="5"/>
-      <c r="K168" s="16">
+      <c r="K168" s="14">
         <v>0.222</v>
       </c>
-      <c r="L168" s="17">
+      <c r="L168" s="15">
         <v>8.6</v>
       </c>
-      <c r="M168" s="13">
-        <v>7</v>
+      <c r="M168" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N168" s="9">
         <v>22.22</v>
@@ -10025,14 +10013,14 @@
       <c r="J169" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K169" s="16">
+      <c r="K169" s="14">
         <v>0.1</v>
       </c>
-      <c r="L169" s="17">
-        <v>0</v>
-      </c>
-      <c r="M169" s="13">
-        <v>7</v>
+      <c r="L169" s="15">
+        <v>0</v>
+      </c>
+      <c r="M169" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N169" s="9">
         <v>10</v>
@@ -10078,14 +10066,14 @@
       <c r="J170" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K170" s="16">
-        <v>0</v>
-      </c>
-      <c r="L170" s="17">
+      <c r="K170" s="14">
+        <v>0</v>
+      </c>
+      <c r="L170" s="15">
         <v>10.25</v>
       </c>
-      <c r="M170" s="13">
-        <v>2.8</v>
+      <c r="M170" s="15">
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="N170" s="9">
         <v>0</v>
@@ -10131,14 +10119,14 @@
       <c r="J171" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K171" s="16">
-        <v>0</v>
-      </c>
-      <c r="L171" s="17">
+      <c r="K171" s="14">
+        <v>0</v>
+      </c>
+      <c r="L171" s="15">
         <v>8.36</v>
       </c>
-      <c r="M171" s="13">
-        <v>1.5</v>
+      <c r="M171" s="15">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N171" s="9">
         <v>0</v>
@@ -10182,14 +10170,14 @@
         <v>0</v>
       </c>
       <c r="J172" s="5"/>
-      <c r="K172" s="16">
+      <c r="K172" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="L172" s="17">
+      <c r="L172" s="15">
         <v>11.57</v>
       </c>
-      <c r="M172" s="13">
-        <v>13.9</v>
+      <c r="M172" s="15">
+        <v>0.13900000000000001</v>
       </c>
       <c r="N172" s="9">
         <v>6.25</v>
@@ -10233,14 +10221,14 @@
         <v>0</v>
       </c>
       <c r="J173" s="5"/>
-      <c r="K173" s="16">
-        <v>0</v>
-      </c>
-      <c r="L173" s="17">
+      <c r="K173" s="14">
+        <v>0</v>
+      </c>
+      <c r="L173" s="15">
         <v>13.15</v>
       </c>
-      <c r="M173" s="13">
-        <v>3.6</v>
+      <c r="M173" s="15">
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="N173" s="9">
         <v>0</v>
@@ -10286,13 +10274,13 @@
       <c r="J174" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K174" s="16">
+      <c r="K174" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L174" s="17">
+      <c r="L174" s="15">
         <v>4.6500000000000004</v>
       </c>
-      <c r="M174" s="13">
+      <c r="M174" s="15">
         <v>0</v>
       </c>
       <c r="N174" s="9">
@@ -10337,14 +10325,14 @@
         <v>0</v>
       </c>
       <c r="J175" s="5"/>
-      <c r="K175" s="16">
+      <c r="K175" s="14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L175" s="17">
+      <c r="L175" s="15">
         <v>6.25</v>
       </c>
-      <c r="M175" s="13">
-        <v>3</v>
+      <c r="M175" s="15">
+        <v>0.03</v>
       </c>
       <c r="N175" s="9">
         <v>7.4050000000000002</v>
@@ -10388,14 +10376,14 @@
         <v>0</v>
       </c>
       <c r="J176" s="5"/>
-      <c r="K176" s="16">
-        <v>0</v>
-      </c>
-      <c r="L176" s="17">
+      <c r="K176" s="14">
+        <v>0</v>
+      </c>
+      <c r="L176" s="15">
         <v>5.9</v>
       </c>
-      <c r="M176" s="13">
-        <v>1.7</v>
+      <c r="M176" s="15">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N176" s="9">
         <v>0</v>
@@ -10439,14 +10427,14 @@
         <v>0</v>
       </c>
       <c r="J177" s="5"/>
-      <c r="K177" s="16">
-        <v>0</v>
-      </c>
-      <c r="L177" s="17">
+      <c r="K177" s="14">
+        <v>0</v>
+      </c>
+      <c r="L177" s="15">
         <v>11.4</v>
       </c>
-      <c r="M177" s="13">
-        <v>2.2000000000000002</v>
+      <c r="M177" s="15">
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N177" s="9">
         <v>0</v>
@@ -10492,14 +10480,14 @@
       <c r="J178" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K178" s="16">
-        <v>0</v>
-      </c>
-      <c r="L178" s="17">
+      <c r="K178" s="14">
+        <v>0</v>
+      </c>
+      <c r="L178" s="15">
         <v>4.74</v>
       </c>
-      <c r="M178" s="13">
-        <v>19.8</v>
+      <c r="M178" s="15">
+        <v>0.19800000000000001</v>
       </c>
       <c r="N178" s="9">
         <v>0</v>
@@ -10543,14 +10531,14 @@
         <v>0</v>
       </c>
       <c r="J179" s="5"/>
-      <c r="K179" s="16">
-        <v>0</v>
-      </c>
-      <c r="L179" s="17">
+      <c r="K179" s="14">
+        <v>0</v>
+      </c>
+      <c r="L179" s="15">
         <v>5.75</v>
       </c>
-      <c r="M179" s="13">
-        <v>4.7</v>
+      <c r="M179" s="15">
+        <v>4.7E-2</v>
       </c>
       <c r="N179" s="9">
         <v>0</v>
@@ -10594,14 +10582,14 @@
         <v>0</v>
       </c>
       <c r="J180" s="5"/>
-      <c r="K180" s="16">
-        <v>0</v>
-      </c>
-      <c r="L180" s="17">
+      <c r="K180" s="14">
+        <v>0</v>
+      </c>
+      <c r="L180" s="15">
         <v>18</v>
       </c>
-      <c r="M180" s="13">
-        <v>10</v>
+      <c r="M180" s="15">
+        <v>0.1</v>
       </c>
       <c r="N180" s="9">
         <v>0</v>
@@ -10645,13 +10633,13 @@
         <v>0</v>
       </c>
       <c r="J181" s="5"/>
-      <c r="K181" s="16">
-        <v>0</v>
-      </c>
-      <c r="L181" s="17">
+      <c r="K181" s="14">
+        <v>0</v>
+      </c>
+      <c r="L181" s="15">
         <v>1.93</v>
       </c>
-      <c r="M181" s="13">
+      <c r="M181" s="15">
         <v>0</v>
       </c>
       <c r="N181" s="9">
@@ -10696,14 +10684,14 @@
         <v>0</v>
       </c>
       <c r="J182" s="5"/>
-      <c r="K182" s="16">
+      <c r="K182" s="14">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L182" s="17">
+      <c r="L182" s="15">
         <v>3.25</v>
       </c>
-      <c r="M182" s="13">
-        <v>29.4</v>
+      <c r="M182" s="15">
+        <v>0.29399999999999998</v>
       </c>
       <c r="N182" s="9">
         <v>5.88</v>
@@ -10747,14 +10735,14 @@
         <v>0</v>
       </c>
       <c r="J183" s="5"/>
-      <c r="K183" s="16">
-        <v>0</v>
-      </c>
-      <c r="L183" s="17">
+      <c r="K183" s="14">
+        <v>0</v>
+      </c>
+      <c r="L183" s="15">
         <v>5.81</v>
       </c>
-      <c r="M183" s="13">
-        <v>5.0999999999999996</v>
+      <c r="M183" s="15">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N183" s="9">
         <v>0</v>
@@ -10800,14 +10788,14 @@
       <c r="J184" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K184" s="16">
-        <v>0</v>
-      </c>
-      <c r="L184" s="17">
+      <c r="K184" s="14">
+        <v>0</v>
+      </c>
+      <c r="L184" s="15">
         <v>5.62</v>
       </c>
-      <c r="M184" s="13">
-        <v>4</v>
+      <c r="M184" s="15">
+        <v>0.04</v>
       </c>
       <c r="N184" s="9">
         <v>0</v>
@@ -10851,14 +10839,14 @@
         <v>0</v>
       </c>
       <c r="J185" s="5"/>
-      <c r="K185" s="16">
+      <c r="K185" s="14">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L185" s="17">
+      <c r="L185" s="15">
         <v>10.14</v>
       </c>
-      <c r="M185" s="13">
-        <v>0.2</v>
+      <c r="M185" s="15">
+        <v>2E-3</v>
       </c>
       <c r="N185" s="9">
         <v>7.1449999999999996</v>
@@ -10902,14 +10890,14 @@
         <v>0</v>
       </c>
       <c r="J186" s="5"/>
-      <c r="K186" s="16">
-        <v>0</v>
-      </c>
-      <c r="L186" s="17">
+      <c r="K186" s="14">
+        <v>0</v>
+      </c>
+      <c r="L186" s="15">
         <v>10.45</v>
       </c>
-      <c r="M186" s="13">
-        <v>0.8</v>
+      <c r="M186" s="15">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N186" s="9">
         <v>0</v>
@@ -10953,14 +10941,14 @@
         <v>0</v>
       </c>
       <c r="J187" s="5"/>
-      <c r="K187" s="16">
+      <c r="K187" s="14">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L187" s="17">
+      <c r="L187" s="15">
         <v>11.65</v>
       </c>
-      <c r="M187" s="13">
-        <v>0.2</v>
+      <c r="M187" s="15">
+        <v>2E-3</v>
       </c>
       <c r="N187" s="9">
         <v>8.3350000000000009</v>
@@ -11004,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="J188" s="5"/>
-      <c r="K188" s="16">
+      <c r="K188" s="14">
         <v>0.375</v>
       </c>
-      <c r="L188" s="17">
+      <c r="L188" s="15">
         <v>6.55</v>
       </c>
-      <c r="M188" s="13">
+      <c r="M188" s="15">
         <v>0</v>
       </c>
       <c r="N188" s="9">
@@ -11055,14 +11043,14 @@
         <v>0</v>
       </c>
       <c r="J189" s="5"/>
-      <c r="K189" s="16">
-        <v>0</v>
-      </c>
-      <c r="L189" s="17">
+      <c r="K189" s="14">
+        <v>0</v>
+      </c>
+      <c r="L189" s="15">
         <v>17.649999999999999</v>
       </c>
-      <c r="M189" s="13">
-        <v>7.4</v>
+      <c r="M189" s="15">
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="N189" s="9">
         <v>0</v>
@@ -11106,14 +11094,14 @@
         <v>0</v>
       </c>
       <c r="J190" s="5"/>
-      <c r="K190" s="16">
+      <c r="K190" s="14">
         <v>0.03</v>
       </c>
-      <c r="L190" s="17">
+      <c r="L190" s="15">
         <v>13.48</v>
       </c>
-      <c r="M190" s="13">
-        <v>3.1</v>
+      <c r="M190" s="15">
+        <v>3.1E-2</v>
       </c>
       <c r="N190" s="9">
         <v>3.03</v>
@@ -11157,14 +11145,14 @@
         <v>0</v>
       </c>
       <c r="J191" s="5"/>
-      <c r="K191" s="16">
-        <v>0</v>
-      </c>
-      <c r="L191" s="17">
+      <c r="K191" s="14">
+        <v>0</v>
+      </c>
+      <c r="L191" s="15">
         <v>5.54</v>
       </c>
-      <c r="M191" s="13">
-        <v>2.7</v>
+      <c r="M191" s="15">
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="N191" s="9">
         <v>0</v>
@@ -11208,14 +11196,14 @@
         <v>0</v>
       </c>
       <c r="J192" s="5"/>
-      <c r="K192" s="16">
-        <v>0</v>
-      </c>
-      <c r="L192" s="17">
+      <c r="K192" s="14">
+        <v>0</v>
+      </c>
+      <c r="L192" s="15">
         <v>8.68</v>
       </c>
-      <c r="M192" s="13">
-        <v>1.7</v>
+      <c r="M192" s="15">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N192" s="9">
         <v>0</v>
@@ -11259,14 +11247,14 @@
         <v>0</v>
       </c>
       <c r="J193" s="5"/>
-      <c r="K193" s="16">
-        <v>0</v>
-      </c>
-      <c r="L193" s="17">
+      <c r="K193" s="14">
+        <v>0</v>
+      </c>
+      <c r="L193" s="15">
         <v>8.6</v>
       </c>
-      <c r="M193" s="13">
-        <v>2.7</v>
+      <c r="M193" s="15">
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="N193" s="9">
         <v>0</v>
@@ -11310,13 +11298,13 @@
       <c r="J194" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K194" s="16">
-        <v>0</v>
-      </c>
-      <c r="L194" s="17" t="s">
+      <c r="K194" s="14">
+        <v>0</v>
+      </c>
+      <c r="L194" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M194" s="13">
+      <c r="M194" s="15">
         <v>0</v>
       </c>
       <c r="N194" s="9">
@@ -11361,14 +11349,14 @@
         <v>0</v>
       </c>
       <c r="J195" s="5"/>
-      <c r="K195" s="16">
-        <v>0</v>
-      </c>
-      <c r="L195" s="17">
+      <c r="K195" s="14">
+        <v>0</v>
+      </c>
+      <c r="L195" s="15">
         <v>19.45</v>
       </c>
-      <c r="M195" s="13">
-        <v>1.9</v>
+      <c r="M195" s="15">
+        <v>1.9E-2</v>
       </c>
       <c r="N195" s="9">
         <v>0</v>
@@ -11412,14 +11400,14 @@
         <v>0</v>
       </c>
       <c r="J196" s="5"/>
-      <c r="K196" s="16">
-        <v>0</v>
-      </c>
-      <c r="L196" s="17">
+      <c r="K196" s="14">
+        <v>0</v>
+      </c>
+      <c r="L196" s="15">
         <v>8.4</v>
       </c>
-      <c r="M196" s="13">
-        <v>0.9</v>
+      <c r="M196" s="15">
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="N196" s="9">
         <v>0</v>
@@ -11465,14 +11453,14 @@
       <c r="J197" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K197" s="16">
-        <v>0</v>
-      </c>
-      <c r="L197" s="17">
+      <c r="K197" s="14">
+        <v>0</v>
+      </c>
+      <c r="L197" s="15">
         <v>5.34</v>
       </c>
-      <c r="M197" s="13">
-        <v>4.5</v>
+      <c r="M197" s="15">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N197" s="9">
         <v>0</v>
@@ -11516,14 +11504,14 @@
         <v>0</v>
       </c>
       <c r="J198" s="5"/>
-      <c r="K198" s="16">
+      <c r="K198" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L198" s="17">
+      <c r="L198" s="15">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M198" s="13">
-        <v>8.6999999999999993</v>
+      <c r="M198" s="15">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N198" s="9">
         <v>14.285</v>
@@ -11569,14 +11557,14 @@
       <c r="J199" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K199" s="16">
-        <v>0</v>
-      </c>
-      <c r="L199" s="17">
+      <c r="K199" s="14">
+        <v>0</v>
+      </c>
+      <c r="L199" s="15">
         <v>8.11</v>
       </c>
-      <c r="M199" s="13">
-        <v>3.8</v>
+      <c r="M199" s="15">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N199" s="9">
         <v>0</v>
@@ -11620,14 +11608,14 @@
         <v>0</v>
       </c>
       <c r="J200" s="5"/>
-      <c r="K200" s="16">
+      <c r="K200" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L200" s="17">
+      <c r="L200" s="15">
         <v>6.81</v>
       </c>
-      <c r="M200" s="13">
-        <v>8.3000000000000007</v>
+      <c r="M200" s="15">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="N200" s="9">
         <v>14.285</v>
@@ -11671,14 +11659,14 @@
         <v>0</v>
       </c>
       <c r="J201" s="5"/>
-      <c r="K201" s="16">
+      <c r="K201" s="14">
         <v>0.125</v>
       </c>
-      <c r="L201" s="17">
+      <c r="L201" s="15">
         <v>7.3</v>
       </c>
-      <c r="M201" s="13">
-        <v>2.2999999999999998</v>
+      <c r="M201" s="15">
+        <v>2.3E-2</v>
       </c>
       <c r="N201" s="9">
         <v>12.5</v>
@@ -11694,3200 +11682,2401 @@
       </c>
     </row>
     <row r="202" spans="1:17" ht="18" thickBot="1">
-      <c r="K202" s="16"/>
-      <c r="M202" s="12"/>
+      <c r="K202" s="14"/>
     </row>
     <row r="203" spans="1:17" ht="18" thickBot="1">
-      <c r="K203" s="16"/>
-      <c r="M203" s="12"/>
+      <c r="K203" s="14"/>
     </row>
     <row r="204" spans="1:17" ht="18" thickBot="1">
-      <c r="K204" s="16"/>
-      <c r="M204" s="12"/>
+      <c r="K204" s="14"/>
     </row>
     <row r="205" spans="1:17" ht="18" thickBot="1">
-      <c r="K205" s="16"/>
-      <c r="M205" s="12"/>
+      <c r="K205" s="14"/>
     </row>
     <row r="206" spans="1:17" ht="18" thickBot="1">
-      <c r="K206" s="16"/>
-      <c r="M206" s="12"/>
+      <c r="K206" s="14"/>
     </row>
     <row r="207" spans="1:17" ht="18" thickBot="1">
-      <c r="K207" s="15"/>
-      <c r="M207" s="12"/>
+      <c r="K207" s="13"/>
     </row>
     <row r="208" spans="1:17" ht="18" thickBot="1">
-      <c r="K208" s="15"/>
-      <c r="M208" s="12"/>
-    </row>
-    <row r="209" spans="11:13" ht="18" thickBot="1">
-      <c r="K209" s="15"/>
-      <c r="M209" s="12"/>
-    </row>
-    <row r="210" spans="11:13" ht="18" thickBot="1">
-      <c r="K210" s="15"/>
-      <c r="M210" s="12"/>
-    </row>
-    <row r="211" spans="11:13" ht="18" thickBot="1">
-      <c r="K211" s="15"/>
-      <c r="M211" s="12"/>
-    </row>
-    <row r="212" spans="11:13" ht="18" thickBot="1">
-      <c r="K212" s="15"/>
-      <c r="M212" s="12"/>
-    </row>
-    <row r="213" spans="11:13" ht="18" thickBot="1">
-      <c r="K213" s="15"/>
-      <c r="M213" s="12"/>
-    </row>
-    <row r="214" spans="11:13" ht="18" thickBot="1">
-      <c r="K214" s="15"/>
-      <c r="M214" s="12"/>
-    </row>
-    <row r="215" spans="11:13" ht="18" thickBot="1">
-      <c r="K215" s="15"/>
-      <c r="M215" s="12"/>
-    </row>
-    <row r="216" spans="11:13" ht="18" thickBot="1">
-      <c r="K216" s="15"/>
-      <c r="M216" s="12"/>
-    </row>
-    <row r="217" spans="11:13" ht="18" thickBot="1">
-      <c r="K217" s="15"/>
-      <c r="M217" s="12"/>
-    </row>
-    <row r="218" spans="11:13" ht="18" thickBot="1">
-      <c r="K218" s="15"/>
-      <c r="M218" s="12"/>
-    </row>
-    <row r="219" spans="11:13" ht="18" thickBot="1">
-      <c r="K219" s="15"/>
-      <c r="M219" s="12"/>
-    </row>
-    <row r="220" spans="11:13" ht="18" thickBot="1">
-      <c r="K220" s="15"/>
-      <c r="M220" s="12"/>
-    </row>
-    <row r="221" spans="11:13" ht="18" thickBot="1">
-      <c r="K221" s="15"/>
-      <c r="M221" s="12"/>
-    </row>
-    <row r="222" spans="11:13" ht="18" thickBot="1">
-      <c r="K222" s="15"/>
-      <c r="M222" s="12"/>
-    </row>
-    <row r="223" spans="11:13" ht="18" thickBot="1">
-      <c r="K223" s="15"/>
-      <c r="M223" s="12"/>
-    </row>
-    <row r="224" spans="11:13" ht="18" thickBot="1">
-      <c r="K224" s="15"/>
-      <c r="M224" s="12"/>
-    </row>
-    <row r="225" spans="11:13" ht="18" thickBot="1">
-      <c r="K225" s="15"/>
-      <c r="M225" s="12"/>
-    </row>
-    <row r="226" spans="11:13" ht="18" thickBot="1">
-      <c r="K226" s="15"/>
-      <c r="M226" s="12"/>
-    </row>
-    <row r="227" spans="11:13" ht="18" thickBot="1">
-      <c r="K227" s="15"/>
-      <c r="M227" s="12"/>
-    </row>
-    <row r="228" spans="11:13" ht="18" thickBot="1">
-      <c r="K228" s="15"/>
-      <c r="M228" s="12"/>
-    </row>
-    <row r="229" spans="11:13" ht="18" thickBot="1">
-      <c r="K229" s="15"/>
-      <c r="M229" s="12"/>
-    </row>
-    <row r="230" spans="11:13" ht="18" thickBot="1">
-      <c r="K230" s="15"/>
-      <c r="M230" s="12"/>
-    </row>
-    <row r="231" spans="11:13" ht="18" thickBot="1">
-      <c r="K231" s="15"/>
-      <c r="M231" s="12"/>
-    </row>
-    <row r="232" spans="11:13" ht="18" thickBot="1">
-      <c r="K232" s="15"/>
-      <c r="M232" s="12"/>
-    </row>
-    <row r="233" spans="11:13" ht="18" thickBot="1">
-      <c r="K233" s="15"/>
-      <c r="M233" s="12"/>
-    </row>
-    <row r="234" spans="11:13" ht="18" thickBot="1">
-      <c r="K234" s="15"/>
-      <c r="M234" s="12"/>
-    </row>
-    <row r="235" spans="11:13" ht="18" thickBot="1">
-      <c r="K235" s="15"/>
-      <c r="M235" s="12"/>
-    </row>
-    <row r="236" spans="11:13" ht="18" thickBot="1">
-      <c r="K236" s="15"/>
-      <c r="M236" s="12"/>
-    </row>
-    <row r="237" spans="11:13" ht="18" thickBot="1">
-      <c r="K237" s="15"/>
-      <c r="M237" s="12"/>
-    </row>
-    <row r="238" spans="11:13" ht="18" thickBot="1">
-      <c r="K238" s="15"/>
-      <c r="M238" s="12"/>
-    </row>
-    <row r="239" spans="11:13" ht="18" thickBot="1">
-      <c r="K239" s="15"/>
-      <c r="M239" s="12"/>
-    </row>
-    <row r="240" spans="11:13" ht="18" thickBot="1">
-      <c r="K240" s="15"/>
-      <c r="M240" s="12"/>
-    </row>
-    <row r="241" spans="11:13" ht="18" thickBot="1">
-      <c r="K241" s="15"/>
-      <c r="M241" s="12"/>
-    </row>
-    <row r="242" spans="11:13" ht="18" thickBot="1">
-      <c r="K242" s="15"/>
-      <c r="M242" s="12"/>
-    </row>
-    <row r="243" spans="11:13" ht="18" thickBot="1">
-      <c r="K243" s="15"/>
-      <c r="M243" s="12"/>
-    </row>
-    <row r="244" spans="11:13" ht="18" thickBot="1">
-      <c r="K244" s="15"/>
-      <c r="M244" s="12"/>
-    </row>
-    <row r="245" spans="11:13" ht="18" thickBot="1">
-      <c r="K245" s="15"/>
-      <c r="M245" s="12"/>
-    </row>
-    <row r="246" spans="11:13" ht="18" thickBot="1">
-      <c r="K246" s="15"/>
-      <c r="M246" s="12"/>
-    </row>
-    <row r="247" spans="11:13" ht="18" thickBot="1">
-      <c r="K247" s="15"/>
-      <c r="M247" s="12"/>
-    </row>
-    <row r="248" spans="11:13" ht="18" thickBot="1">
-      <c r="K248" s="15"/>
-      <c r="M248" s="12"/>
-    </row>
-    <row r="249" spans="11:13" ht="18" thickBot="1">
-      <c r="K249" s="15"/>
-      <c r="M249" s="12"/>
-    </row>
-    <row r="250" spans="11:13" ht="18" thickBot="1">
-      <c r="K250" s="15"/>
-      <c r="M250" s="12"/>
-    </row>
-    <row r="251" spans="11:13" ht="18" thickBot="1">
-      <c r="K251" s="15"/>
-      <c r="M251" s="12"/>
-    </row>
-    <row r="252" spans="11:13" ht="18" thickBot="1">
-      <c r="K252" s="15"/>
-      <c r="M252" s="12"/>
-    </row>
-    <row r="253" spans="11:13" ht="18" thickBot="1">
-      <c r="K253" s="15"/>
-      <c r="M253" s="12"/>
-    </row>
-    <row r="254" spans="11:13" ht="18" thickBot="1">
-      <c r="K254" s="15"/>
-      <c r="M254" s="12"/>
-    </row>
-    <row r="255" spans="11:13" ht="18" thickBot="1">
-      <c r="K255" s="15"/>
-      <c r="M255" s="12"/>
-    </row>
-    <row r="256" spans="11:13" ht="18" thickBot="1">
-      <c r="K256" s="15"/>
-      <c r="M256" s="12"/>
-    </row>
-    <row r="257" spans="11:13" ht="18" thickBot="1">
-      <c r="K257" s="15"/>
-      <c r="M257" s="12"/>
-    </row>
-    <row r="258" spans="11:13" ht="18" thickBot="1">
-      <c r="K258" s="15"/>
-      <c r="M258" s="12"/>
-    </row>
-    <row r="259" spans="11:13" ht="18" thickBot="1">
-      <c r="K259" s="15"/>
-      <c r="M259" s="12"/>
-    </row>
-    <row r="260" spans="11:13" ht="18" thickBot="1">
-      <c r="K260" s="15"/>
-      <c r="M260" s="12"/>
-    </row>
-    <row r="261" spans="11:13" ht="18" thickBot="1">
-      <c r="K261" s="15"/>
-      <c r="M261" s="12"/>
-    </row>
-    <row r="262" spans="11:13" ht="18" thickBot="1">
-      <c r="K262" s="15"/>
-      <c r="M262" s="12"/>
-    </row>
-    <row r="263" spans="11:13" ht="18" thickBot="1">
-      <c r="K263" s="15"/>
-      <c r="M263" s="12"/>
-    </row>
-    <row r="264" spans="11:13" ht="18" thickBot="1">
-      <c r="K264" s="15"/>
-      <c r="M264" s="12"/>
-    </row>
-    <row r="265" spans="11:13" ht="18" thickBot="1">
-      <c r="K265" s="15"/>
-      <c r="M265" s="12"/>
-    </row>
-    <row r="266" spans="11:13" ht="18" thickBot="1">
-      <c r="K266" s="15"/>
-      <c r="M266" s="12"/>
-    </row>
-    <row r="267" spans="11:13" ht="18" thickBot="1">
-      <c r="K267" s="15"/>
-      <c r="M267" s="12"/>
-    </row>
-    <row r="268" spans="11:13" ht="18" thickBot="1">
-      <c r="K268" s="15"/>
-      <c r="M268" s="12"/>
-    </row>
-    <row r="269" spans="11:13" ht="18" thickBot="1">
-      <c r="K269" s="15"/>
-      <c r="M269" s="12"/>
-    </row>
-    <row r="270" spans="11:13" ht="18" thickBot="1">
-      <c r="K270" s="15"/>
-      <c r="M270" s="12"/>
-    </row>
-    <row r="271" spans="11:13" ht="18" thickBot="1">
-      <c r="K271" s="15"/>
-      <c r="M271" s="12"/>
-    </row>
-    <row r="272" spans="11:13" ht="18" thickBot="1">
-      <c r="K272" s="15"/>
-      <c r="M272" s="12"/>
-    </row>
-    <row r="273" spans="11:13" ht="18" thickBot="1">
-      <c r="K273" s="15"/>
-      <c r="M273" s="12"/>
-    </row>
-    <row r="274" spans="11:13" ht="18" thickBot="1">
-      <c r="K274" s="15"/>
-      <c r="M274" s="12"/>
-    </row>
-    <row r="275" spans="11:13" ht="18" thickBot="1">
-      <c r="K275" s="15"/>
-      <c r="M275" s="12"/>
-    </row>
-    <row r="276" spans="11:13" ht="18" thickBot="1">
-      <c r="K276" s="15"/>
-      <c r="M276" s="12"/>
-    </row>
-    <row r="277" spans="11:13" ht="18" thickBot="1">
-      <c r="K277" s="15"/>
-      <c r="M277" s="12"/>
-    </row>
-    <row r="278" spans="11:13" ht="18" thickBot="1">
-      <c r="K278" s="15"/>
-      <c r="M278" s="12"/>
-    </row>
-    <row r="279" spans="11:13" ht="18" thickBot="1">
-      <c r="K279" s="15"/>
-      <c r="M279" s="12"/>
-    </row>
-    <row r="280" spans="11:13" ht="18" thickBot="1">
-      <c r="K280" s="15"/>
-      <c r="M280" s="12"/>
-    </row>
-    <row r="281" spans="11:13" ht="18" thickBot="1">
-      <c r="K281" s="15"/>
-      <c r="M281" s="12"/>
-    </row>
-    <row r="282" spans="11:13" ht="18" thickBot="1">
-      <c r="K282" s="15"/>
-      <c r="M282" s="12"/>
-    </row>
-    <row r="283" spans="11:13" ht="18" thickBot="1">
-      <c r="K283" s="15"/>
-      <c r="M283" s="12"/>
-    </row>
-    <row r="284" spans="11:13" ht="18" thickBot="1">
-      <c r="K284" s="15"/>
-      <c r="M284" s="12"/>
-    </row>
-    <row r="285" spans="11:13" ht="18" thickBot="1">
-      <c r="K285" s="15"/>
-      <c r="M285" s="12"/>
-    </row>
-    <row r="286" spans="11:13" ht="18" thickBot="1">
-      <c r="K286" s="15"/>
-      <c r="M286" s="12"/>
-    </row>
-    <row r="287" spans="11:13" ht="18" thickBot="1">
-      <c r="K287" s="15"/>
-      <c r="M287" s="12"/>
-    </row>
-    <row r="288" spans="11:13" ht="18" thickBot="1">
-      <c r="K288" s="15"/>
-      <c r="M288" s="12"/>
-    </row>
-    <row r="289" spans="11:13" ht="18" thickBot="1">
-      <c r="K289" s="15"/>
-      <c r="M289" s="12"/>
-    </row>
-    <row r="290" spans="11:13" ht="18" thickBot="1">
-      <c r="K290" s="15"/>
-      <c r="M290" s="12"/>
-    </row>
-    <row r="291" spans="11:13" ht="18" thickBot="1">
-      <c r="K291" s="15"/>
-      <c r="M291" s="12"/>
-    </row>
-    <row r="292" spans="11:13" ht="18" thickBot="1">
-      <c r="K292" s="15"/>
-      <c r="M292" s="12"/>
-    </row>
-    <row r="293" spans="11:13" ht="18" thickBot="1">
-      <c r="K293" s="15"/>
-      <c r="M293" s="12"/>
-    </row>
-    <row r="294" spans="11:13" ht="18" thickBot="1">
-      <c r="K294" s="15"/>
-      <c r="M294" s="12"/>
-    </row>
-    <row r="295" spans="11:13" ht="18" thickBot="1">
-      <c r="K295" s="15"/>
-      <c r="M295" s="12"/>
-    </row>
-    <row r="296" spans="11:13" ht="18" thickBot="1">
-      <c r="K296" s="15"/>
-      <c r="M296" s="12"/>
-    </row>
-    <row r="297" spans="11:13" ht="18" thickBot="1">
-      <c r="K297" s="15"/>
-      <c r="M297" s="12"/>
-    </row>
-    <row r="298" spans="11:13" ht="18" thickBot="1">
-      <c r="K298" s="15"/>
-      <c r="M298" s="12"/>
-    </row>
-    <row r="299" spans="11:13" ht="18" thickBot="1">
-      <c r="K299" s="15"/>
-      <c r="M299" s="12"/>
-    </row>
-    <row r="300" spans="11:13" ht="18" thickBot="1">
-      <c r="K300" s="15"/>
-      <c r="M300" s="12"/>
-    </row>
-    <row r="301" spans="11:13" ht="18" thickBot="1">
-      <c r="K301" s="15"/>
-      <c r="M301" s="12"/>
-    </row>
-    <row r="302" spans="11:13" ht="18" thickBot="1">
-      <c r="K302" s="15"/>
-      <c r="M302" s="12"/>
-    </row>
-    <row r="303" spans="11:13" ht="18" thickBot="1">
-      <c r="K303" s="15"/>
-      <c r="M303" s="12"/>
-    </row>
-    <row r="304" spans="11:13" ht="18" thickBot="1">
-      <c r="K304" s="15"/>
-      <c r="M304" s="12"/>
-    </row>
-    <row r="305" spans="11:13" ht="18" thickBot="1">
-      <c r="K305" s="15"/>
-      <c r="M305" s="12"/>
-    </row>
-    <row r="306" spans="11:13" ht="18" thickBot="1">
-      <c r="K306" s="15"/>
-      <c r="M306" s="12"/>
-    </row>
-    <row r="307" spans="11:13" ht="18" thickBot="1">
-      <c r="K307" s="15"/>
-      <c r="M307" s="12"/>
-    </row>
-    <row r="308" spans="11:13" ht="18" thickBot="1">
-      <c r="K308" s="15"/>
-      <c r="M308" s="12"/>
-    </row>
-    <row r="309" spans="11:13" ht="18" thickBot="1">
-      <c r="K309" s="15"/>
-      <c r="M309" s="12"/>
-    </row>
-    <row r="310" spans="11:13" ht="18" thickBot="1">
-      <c r="K310" s="15"/>
-      <c r="M310" s="12"/>
-    </row>
-    <row r="311" spans="11:13" ht="18" thickBot="1">
-      <c r="K311" s="15"/>
-      <c r="M311" s="12"/>
-    </row>
-    <row r="312" spans="11:13" ht="18" thickBot="1">
-      <c r="K312" s="15"/>
-      <c r="M312" s="12"/>
-    </row>
-    <row r="313" spans="11:13" ht="18" thickBot="1">
-      <c r="K313" s="15"/>
-      <c r="M313" s="12"/>
-    </row>
-    <row r="314" spans="11:13" ht="18" thickBot="1">
-      <c r="K314" s="15"/>
-      <c r="M314" s="12"/>
-    </row>
-    <row r="315" spans="11:13" ht="18" thickBot="1">
-      <c r="K315" s="15"/>
-      <c r="M315" s="12"/>
-    </row>
-    <row r="316" spans="11:13" ht="18" thickBot="1">
-      <c r="K316" s="15"/>
-      <c r="M316" s="12"/>
-    </row>
-    <row r="317" spans="11:13" ht="18" thickBot="1">
-      <c r="K317" s="15"/>
-      <c r="M317" s="12"/>
-    </row>
-    <row r="318" spans="11:13" ht="18" thickBot="1">
-      <c r="K318" s="15"/>
-      <c r="M318" s="12"/>
-    </row>
-    <row r="319" spans="11:13" ht="18" thickBot="1">
-      <c r="K319" s="15"/>
-      <c r="M319" s="12"/>
-    </row>
-    <row r="320" spans="11:13" ht="18" thickBot="1">
-      <c r="K320" s="15"/>
-      <c r="M320" s="12"/>
-    </row>
-    <row r="321" spans="11:13" ht="18" thickBot="1">
-      <c r="K321" s="15"/>
-      <c r="M321" s="12"/>
-    </row>
-    <row r="322" spans="11:13" ht="18" thickBot="1">
-      <c r="K322" s="15"/>
-      <c r="M322" s="12"/>
-    </row>
-    <row r="323" spans="11:13" ht="18" thickBot="1">
-      <c r="K323" s="15"/>
-      <c r="M323" s="12"/>
-    </row>
-    <row r="324" spans="11:13" ht="18" thickBot="1">
-      <c r="K324" s="15"/>
-      <c r="M324" s="12"/>
-    </row>
-    <row r="325" spans="11:13" ht="18" thickBot="1">
-      <c r="K325" s="15"/>
-      <c r="M325" s="12"/>
-    </row>
-    <row r="326" spans="11:13" ht="18" thickBot="1">
-      <c r="K326" s="15"/>
-      <c r="M326" s="12"/>
-    </row>
-    <row r="327" spans="11:13" ht="18" thickBot="1">
-      <c r="K327" s="15"/>
-      <c r="M327" s="12"/>
-    </row>
-    <row r="328" spans="11:13" ht="18" thickBot="1">
-      <c r="K328" s="15"/>
-      <c r="M328" s="12"/>
-    </row>
-    <row r="329" spans="11:13" ht="18" thickBot="1">
-      <c r="K329" s="15"/>
-      <c r="M329" s="12"/>
-    </row>
-    <row r="330" spans="11:13" ht="18" thickBot="1">
-      <c r="K330" s="15"/>
-      <c r="M330" s="12"/>
-    </row>
-    <row r="331" spans="11:13" ht="18" thickBot="1">
-      <c r="K331" s="15"/>
-      <c r="M331" s="12"/>
-    </row>
-    <row r="332" spans="11:13" ht="18" thickBot="1">
-      <c r="K332" s="15"/>
-      <c r="M332" s="12"/>
-    </row>
-    <row r="333" spans="11:13" ht="18" thickBot="1">
-      <c r="K333" s="15"/>
-      <c r="M333" s="12"/>
-    </row>
-    <row r="334" spans="11:13" ht="18" thickBot="1">
-      <c r="K334" s="15"/>
-      <c r="M334" s="12"/>
-    </row>
-    <row r="335" spans="11:13" ht="18" thickBot="1">
-      <c r="K335" s="15"/>
-      <c r="M335" s="12"/>
-    </row>
-    <row r="336" spans="11:13" ht="18" thickBot="1">
-      <c r="K336" s="15"/>
-      <c r="M336" s="12"/>
-    </row>
-    <row r="337" spans="11:13" ht="18" thickBot="1">
-      <c r="K337" s="15"/>
-      <c r="M337" s="12"/>
-    </row>
-    <row r="338" spans="11:13" ht="18" thickBot="1">
-      <c r="K338" s="15"/>
-      <c r="M338" s="12"/>
-    </row>
-    <row r="339" spans="11:13" ht="18" thickBot="1">
-      <c r="K339" s="15"/>
-      <c r="M339" s="12"/>
-    </row>
-    <row r="340" spans="11:13" ht="18" thickBot="1">
-      <c r="K340" s="15"/>
-      <c r="M340" s="12"/>
-    </row>
-    <row r="341" spans="11:13" ht="18" thickBot="1">
-      <c r="K341" s="15"/>
-      <c r="M341" s="12"/>
-    </row>
-    <row r="342" spans="11:13" ht="18" thickBot="1">
-      <c r="K342" s="15"/>
-      <c r="M342" s="12"/>
-    </row>
-    <row r="343" spans="11:13" ht="18" thickBot="1">
-      <c r="K343" s="15"/>
-      <c r="M343" s="12"/>
-    </row>
-    <row r="344" spans="11:13" ht="18" thickBot="1">
-      <c r="K344" s="15"/>
-      <c r="M344" s="12"/>
-    </row>
-    <row r="345" spans="11:13" ht="18" thickBot="1">
-      <c r="K345" s="15"/>
-      <c r="M345" s="12"/>
-    </row>
-    <row r="346" spans="11:13" ht="18" thickBot="1">
-      <c r="K346" s="15"/>
-      <c r="M346" s="12"/>
-    </row>
-    <row r="347" spans="11:13" ht="18" thickBot="1">
-      <c r="K347" s="15"/>
-      <c r="M347" s="12"/>
-    </row>
-    <row r="348" spans="11:13" ht="18" thickBot="1">
-      <c r="K348" s="15"/>
-      <c r="M348" s="12"/>
-    </row>
-    <row r="349" spans="11:13" ht="18" thickBot="1">
-      <c r="K349" s="15"/>
-      <c r="M349" s="12"/>
-    </row>
-    <row r="350" spans="11:13" ht="18" thickBot="1">
-      <c r="K350" s="15"/>
-      <c r="M350" s="12"/>
-    </row>
-    <row r="351" spans="11:13" ht="18" thickBot="1">
-      <c r="K351" s="15"/>
-      <c r="M351" s="12"/>
-    </row>
-    <row r="352" spans="11:13" ht="18" thickBot="1">
-      <c r="K352" s="15"/>
-      <c r="M352" s="12"/>
-    </row>
-    <row r="353" spans="11:13" ht="18" thickBot="1">
-      <c r="K353" s="15"/>
-      <c r="M353" s="12"/>
-    </row>
-    <row r="354" spans="11:13" ht="18" thickBot="1">
-      <c r="K354" s="15"/>
-      <c r="M354" s="12"/>
-    </row>
-    <row r="355" spans="11:13" ht="18" thickBot="1">
-      <c r="K355" s="15"/>
-      <c r="M355" s="12"/>
-    </row>
-    <row r="356" spans="11:13" ht="18" thickBot="1">
-      <c r="K356" s="15"/>
-      <c r="M356" s="12"/>
-    </row>
-    <row r="357" spans="11:13" ht="18" thickBot="1">
-      <c r="K357" s="15"/>
-      <c r="M357" s="12"/>
-    </row>
-    <row r="358" spans="11:13" ht="18" thickBot="1">
-      <c r="K358" s="15"/>
-      <c r="M358" s="12"/>
-    </row>
-    <row r="359" spans="11:13" ht="18" thickBot="1">
-      <c r="K359" s="15"/>
-      <c r="M359" s="12"/>
-    </row>
-    <row r="360" spans="11:13" ht="18" thickBot="1">
-      <c r="K360" s="15"/>
-      <c r="M360" s="12"/>
-    </row>
-    <row r="361" spans="11:13" ht="18" thickBot="1">
-      <c r="K361" s="15"/>
-      <c r="M361" s="12"/>
-    </row>
-    <row r="362" spans="11:13" ht="18" thickBot="1">
-      <c r="K362" s="15"/>
-      <c r="M362" s="12"/>
-    </row>
-    <row r="363" spans="11:13" ht="18" thickBot="1">
-      <c r="K363" s="15"/>
-      <c r="M363" s="12"/>
-    </row>
-    <row r="364" spans="11:13" ht="18" thickBot="1">
-      <c r="K364" s="15"/>
-      <c r="M364" s="12"/>
-    </row>
-    <row r="365" spans="11:13" ht="18" thickBot="1">
-      <c r="K365" s="15"/>
-      <c r="M365" s="12"/>
-    </row>
-    <row r="366" spans="11:13" ht="18" thickBot="1">
-      <c r="K366" s="15"/>
-      <c r="M366" s="12"/>
-    </row>
-    <row r="367" spans="11:13" ht="18" thickBot="1">
-      <c r="K367" s="15"/>
-      <c r="M367" s="12"/>
-    </row>
-    <row r="368" spans="11:13" ht="18" thickBot="1">
-      <c r="K368" s="15"/>
-      <c r="M368" s="12"/>
-    </row>
-    <row r="369" spans="11:13" ht="18" thickBot="1">
-      <c r="K369" s="15"/>
-      <c r="M369" s="12"/>
-    </row>
-    <row r="370" spans="11:13" ht="18" thickBot="1">
-      <c r="K370" s="15"/>
-      <c r="M370" s="12"/>
-    </row>
-    <row r="371" spans="11:13" ht="18" thickBot="1">
-      <c r="K371" s="15"/>
-      <c r="M371" s="12"/>
-    </row>
-    <row r="372" spans="11:13" ht="18" thickBot="1">
-      <c r="K372" s="15"/>
-      <c r="M372" s="12"/>
-    </row>
-    <row r="373" spans="11:13" ht="18" thickBot="1">
-      <c r="K373" s="15"/>
-      <c r="M373" s="12"/>
-    </row>
-    <row r="374" spans="11:13" ht="18" thickBot="1">
-      <c r="K374" s="15"/>
-      <c r="M374" s="12"/>
-    </row>
-    <row r="375" spans="11:13" ht="18" thickBot="1">
-      <c r="K375" s="15"/>
-      <c r="M375" s="12"/>
-    </row>
-    <row r="376" spans="11:13" ht="18" thickBot="1">
-      <c r="K376" s="15"/>
-      <c r="M376" s="12"/>
-    </row>
-    <row r="377" spans="11:13" ht="18" thickBot="1">
-      <c r="K377" s="15"/>
-      <c r="M377" s="12"/>
-    </row>
-    <row r="378" spans="11:13" ht="18" thickBot="1">
-      <c r="K378" s="15"/>
-      <c r="M378" s="12"/>
-    </row>
-    <row r="379" spans="11:13" ht="18" thickBot="1">
-      <c r="K379" s="15"/>
-      <c r="M379" s="12"/>
-    </row>
-    <row r="380" spans="11:13" ht="18" thickBot="1">
-      <c r="K380" s="15"/>
-      <c r="M380" s="12"/>
-    </row>
-    <row r="381" spans="11:13" ht="18" thickBot="1">
-      <c r="K381" s="15"/>
-      <c r="M381" s="12"/>
-    </row>
-    <row r="382" spans="11:13" ht="18" thickBot="1">
-      <c r="K382" s="15"/>
-      <c r="M382" s="12"/>
-    </row>
-    <row r="383" spans="11:13" ht="18" thickBot="1">
-      <c r="K383" s="15"/>
-      <c r="M383" s="12"/>
-    </row>
-    <row r="384" spans="11:13" ht="18" thickBot="1">
-      <c r="K384" s="15"/>
-      <c r="M384" s="12"/>
-    </row>
-    <row r="385" spans="11:13" ht="18" thickBot="1">
-      <c r="K385" s="15"/>
-      <c r="M385" s="12"/>
-    </row>
-    <row r="386" spans="11:13" ht="18" thickBot="1">
-      <c r="K386" s="15"/>
-      <c r="M386" s="12"/>
-    </row>
-    <row r="387" spans="11:13" ht="18" thickBot="1">
-      <c r="K387" s="15"/>
-      <c r="M387" s="12"/>
-    </row>
-    <row r="388" spans="11:13" ht="18" thickBot="1">
-      <c r="K388" s="15"/>
-      <c r="M388" s="12"/>
-    </row>
-    <row r="389" spans="11:13" ht="18" thickBot="1">
-      <c r="K389" s="15"/>
-      <c r="M389" s="12"/>
-    </row>
-    <row r="390" spans="11:13" ht="18" thickBot="1">
-      <c r="K390" s="15"/>
-      <c r="M390" s="12"/>
-    </row>
-    <row r="391" spans="11:13" ht="18" thickBot="1">
-      <c r="K391" s="15"/>
-      <c r="M391" s="12"/>
-    </row>
-    <row r="392" spans="11:13" ht="18" thickBot="1">
-      <c r="K392" s="15"/>
-      <c r="M392" s="12"/>
-    </row>
-    <row r="393" spans="11:13" ht="18" thickBot="1">
-      <c r="K393" s="15"/>
-      <c r="M393" s="12"/>
-    </row>
-    <row r="394" spans="11:13" ht="18" thickBot="1">
-      <c r="K394" s="15"/>
-      <c r="M394" s="12"/>
-    </row>
-    <row r="395" spans="11:13" ht="18" thickBot="1">
-      <c r="K395" s="15"/>
-      <c r="M395" s="12"/>
-    </row>
-    <row r="396" spans="11:13" ht="18" thickBot="1">
-      <c r="K396" s="15"/>
-      <c r="M396" s="12"/>
-    </row>
-    <row r="397" spans="11:13" ht="18" thickBot="1">
-      <c r="K397" s="15"/>
-      <c r="M397" s="12"/>
-    </row>
-    <row r="398" spans="11:13" ht="18" thickBot="1">
-      <c r="K398" s="15"/>
-      <c r="M398" s="12"/>
-    </row>
-    <row r="399" spans="11:13" ht="18" thickBot="1">
-      <c r="K399" s="15"/>
-      <c r="M399" s="12"/>
-    </row>
-    <row r="400" spans="11:13" ht="18" thickBot="1">
-      <c r="K400" s="15"/>
-      <c r="M400" s="12"/>
-    </row>
-    <row r="401" spans="11:13" ht="18" thickBot="1">
-      <c r="K401" s="15"/>
-      <c r="M401" s="12"/>
-    </row>
-    <row r="402" spans="11:13" ht="18" thickBot="1">
-      <c r="K402" s="15"/>
-      <c r="M402" s="12"/>
-    </row>
-    <row r="403" spans="11:13" ht="18" thickBot="1">
-      <c r="K403" s="15"/>
-      <c r="M403" s="12"/>
-    </row>
-    <row r="404" spans="11:13" ht="18" thickBot="1">
-      <c r="K404" s="15"/>
-      <c r="M404" s="12"/>
-    </row>
-    <row r="405" spans="11:13" ht="18" thickBot="1">
-      <c r="K405" s="15"/>
-      <c r="M405" s="12"/>
-    </row>
-    <row r="406" spans="11:13" ht="18" thickBot="1">
-      <c r="K406" s="15"/>
-      <c r="M406" s="12"/>
-    </row>
-    <row r="407" spans="11:13" ht="18" thickBot="1">
-      <c r="K407" s="15"/>
-      <c r="M407" s="12"/>
-    </row>
-    <row r="408" spans="11:13" ht="18" thickBot="1">
-      <c r="K408" s="15"/>
-      <c r="M408" s="12"/>
-    </row>
-    <row r="409" spans="11:13" ht="18" thickBot="1">
-      <c r="K409" s="15"/>
-      <c r="M409" s="12"/>
-    </row>
-    <row r="410" spans="11:13" ht="18" thickBot="1">
-      <c r="K410" s="15"/>
-      <c r="M410" s="12"/>
-    </row>
-    <row r="411" spans="11:13" ht="18" thickBot="1">
-      <c r="K411" s="15"/>
-      <c r="M411" s="12"/>
-    </row>
-    <row r="412" spans="11:13" ht="18" thickBot="1">
-      <c r="K412" s="15"/>
-      <c r="M412" s="12"/>
-    </row>
-    <row r="413" spans="11:13" ht="18" thickBot="1">
-      <c r="K413" s="15"/>
-      <c r="M413" s="12"/>
-    </row>
-    <row r="414" spans="11:13" ht="18" thickBot="1">
-      <c r="K414" s="15"/>
-      <c r="M414" s="12"/>
-    </row>
-    <row r="415" spans="11:13" ht="18" thickBot="1">
-      <c r="K415" s="15"/>
-      <c r="M415" s="12"/>
-    </row>
-    <row r="416" spans="11:13" ht="18" thickBot="1">
-      <c r="K416" s="15"/>
-      <c r="M416" s="12"/>
-    </row>
-    <row r="417" spans="11:13" ht="18" thickBot="1">
-      <c r="K417" s="15"/>
-      <c r="M417" s="12"/>
-    </row>
-    <row r="418" spans="11:13" ht="18" thickBot="1">
-      <c r="K418" s="15"/>
-      <c r="M418" s="12"/>
-    </row>
-    <row r="419" spans="11:13" ht="18" thickBot="1">
-      <c r="K419" s="15"/>
-      <c r="M419" s="12"/>
-    </row>
-    <row r="420" spans="11:13" ht="18" thickBot="1">
-      <c r="K420" s="15"/>
-      <c r="M420" s="12"/>
-    </row>
-    <row r="421" spans="11:13" ht="18" thickBot="1">
-      <c r="K421" s="15"/>
-      <c r="M421" s="12"/>
-    </row>
-    <row r="422" spans="11:13" ht="18" thickBot="1">
-      <c r="K422" s="15"/>
-      <c r="M422" s="12"/>
-    </row>
-    <row r="423" spans="11:13" ht="18" thickBot="1">
-      <c r="K423" s="15"/>
-      <c r="M423" s="12"/>
-    </row>
-    <row r="424" spans="11:13" ht="18" thickBot="1">
-      <c r="K424" s="15"/>
-      <c r="M424" s="12"/>
-    </row>
-    <row r="425" spans="11:13" ht="18" thickBot="1">
-      <c r="K425" s="15"/>
-      <c r="M425" s="12"/>
-    </row>
-    <row r="426" spans="11:13" ht="18" thickBot="1">
-      <c r="K426" s="15"/>
-      <c r="M426" s="12"/>
-    </row>
-    <row r="427" spans="11:13" ht="18" thickBot="1">
-      <c r="K427" s="15"/>
-      <c r="M427" s="12"/>
-    </row>
-    <row r="428" spans="11:13" ht="18" thickBot="1">
-      <c r="K428" s="15"/>
-      <c r="M428" s="12"/>
-    </row>
-    <row r="429" spans="11:13" ht="18" thickBot="1">
-      <c r="K429" s="15"/>
-      <c r="M429" s="12"/>
-    </row>
-    <row r="430" spans="11:13" ht="18" thickBot="1">
-      <c r="K430" s="15"/>
-      <c r="M430" s="12"/>
-    </row>
-    <row r="431" spans="11:13" ht="18" thickBot="1">
-      <c r="K431" s="15"/>
-      <c r="M431" s="12"/>
-    </row>
-    <row r="432" spans="11:13" ht="18" thickBot="1">
-      <c r="K432" s="15"/>
-      <c r="M432" s="12"/>
-    </row>
-    <row r="433" spans="11:13" ht="18" thickBot="1">
-      <c r="K433" s="15"/>
-      <c r="M433" s="12"/>
-    </row>
-    <row r="434" spans="11:13" ht="18" thickBot="1">
-      <c r="K434" s="15"/>
-      <c r="M434" s="12"/>
-    </row>
-    <row r="435" spans="11:13" ht="18" thickBot="1">
-      <c r="K435" s="15"/>
-      <c r="M435" s="12"/>
-    </row>
-    <row r="436" spans="11:13" ht="18" thickBot="1">
-      <c r="K436" s="15"/>
-      <c r="M436" s="12"/>
-    </row>
-    <row r="437" spans="11:13" ht="18" thickBot="1">
-      <c r="K437" s="15"/>
-      <c r="M437" s="12"/>
-    </row>
-    <row r="438" spans="11:13" ht="18" thickBot="1">
-      <c r="K438" s="15"/>
-      <c r="M438" s="12"/>
-    </row>
-    <row r="439" spans="11:13" ht="18" thickBot="1">
-      <c r="K439" s="15"/>
-      <c r="M439" s="12"/>
-    </row>
-    <row r="440" spans="11:13" ht="18" thickBot="1">
-      <c r="K440" s="15"/>
-      <c r="M440" s="12"/>
-    </row>
-    <row r="441" spans="11:13" ht="18" thickBot="1">
-      <c r="K441" s="15"/>
-      <c r="M441" s="12"/>
-    </row>
-    <row r="442" spans="11:13" ht="18" thickBot="1">
-      <c r="K442" s="15"/>
-      <c r="M442" s="12"/>
-    </row>
-    <row r="443" spans="11:13" ht="18" thickBot="1">
-      <c r="K443" s="15"/>
-      <c r="M443" s="12"/>
-    </row>
-    <row r="444" spans="11:13" ht="18" thickBot="1">
-      <c r="K444" s="15"/>
-      <c r="M444" s="12"/>
-    </row>
-    <row r="445" spans="11:13" ht="18" thickBot="1">
-      <c r="K445" s="15"/>
-      <c r="M445" s="12"/>
-    </row>
-    <row r="446" spans="11:13" ht="18" thickBot="1">
-      <c r="K446" s="15"/>
-      <c r="M446" s="12"/>
-    </row>
-    <row r="447" spans="11:13" ht="18" thickBot="1">
-      <c r="K447" s="15"/>
-      <c r="M447" s="12"/>
-    </row>
-    <row r="448" spans="11:13" ht="18" thickBot="1">
-      <c r="K448" s="15"/>
-      <c r="M448" s="12"/>
-    </row>
-    <row r="449" spans="11:13" ht="18" thickBot="1">
-      <c r="K449" s="15"/>
-      <c r="M449" s="12"/>
-    </row>
-    <row r="450" spans="11:13" ht="18" thickBot="1">
-      <c r="K450" s="15"/>
-      <c r="M450" s="12"/>
-    </row>
-    <row r="451" spans="11:13" ht="18" thickBot="1">
-      <c r="K451" s="15"/>
-      <c r="M451" s="12"/>
-    </row>
-    <row r="452" spans="11:13" ht="18" thickBot="1">
-      <c r="K452" s="15"/>
-      <c r="M452" s="12"/>
-    </row>
-    <row r="453" spans="11:13" ht="18" thickBot="1">
-      <c r="K453" s="15"/>
-      <c r="M453" s="12"/>
-    </row>
-    <row r="454" spans="11:13" ht="18" thickBot="1">
-      <c r="K454" s="15"/>
-      <c r="M454" s="12"/>
-    </row>
-    <row r="455" spans="11:13" ht="18" thickBot="1">
-      <c r="K455" s="15"/>
-      <c r="M455" s="12"/>
-    </row>
-    <row r="456" spans="11:13" ht="18" thickBot="1">
-      <c r="K456" s="15"/>
-      <c r="M456" s="12"/>
-    </row>
-    <row r="457" spans="11:13" ht="18" thickBot="1">
-      <c r="K457" s="15"/>
-      <c r="M457" s="12"/>
-    </row>
-    <row r="458" spans="11:13" ht="18" thickBot="1">
-      <c r="K458" s="15"/>
-      <c r="M458" s="12"/>
-    </row>
-    <row r="459" spans="11:13" ht="18" thickBot="1">
-      <c r="K459" s="15"/>
-      <c r="M459" s="12"/>
-    </row>
-    <row r="460" spans="11:13" ht="18" thickBot="1">
-      <c r="K460" s="15"/>
-      <c r="M460" s="12"/>
-    </row>
-    <row r="461" spans="11:13" ht="18" thickBot="1">
-      <c r="K461" s="15"/>
-      <c r="M461" s="12"/>
-    </row>
-    <row r="462" spans="11:13" ht="18" thickBot="1">
-      <c r="K462" s="15"/>
-      <c r="M462" s="12"/>
-    </row>
-    <row r="463" spans="11:13" ht="18" thickBot="1">
-      <c r="K463" s="15"/>
-      <c r="M463" s="12"/>
-    </row>
-    <row r="464" spans="11:13" ht="18" thickBot="1">
-      <c r="K464" s="15"/>
-      <c r="M464" s="12"/>
-    </row>
-    <row r="465" spans="11:13" ht="18" thickBot="1">
-      <c r="K465" s="15"/>
-      <c r="M465" s="12"/>
-    </row>
-    <row r="466" spans="11:13" ht="18" thickBot="1">
-      <c r="K466" s="15"/>
-      <c r="M466" s="12"/>
-    </row>
-    <row r="467" spans="11:13" ht="18" thickBot="1">
-      <c r="K467" s="15"/>
-      <c r="M467" s="12"/>
-    </row>
-    <row r="468" spans="11:13" ht="18" thickBot="1">
-      <c r="K468" s="15"/>
-      <c r="M468" s="12"/>
-    </row>
-    <row r="469" spans="11:13" ht="18" thickBot="1">
-      <c r="K469" s="15"/>
-      <c r="M469" s="12"/>
-    </row>
-    <row r="470" spans="11:13" ht="18" thickBot="1">
-      <c r="K470" s="15"/>
-      <c r="M470" s="12"/>
-    </row>
-    <row r="471" spans="11:13" ht="18" thickBot="1">
-      <c r="K471" s="15"/>
-      <c r="M471" s="12"/>
-    </row>
-    <row r="472" spans="11:13" ht="18" thickBot="1">
-      <c r="K472" s="15"/>
-      <c r="M472" s="12"/>
-    </row>
-    <row r="473" spans="11:13" ht="18" thickBot="1">
-      <c r="K473" s="15"/>
-      <c r="M473" s="12"/>
-    </row>
-    <row r="474" spans="11:13" ht="18" thickBot="1">
-      <c r="K474" s="15"/>
-      <c r="M474" s="12"/>
-    </row>
-    <row r="475" spans="11:13" ht="18" thickBot="1">
-      <c r="K475" s="15"/>
-      <c r="M475" s="12"/>
-    </row>
-    <row r="476" spans="11:13" ht="18" thickBot="1">
-      <c r="K476" s="15"/>
-      <c r="M476" s="12"/>
-    </row>
-    <row r="477" spans="11:13" ht="18" thickBot="1">
-      <c r="K477" s="15"/>
-      <c r="M477" s="12"/>
-    </row>
-    <row r="478" spans="11:13" ht="18" thickBot="1">
-      <c r="K478" s="15"/>
-      <c r="M478" s="12"/>
-    </row>
-    <row r="479" spans="11:13" ht="18" thickBot="1">
-      <c r="K479" s="15"/>
-      <c r="M479" s="12"/>
-    </row>
-    <row r="480" spans="11:13" ht="18" thickBot="1">
-      <c r="K480" s="15"/>
-      <c r="M480" s="12"/>
-    </row>
-    <row r="481" spans="11:13" ht="18" thickBot="1">
-      <c r="K481" s="15"/>
-      <c r="M481" s="12"/>
-    </row>
-    <row r="482" spans="11:13" ht="18" thickBot="1">
-      <c r="K482" s="15"/>
-      <c r="M482" s="12"/>
-    </row>
-    <row r="483" spans="11:13" ht="18" thickBot="1">
-      <c r="K483" s="15"/>
-      <c r="M483" s="12"/>
-    </row>
-    <row r="484" spans="11:13" ht="18" thickBot="1">
-      <c r="K484" s="15"/>
-      <c r="M484" s="12"/>
-    </row>
-    <row r="485" spans="11:13" ht="18" thickBot="1">
-      <c r="K485" s="15"/>
-      <c r="M485" s="12"/>
-    </row>
-    <row r="486" spans="11:13" ht="18" thickBot="1">
-      <c r="K486" s="15"/>
-      <c r="M486" s="12"/>
-    </row>
-    <row r="487" spans="11:13" ht="18" thickBot="1">
-      <c r="K487" s="15"/>
-      <c r="M487" s="12"/>
-    </row>
-    <row r="488" spans="11:13" ht="18" thickBot="1">
-      <c r="K488" s="15"/>
-      <c r="M488" s="12"/>
-    </row>
-    <row r="489" spans="11:13" ht="18" thickBot="1">
-      <c r="K489" s="15"/>
-      <c r="M489" s="12"/>
-    </row>
-    <row r="490" spans="11:13" ht="18" thickBot="1">
-      <c r="K490" s="15"/>
-      <c r="M490" s="12"/>
-    </row>
-    <row r="491" spans="11:13" ht="18" thickBot="1">
-      <c r="K491" s="15"/>
-      <c r="M491" s="12"/>
-    </row>
-    <row r="492" spans="11:13" ht="18" thickBot="1">
-      <c r="K492" s="15"/>
-      <c r="M492" s="12"/>
-    </row>
-    <row r="493" spans="11:13" ht="18" thickBot="1">
-      <c r="K493" s="15"/>
-      <c r="M493" s="12"/>
-    </row>
-    <row r="494" spans="11:13" ht="18" thickBot="1">
-      <c r="K494" s="15"/>
-      <c r="M494" s="12"/>
-    </row>
-    <row r="495" spans="11:13" ht="18" thickBot="1">
-      <c r="K495" s="15"/>
-      <c r="M495" s="12"/>
-    </row>
-    <row r="496" spans="11:13" ht="18" thickBot="1">
-      <c r="K496" s="15"/>
-      <c r="M496" s="12"/>
-    </row>
-    <row r="497" spans="11:13" ht="18" thickBot="1">
-      <c r="K497" s="15"/>
-      <c r="M497" s="12"/>
-    </row>
-    <row r="498" spans="11:13" ht="18" thickBot="1">
-      <c r="K498" s="15"/>
-      <c r="M498" s="12"/>
-    </row>
-    <row r="499" spans="11:13" ht="18" thickBot="1">
-      <c r="K499" s="15"/>
-      <c r="M499" s="12"/>
-    </row>
-    <row r="500" spans="11:13" ht="18" thickBot="1">
-      <c r="K500" s="15"/>
-      <c r="M500" s="12"/>
-    </row>
-    <row r="501" spans="11:13" ht="18" thickBot="1">
-      <c r="K501" s="15"/>
-      <c r="M501" s="12"/>
-    </row>
-    <row r="502" spans="11:13" ht="18" thickBot="1">
-      <c r="K502" s="15"/>
-      <c r="M502" s="12"/>
-    </row>
-    <row r="503" spans="11:13" ht="18" thickBot="1">
-      <c r="K503" s="15"/>
-      <c r="M503" s="12"/>
-    </row>
-    <row r="504" spans="11:13" ht="18" thickBot="1">
-      <c r="K504" s="15"/>
-      <c r="M504" s="12"/>
-    </row>
-    <row r="505" spans="11:13" ht="18" thickBot="1">
-      <c r="K505" s="15"/>
-      <c r="M505" s="12"/>
-    </row>
-    <row r="506" spans="11:13" ht="18" thickBot="1">
-      <c r="K506" s="15"/>
-      <c r="M506" s="12"/>
-    </row>
-    <row r="507" spans="11:13" ht="18" thickBot="1">
-      <c r="K507" s="15"/>
-      <c r="M507" s="12"/>
-    </row>
-    <row r="508" spans="11:13" ht="18" thickBot="1">
-      <c r="K508" s="15"/>
-      <c r="M508" s="12"/>
-    </row>
-    <row r="509" spans="11:13" ht="18" thickBot="1">
-      <c r="K509" s="15"/>
-      <c r="M509" s="12"/>
-    </row>
-    <row r="510" spans="11:13" ht="18" thickBot="1">
-      <c r="K510" s="15"/>
-      <c r="M510" s="12"/>
-    </row>
-    <row r="511" spans="11:13" ht="18" thickBot="1">
-      <c r="K511" s="15"/>
-      <c r="M511" s="12"/>
-    </row>
-    <row r="512" spans="11:13" ht="18" thickBot="1">
-      <c r="K512" s="15"/>
-      <c r="M512" s="12"/>
-    </row>
-    <row r="513" spans="11:13" ht="18" thickBot="1">
-      <c r="K513" s="15"/>
-      <c r="M513" s="12"/>
-    </row>
-    <row r="514" spans="11:13" ht="18" thickBot="1">
-      <c r="K514" s="15"/>
-      <c r="M514" s="12"/>
-    </row>
-    <row r="515" spans="11:13" ht="18" thickBot="1">
-      <c r="K515" s="15"/>
-      <c r="M515" s="12"/>
-    </row>
-    <row r="516" spans="11:13" ht="18" thickBot="1">
-      <c r="K516" s="15"/>
-      <c r="M516" s="12"/>
-    </row>
-    <row r="517" spans="11:13" ht="18" thickBot="1">
-      <c r="K517" s="15"/>
-      <c r="M517" s="12"/>
-    </row>
-    <row r="518" spans="11:13" ht="18" thickBot="1">
-      <c r="K518" s="15"/>
-      <c r="M518" s="12"/>
-    </row>
-    <row r="519" spans="11:13" ht="18" thickBot="1">
-      <c r="K519" s="15"/>
-      <c r="M519" s="12"/>
-    </row>
-    <row r="520" spans="11:13" ht="18" thickBot="1">
-      <c r="K520" s="15"/>
-      <c r="M520" s="12"/>
-    </row>
-    <row r="521" spans="11:13" ht="18" thickBot="1">
-      <c r="K521" s="15"/>
-      <c r="M521" s="12"/>
-    </row>
-    <row r="522" spans="11:13" ht="18" thickBot="1">
-      <c r="K522" s="15"/>
-      <c r="M522" s="12"/>
-    </row>
-    <row r="523" spans="11:13" ht="18" thickBot="1">
-      <c r="K523" s="15"/>
-      <c r="M523" s="12"/>
-    </row>
-    <row r="524" spans="11:13" ht="18" thickBot="1">
-      <c r="K524" s="15"/>
-      <c r="M524" s="12"/>
-    </row>
-    <row r="525" spans="11:13" ht="18" thickBot="1">
-      <c r="K525" s="15"/>
-      <c r="M525" s="12"/>
-    </row>
-    <row r="526" spans="11:13" ht="18" thickBot="1">
-      <c r="K526" s="15"/>
-      <c r="M526" s="12"/>
-    </row>
-    <row r="527" spans="11:13" ht="18" thickBot="1">
-      <c r="K527" s="15"/>
-      <c r="M527" s="12"/>
-    </row>
-    <row r="528" spans="11:13" ht="18" thickBot="1">
-      <c r="K528" s="15"/>
-      <c r="M528" s="12"/>
-    </row>
-    <row r="529" spans="11:13" ht="18" thickBot="1">
-      <c r="K529" s="15"/>
-      <c r="M529" s="12"/>
-    </row>
-    <row r="530" spans="11:13" ht="18" thickBot="1">
-      <c r="K530" s="15"/>
-      <c r="M530" s="12"/>
-    </row>
-    <row r="531" spans="11:13" ht="18" thickBot="1">
-      <c r="K531" s="15"/>
-      <c r="M531" s="12"/>
-    </row>
-    <row r="532" spans="11:13" ht="18" thickBot="1">
-      <c r="K532" s="15"/>
-      <c r="M532" s="12"/>
-    </row>
-    <row r="533" spans="11:13" ht="18" thickBot="1">
-      <c r="K533" s="15"/>
-      <c r="M533" s="12"/>
-    </row>
-    <row r="534" spans="11:13" ht="18" thickBot="1">
-      <c r="K534" s="15"/>
-      <c r="M534" s="12"/>
-    </row>
-    <row r="535" spans="11:13" ht="18" thickBot="1">
-      <c r="K535" s="15"/>
-      <c r="M535" s="12"/>
-    </row>
-    <row r="536" spans="11:13" ht="18" thickBot="1">
-      <c r="K536" s="15"/>
-      <c r="M536" s="12"/>
-    </row>
-    <row r="537" spans="11:13" ht="18" thickBot="1">
-      <c r="K537" s="15"/>
-      <c r="M537" s="12"/>
-    </row>
-    <row r="538" spans="11:13" ht="18" thickBot="1">
-      <c r="K538" s="15"/>
-      <c r="M538" s="12"/>
-    </row>
-    <row r="539" spans="11:13" ht="18" thickBot="1">
-      <c r="K539" s="15"/>
-      <c r="M539" s="12"/>
-    </row>
-    <row r="540" spans="11:13" ht="18" thickBot="1">
-      <c r="K540" s="15"/>
-      <c r="M540" s="12"/>
-    </row>
-    <row r="541" spans="11:13" ht="18" thickBot="1">
-      <c r="K541" s="15"/>
-      <c r="M541" s="12"/>
-    </row>
-    <row r="542" spans="11:13" ht="18" thickBot="1">
-      <c r="K542" s="15"/>
-      <c r="M542" s="12"/>
-    </row>
-    <row r="543" spans="11:13" ht="18" thickBot="1">
-      <c r="K543" s="15"/>
-      <c r="M543" s="12"/>
-    </row>
-    <row r="544" spans="11:13" ht="18" thickBot="1">
-      <c r="K544" s="15"/>
-      <c r="M544" s="12"/>
-    </row>
-    <row r="545" spans="11:13" ht="18" thickBot="1">
-      <c r="K545" s="15"/>
-      <c r="M545" s="12"/>
-    </row>
-    <row r="546" spans="11:13" ht="18" thickBot="1">
-      <c r="K546" s="15"/>
-      <c r="M546" s="12"/>
-    </row>
-    <row r="547" spans="11:13" ht="18" thickBot="1">
-      <c r="K547" s="15"/>
-      <c r="M547" s="12"/>
-    </row>
-    <row r="548" spans="11:13" ht="18" thickBot="1">
-      <c r="K548" s="15"/>
-      <c r="M548" s="12"/>
-    </row>
-    <row r="549" spans="11:13" ht="18" thickBot="1">
-      <c r="K549" s="15"/>
-      <c r="M549" s="12"/>
-    </row>
-    <row r="550" spans="11:13" ht="18" thickBot="1">
-      <c r="K550" s="15"/>
-      <c r="M550" s="12"/>
-    </row>
-    <row r="551" spans="11:13" ht="18" thickBot="1">
-      <c r="K551" s="15"/>
-      <c r="M551" s="12"/>
-    </row>
-    <row r="552" spans="11:13" ht="18" thickBot="1">
-      <c r="K552" s="15"/>
-      <c r="M552" s="12"/>
-    </row>
-    <row r="553" spans="11:13" ht="18" thickBot="1">
-      <c r="K553" s="15"/>
-      <c r="M553" s="12"/>
-    </row>
-    <row r="554" spans="11:13" ht="18" thickBot="1">
-      <c r="K554" s="15"/>
-      <c r="M554" s="12"/>
-    </row>
-    <row r="555" spans="11:13" ht="18" thickBot="1">
-      <c r="K555" s="15"/>
-      <c r="M555" s="12"/>
-    </row>
-    <row r="556" spans="11:13" ht="18" thickBot="1">
-      <c r="K556" s="15"/>
-      <c r="M556" s="12"/>
-    </row>
-    <row r="557" spans="11:13" ht="18" thickBot="1">
-      <c r="K557" s="15"/>
-      <c r="M557" s="12"/>
-    </row>
-    <row r="558" spans="11:13" ht="18" thickBot="1">
-      <c r="K558" s="15"/>
-      <c r="M558" s="12"/>
-    </row>
-    <row r="559" spans="11:13" ht="18" thickBot="1">
-      <c r="K559" s="15"/>
-      <c r="M559" s="12"/>
-    </row>
-    <row r="560" spans="11:13" ht="18" thickBot="1">
-      <c r="K560" s="15"/>
-      <c r="M560" s="12"/>
-    </row>
-    <row r="561" spans="11:13" ht="18" thickBot="1">
-      <c r="K561" s="15"/>
-      <c r="M561" s="12"/>
-    </row>
-    <row r="562" spans="11:13" ht="18" thickBot="1">
-      <c r="K562" s="15"/>
-      <c r="M562" s="12"/>
-    </row>
-    <row r="563" spans="11:13" ht="18" thickBot="1">
-      <c r="K563" s="15"/>
-      <c r="M563" s="12"/>
-    </row>
-    <row r="564" spans="11:13" ht="18" thickBot="1">
-      <c r="K564" s="15"/>
-      <c r="M564" s="12"/>
-    </row>
-    <row r="565" spans="11:13" ht="18" thickBot="1">
-      <c r="K565" s="15"/>
-      <c r="M565" s="12"/>
-    </row>
-    <row r="566" spans="11:13" ht="18" thickBot="1">
-      <c r="K566" s="15"/>
-      <c r="M566" s="12"/>
-    </row>
-    <row r="567" spans="11:13" ht="18" thickBot="1">
-      <c r="K567" s="15"/>
-      <c r="M567" s="12"/>
-    </row>
-    <row r="568" spans="11:13" ht="18" thickBot="1">
-      <c r="K568" s="15"/>
-      <c r="M568" s="12"/>
-    </row>
-    <row r="569" spans="11:13" ht="18" thickBot="1">
-      <c r="K569" s="15"/>
-      <c r="M569" s="12"/>
-    </row>
-    <row r="570" spans="11:13" ht="18" thickBot="1">
-      <c r="K570" s="15"/>
-      <c r="M570" s="12"/>
-    </row>
-    <row r="571" spans="11:13" ht="18" thickBot="1">
-      <c r="K571" s="15"/>
-      <c r="M571" s="12"/>
-    </row>
-    <row r="572" spans="11:13" ht="18" thickBot="1">
-      <c r="K572" s="15"/>
-      <c r="M572" s="12"/>
-    </row>
-    <row r="573" spans="11:13" ht="18" thickBot="1">
-      <c r="K573" s="15"/>
-      <c r="M573" s="12"/>
-    </row>
-    <row r="574" spans="11:13" ht="18" thickBot="1">
-      <c r="K574" s="15"/>
-      <c r="M574" s="12"/>
-    </row>
-    <row r="575" spans="11:13" ht="18" thickBot="1">
-      <c r="K575" s="15"/>
-      <c r="M575" s="12"/>
-    </row>
-    <row r="576" spans="11:13" ht="18" thickBot="1">
-      <c r="K576" s="15"/>
-      <c r="M576" s="12"/>
-    </row>
-    <row r="577" spans="11:13" ht="18" thickBot="1">
-      <c r="K577" s="15"/>
-      <c r="M577" s="12"/>
-    </row>
-    <row r="578" spans="11:13" ht="18" thickBot="1">
-      <c r="K578" s="15"/>
-      <c r="M578" s="12"/>
-    </row>
-    <row r="579" spans="11:13" ht="18" thickBot="1">
-      <c r="K579" s="15"/>
-      <c r="M579" s="12"/>
-    </row>
-    <row r="580" spans="11:13" ht="18" thickBot="1">
-      <c r="K580" s="15"/>
-      <c r="M580" s="12"/>
-    </row>
-    <row r="581" spans="11:13" ht="18" thickBot="1">
-      <c r="K581" s="15"/>
-      <c r="M581" s="12"/>
-    </row>
-    <row r="582" spans="11:13" ht="18" thickBot="1">
-      <c r="K582" s="15"/>
-      <c r="M582" s="12"/>
-    </row>
-    <row r="583" spans="11:13" ht="18" thickBot="1">
-      <c r="K583" s="15"/>
-      <c r="M583" s="12"/>
-    </row>
-    <row r="584" spans="11:13" ht="18" thickBot="1">
-      <c r="K584" s="15"/>
-      <c r="M584" s="12"/>
-    </row>
-    <row r="585" spans="11:13" ht="18" thickBot="1">
-      <c r="K585" s="15"/>
-      <c r="M585" s="12"/>
-    </row>
-    <row r="586" spans="11:13" ht="18" thickBot="1">
-      <c r="K586" s="15"/>
-      <c r="M586" s="12"/>
-    </row>
-    <row r="587" spans="11:13" ht="18" thickBot="1">
-      <c r="K587" s="15"/>
-      <c r="M587" s="12"/>
-    </row>
-    <row r="588" spans="11:13" ht="18" thickBot="1">
-      <c r="K588" s="15"/>
-      <c r="M588" s="12"/>
-    </row>
-    <row r="589" spans="11:13" ht="18" thickBot="1">
-      <c r="K589" s="15"/>
-      <c r="M589" s="12"/>
-    </row>
-    <row r="590" spans="11:13" ht="18" thickBot="1">
-      <c r="K590" s="15"/>
-      <c r="M590" s="12"/>
-    </row>
-    <row r="591" spans="11:13" ht="18" thickBot="1">
-      <c r="K591" s="15"/>
-      <c r="M591" s="12"/>
-    </row>
-    <row r="592" spans="11:13" ht="18" thickBot="1">
-      <c r="K592" s="15"/>
-      <c r="M592" s="12"/>
-    </row>
-    <row r="593" spans="11:13" ht="18" thickBot="1">
-      <c r="K593" s="15"/>
-      <c r="M593" s="12"/>
-    </row>
-    <row r="594" spans="11:13" ht="18" thickBot="1">
-      <c r="K594" s="15"/>
-      <c r="M594" s="12"/>
-    </row>
-    <row r="595" spans="11:13" ht="18" thickBot="1">
-      <c r="K595" s="15"/>
-      <c r="M595" s="12"/>
-    </row>
-    <row r="596" spans="11:13" ht="18" thickBot="1">
-      <c r="K596" s="15"/>
-      <c r="M596" s="12"/>
-    </row>
-    <row r="597" spans="11:13" ht="18" thickBot="1">
-      <c r="K597" s="15"/>
-      <c r="M597" s="12"/>
-    </row>
-    <row r="598" spans="11:13" ht="18" thickBot="1">
-      <c r="K598" s="15"/>
-      <c r="M598" s="12"/>
-    </row>
-    <row r="599" spans="11:13" ht="18" thickBot="1">
-      <c r="K599" s="15"/>
-      <c r="M599" s="12"/>
-    </row>
-    <row r="600" spans="11:13" ht="18" thickBot="1">
-      <c r="K600" s="15"/>
-      <c r="M600" s="12"/>
-    </row>
-    <row r="601" spans="11:13" ht="18" thickBot="1">
-      <c r="K601" s="15"/>
-      <c r="M601" s="12"/>
-    </row>
-    <row r="602" spans="11:13" ht="18" thickBot="1">
-      <c r="K602" s="15"/>
-      <c r="M602" s="12"/>
-    </row>
-    <row r="603" spans="11:13" ht="18" thickBot="1">
-      <c r="K603" s="15"/>
-      <c r="M603" s="12"/>
-    </row>
-    <row r="604" spans="11:13" ht="18" thickBot="1">
-      <c r="K604" s="15"/>
-      <c r="M604" s="12"/>
-    </row>
-    <row r="605" spans="11:13" ht="18" thickBot="1">
-      <c r="K605" s="15"/>
-      <c r="M605" s="12"/>
-    </row>
-    <row r="606" spans="11:13" ht="18" thickBot="1">
-      <c r="K606" s="15"/>
-      <c r="M606" s="12"/>
-    </row>
-    <row r="607" spans="11:13" ht="18" thickBot="1">
-      <c r="K607" s="15"/>
-      <c r="M607" s="12"/>
-    </row>
-    <row r="608" spans="11:13" ht="18" thickBot="1">
-      <c r="K608" s="15"/>
-      <c r="M608" s="12"/>
-    </row>
-    <row r="609" spans="11:13" ht="18" thickBot="1">
-      <c r="K609" s="15"/>
-      <c r="M609" s="12"/>
-    </row>
-    <row r="610" spans="11:13" ht="18" thickBot="1">
-      <c r="K610" s="15"/>
-      <c r="M610" s="12"/>
-    </row>
-    <row r="611" spans="11:13" ht="18" thickBot="1">
-      <c r="K611" s="15"/>
-      <c r="M611" s="12"/>
-    </row>
-    <row r="612" spans="11:13" ht="18" thickBot="1">
-      <c r="K612" s="15"/>
-      <c r="M612" s="12"/>
-    </row>
-    <row r="613" spans="11:13" ht="18" thickBot="1">
-      <c r="K613" s="15"/>
-      <c r="M613" s="12"/>
-    </row>
-    <row r="614" spans="11:13" ht="18" thickBot="1">
-      <c r="K614" s="15"/>
-      <c r="M614" s="12"/>
-    </row>
-    <row r="615" spans="11:13" ht="18" thickBot="1">
-      <c r="K615" s="15"/>
-      <c r="M615" s="12"/>
-    </row>
-    <row r="616" spans="11:13" ht="18" thickBot="1">
-      <c r="K616" s="15"/>
-      <c r="M616" s="12"/>
-    </row>
-    <row r="617" spans="11:13" ht="18" thickBot="1">
-      <c r="K617" s="15"/>
-      <c r="M617" s="12"/>
-    </row>
-    <row r="618" spans="11:13" ht="18" thickBot="1">
-      <c r="K618" s="15"/>
-      <c r="M618" s="12"/>
-    </row>
-    <row r="619" spans="11:13" ht="18" thickBot="1">
-      <c r="K619" s="15"/>
-      <c r="M619" s="12"/>
-    </row>
-    <row r="620" spans="11:13" ht="18" thickBot="1">
-      <c r="K620" s="15"/>
-      <c r="M620" s="12"/>
-    </row>
-    <row r="621" spans="11:13" ht="18" thickBot="1">
-      <c r="K621" s="15"/>
-      <c r="M621" s="12"/>
-    </row>
-    <row r="622" spans="11:13" ht="18" thickBot="1">
-      <c r="K622" s="15"/>
-      <c r="M622" s="12"/>
-    </row>
-    <row r="623" spans="11:13" ht="18" thickBot="1">
-      <c r="K623" s="15"/>
-      <c r="M623" s="12"/>
-    </row>
-    <row r="624" spans="11:13" ht="18" thickBot="1">
-      <c r="K624" s="15"/>
-      <c r="M624" s="12"/>
-    </row>
-    <row r="625" spans="11:13" ht="18" thickBot="1">
-      <c r="K625" s="15"/>
-      <c r="M625" s="12"/>
-    </row>
-    <row r="626" spans="11:13" ht="18" thickBot="1">
-      <c r="K626" s="15"/>
-      <c r="M626" s="12"/>
-    </row>
-    <row r="627" spans="11:13" ht="18" thickBot="1">
-      <c r="K627" s="15"/>
-      <c r="M627" s="12"/>
-    </row>
-    <row r="628" spans="11:13" ht="18" thickBot="1">
-      <c r="K628" s="15"/>
-      <c r="M628" s="12"/>
-    </row>
-    <row r="629" spans="11:13" ht="18" thickBot="1">
-      <c r="K629" s="15"/>
-      <c r="M629" s="12"/>
-    </row>
-    <row r="630" spans="11:13" ht="18" thickBot="1">
-      <c r="K630" s="15"/>
-      <c r="M630" s="12"/>
-    </row>
-    <row r="631" spans="11:13" ht="18" thickBot="1">
-      <c r="K631" s="15"/>
-      <c r="M631" s="12"/>
-    </row>
-    <row r="632" spans="11:13" ht="18" thickBot="1">
-      <c r="K632" s="15"/>
-      <c r="M632" s="12"/>
-    </row>
-    <row r="633" spans="11:13" ht="18" thickBot="1">
-      <c r="K633" s="15"/>
-      <c r="M633" s="12"/>
-    </row>
-    <row r="634" spans="11:13" ht="18" thickBot="1">
-      <c r="K634" s="15"/>
-      <c r="M634" s="12"/>
-    </row>
-    <row r="635" spans="11:13" ht="18" thickBot="1">
-      <c r="K635" s="15"/>
-      <c r="M635" s="12"/>
-    </row>
-    <row r="636" spans="11:13" ht="18" thickBot="1">
-      <c r="K636" s="15"/>
-      <c r="M636" s="12"/>
-    </row>
-    <row r="637" spans="11:13" ht="18" thickBot="1">
-      <c r="K637" s="15"/>
-      <c r="M637" s="12"/>
-    </row>
-    <row r="638" spans="11:13" ht="18" thickBot="1">
-      <c r="K638" s="15"/>
-      <c r="M638" s="12"/>
-    </row>
-    <row r="639" spans="11:13" ht="18" thickBot="1">
-      <c r="K639" s="15"/>
-      <c r="M639" s="12"/>
-    </row>
-    <row r="640" spans="11:13" ht="18" thickBot="1">
-      <c r="K640" s="15"/>
-      <c r="M640" s="12"/>
-    </row>
-    <row r="641" spans="11:13" ht="18" thickBot="1">
-      <c r="K641" s="15"/>
-      <c r="M641" s="12"/>
-    </row>
-    <row r="642" spans="11:13" ht="18" thickBot="1">
-      <c r="K642" s="15"/>
-      <c r="M642" s="12"/>
-    </row>
-    <row r="643" spans="11:13" ht="18" thickBot="1">
-      <c r="K643" s="15"/>
-      <c r="M643" s="12"/>
-    </row>
-    <row r="644" spans="11:13" ht="18" thickBot="1">
-      <c r="K644" s="15"/>
-      <c r="M644" s="12"/>
-    </row>
-    <row r="645" spans="11:13" ht="18" thickBot="1">
-      <c r="K645" s="15"/>
-      <c r="M645" s="12"/>
-    </row>
-    <row r="646" spans="11:13" ht="18" thickBot="1">
-      <c r="K646" s="15"/>
-      <c r="M646" s="12"/>
-    </row>
-    <row r="647" spans="11:13" ht="18" thickBot="1">
-      <c r="K647" s="15"/>
-      <c r="M647" s="12"/>
-    </row>
-    <row r="648" spans="11:13" ht="18" thickBot="1">
-      <c r="K648" s="15"/>
-      <c r="M648" s="12"/>
-    </row>
-    <row r="649" spans="11:13" ht="18" thickBot="1">
-      <c r="K649" s="15"/>
-      <c r="M649" s="12"/>
-    </row>
-    <row r="650" spans="11:13" ht="18" thickBot="1">
-      <c r="K650" s="15"/>
-      <c r="M650" s="12"/>
-    </row>
-    <row r="651" spans="11:13" ht="18" thickBot="1">
-      <c r="K651" s="15"/>
-      <c r="M651" s="12"/>
-    </row>
-    <row r="652" spans="11:13" ht="18" thickBot="1">
-      <c r="K652" s="15"/>
-      <c r="M652" s="12"/>
-    </row>
-    <row r="653" spans="11:13" ht="18" thickBot="1">
-      <c r="K653" s="15"/>
-      <c r="M653" s="12"/>
-    </row>
-    <row r="654" spans="11:13" ht="18" thickBot="1">
-      <c r="K654" s="15"/>
-      <c r="M654" s="12"/>
-    </row>
-    <row r="655" spans="11:13" ht="18" thickBot="1">
-      <c r="K655" s="15"/>
-      <c r="M655" s="12"/>
-    </row>
-    <row r="656" spans="11:13" ht="18" thickBot="1">
-      <c r="K656" s="15"/>
-      <c r="M656" s="12"/>
-    </row>
-    <row r="657" spans="11:13" ht="18" thickBot="1">
-      <c r="K657" s="15"/>
-      <c r="M657" s="12"/>
-    </row>
-    <row r="658" spans="11:13" ht="18" thickBot="1">
-      <c r="K658" s="15"/>
-      <c r="M658" s="12"/>
-    </row>
-    <row r="659" spans="11:13" ht="18" thickBot="1">
-      <c r="K659" s="15"/>
-      <c r="M659" s="12"/>
-    </row>
-    <row r="660" spans="11:13" ht="18" thickBot="1">
-      <c r="K660" s="15"/>
-      <c r="M660" s="12"/>
-    </row>
-    <row r="661" spans="11:13" ht="18" thickBot="1">
-      <c r="K661" s="15"/>
-      <c r="M661" s="12"/>
-    </row>
-    <row r="662" spans="11:13" ht="18" thickBot="1">
-      <c r="K662" s="15"/>
-      <c r="M662" s="12"/>
-    </row>
-    <row r="663" spans="11:13" ht="18" thickBot="1">
-      <c r="K663" s="15"/>
-      <c r="M663" s="12"/>
-    </row>
-    <row r="664" spans="11:13" ht="18" thickBot="1">
-      <c r="K664" s="15"/>
-      <c r="M664" s="12"/>
-    </row>
-    <row r="665" spans="11:13" ht="18" thickBot="1">
-      <c r="K665" s="15"/>
-      <c r="M665" s="12"/>
-    </row>
-    <row r="666" spans="11:13" ht="18" thickBot="1">
-      <c r="K666" s="15"/>
-      <c r="M666" s="12"/>
-    </row>
-    <row r="667" spans="11:13" ht="18" thickBot="1">
-      <c r="K667" s="15"/>
-      <c r="M667" s="12"/>
-    </row>
-    <row r="668" spans="11:13" ht="18" thickBot="1">
-      <c r="K668" s="15"/>
-      <c r="M668" s="12"/>
-    </row>
-    <row r="669" spans="11:13" ht="18" thickBot="1">
-      <c r="K669" s="15"/>
-      <c r="M669" s="12"/>
-    </row>
-    <row r="670" spans="11:13" ht="18" thickBot="1">
-      <c r="K670" s="15"/>
-      <c r="M670" s="12"/>
-    </row>
-    <row r="671" spans="11:13" ht="18" thickBot="1">
-      <c r="K671" s="15"/>
-      <c r="M671" s="12"/>
-    </row>
-    <row r="672" spans="11:13" ht="18" thickBot="1">
-      <c r="K672" s="15"/>
-      <c r="M672" s="12"/>
-    </row>
-    <row r="673" spans="11:13" ht="18" thickBot="1">
-      <c r="K673" s="15"/>
-      <c r="M673" s="12"/>
-    </row>
-    <row r="674" spans="11:13" ht="18" thickBot="1">
-      <c r="K674" s="15"/>
-      <c r="M674" s="12"/>
-    </row>
-    <row r="675" spans="11:13" ht="18" thickBot="1">
-      <c r="K675" s="15"/>
-      <c r="M675" s="12"/>
-    </row>
-    <row r="676" spans="11:13" ht="18" thickBot="1">
-      <c r="K676" s="15"/>
-      <c r="M676" s="12"/>
-    </row>
-    <row r="677" spans="11:13" ht="18" thickBot="1">
-      <c r="K677" s="15"/>
-      <c r="M677" s="12"/>
-    </row>
-    <row r="678" spans="11:13" ht="18" thickBot="1">
-      <c r="K678" s="15"/>
-      <c r="M678" s="12"/>
-    </row>
-    <row r="679" spans="11:13" ht="18" thickBot="1">
-      <c r="K679" s="15"/>
-      <c r="M679" s="12"/>
-    </row>
-    <row r="680" spans="11:13" ht="18" thickBot="1">
-      <c r="K680" s="15"/>
-      <c r="M680" s="12"/>
-    </row>
-    <row r="681" spans="11:13" ht="18" thickBot="1">
-      <c r="K681" s="15"/>
-      <c r="M681" s="12"/>
-    </row>
-    <row r="682" spans="11:13" ht="18" thickBot="1">
-      <c r="K682" s="15"/>
-      <c r="M682" s="12"/>
-    </row>
-    <row r="683" spans="11:13" ht="18" thickBot="1">
-      <c r="K683" s="15"/>
-      <c r="M683" s="12"/>
-    </row>
-    <row r="684" spans="11:13" ht="18" thickBot="1">
-      <c r="K684" s="15"/>
-      <c r="M684" s="12"/>
-    </row>
-    <row r="685" spans="11:13" ht="18" thickBot="1">
-      <c r="K685" s="15"/>
-      <c r="M685" s="12"/>
-    </row>
-    <row r="686" spans="11:13" ht="18" thickBot="1">
-      <c r="K686" s="15"/>
-      <c r="M686" s="12"/>
-    </row>
-    <row r="687" spans="11:13" ht="18" thickBot="1">
-      <c r="K687" s="15"/>
-      <c r="M687" s="12"/>
-    </row>
-    <row r="688" spans="11:13" ht="18" thickBot="1">
-      <c r="K688" s="15"/>
-      <c r="M688" s="12"/>
-    </row>
-    <row r="689" spans="11:13" ht="18" thickBot="1">
-      <c r="K689" s="15"/>
-      <c r="M689" s="12"/>
-    </row>
-    <row r="690" spans="11:13" ht="18" thickBot="1">
-      <c r="K690" s="15"/>
-      <c r="M690" s="12"/>
-    </row>
-    <row r="691" spans="11:13" ht="18" thickBot="1">
-      <c r="K691" s="15"/>
-      <c r="M691" s="12"/>
-    </row>
-    <row r="692" spans="11:13" ht="18" thickBot="1">
-      <c r="K692" s="15"/>
-      <c r="M692" s="12"/>
-    </row>
-    <row r="693" spans="11:13" ht="18" thickBot="1">
-      <c r="K693" s="15"/>
-      <c r="M693" s="12"/>
-    </row>
-    <row r="694" spans="11:13" ht="18" thickBot="1">
-      <c r="K694" s="15"/>
-      <c r="M694" s="12"/>
-    </row>
-    <row r="695" spans="11:13" ht="18" thickBot="1">
-      <c r="K695" s="15"/>
-      <c r="M695" s="12"/>
-    </row>
-    <row r="696" spans="11:13" ht="18" thickBot="1">
-      <c r="K696" s="15"/>
-      <c r="M696" s="12"/>
-    </row>
-    <row r="697" spans="11:13" ht="18" thickBot="1">
-      <c r="K697" s="15"/>
-      <c r="M697" s="12"/>
-    </row>
-    <row r="698" spans="11:13" ht="18" thickBot="1">
-      <c r="K698" s="15"/>
-      <c r="M698" s="12"/>
-    </row>
-    <row r="699" spans="11:13" ht="18" thickBot="1">
-      <c r="K699" s="15"/>
-      <c r="M699" s="12"/>
-    </row>
-    <row r="700" spans="11:13" ht="18" thickBot="1">
-      <c r="K700" s="15"/>
-      <c r="M700" s="12"/>
-    </row>
-    <row r="701" spans="11:13" ht="18" thickBot="1">
-      <c r="K701" s="15"/>
-      <c r="M701" s="12"/>
-    </row>
-    <row r="702" spans="11:13" ht="18" thickBot="1">
-      <c r="K702" s="15"/>
-      <c r="M702" s="12"/>
-    </row>
-    <row r="703" spans="11:13" ht="18" thickBot="1">
-      <c r="K703" s="15"/>
-      <c r="M703" s="12"/>
-    </row>
-    <row r="704" spans="11:13" ht="18" thickBot="1">
-      <c r="K704" s="15"/>
-      <c r="M704" s="12"/>
-    </row>
-    <row r="705" spans="11:13" ht="18" thickBot="1">
-      <c r="K705" s="15"/>
-      <c r="M705" s="12"/>
-    </row>
-    <row r="706" spans="11:13" ht="18" thickBot="1">
-      <c r="K706" s="15"/>
-      <c r="M706" s="12"/>
-    </row>
-    <row r="707" spans="11:13" ht="18" thickBot="1">
-      <c r="K707" s="15"/>
-      <c r="M707" s="12"/>
-    </row>
-    <row r="708" spans="11:13" ht="18" thickBot="1">
-      <c r="K708" s="15"/>
-      <c r="M708" s="12"/>
-    </row>
-    <row r="709" spans="11:13" ht="18" thickBot="1">
-      <c r="K709" s="15"/>
-      <c r="M709" s="12"/>
-    </row>
-    <row r="710" spans="11:13" ht="18" thickBot="1">
-      <c r="K710" s="15"/>
-      <c r="M710" s="12"/>
-    </row>
-    <row r="711" spans="11:13" ht="18" thickBot="1">
-      <c r="K711" s="15"/>
-      <c r="M711" s="12"/>
-    </row>
-    <row r="712" spans="11:13" ht="18" thickBot="1">
-      <c r="K712" s="15"/>
-      <c r="M712" s="12"/>
-    </row>
-    <row r="713" spans="11:13" ht="18" thickBot="1">
-      <c r="K713" s="15"/>
-      <c r="M713" s="12"/>
-    </row>
-    <row r="714" spans="11:13" ht="18" thickBot="1">
-      <c r="K714" s="15"/>
-      <c r="M714" s="12"/>
-    </row>
-    <row r="715" spans="11:13" ht="18" thickBot="1">
-      <c r="K715" s="15"/>
-      <c r="M715" s="12"/>
-    </row>
-    <row r="716" spans="11:13" ht="18" thickBot="1">
-      <c r="K716" s="15"/>
-      <c r="M716" s="12"/>
-    </row>
-    <row r="717" spans="11:13" ht="18" thickBot="1">
-      <c r="K717" s="15"/>
-      <c r="M717" s="12"/>
-    </row>
-    <row r="718" spans="11:13" ht="18" thickBot="1">
-      <c r="K718" s="15"/>
-      <c r="M718" s="12"/>
-    </row>
-    <row r="719" spans="11:13" ht="18" thickBot="1">
-      <c r="K719" s="15"/>
-      <c r="M719" s="12"/>
-    </row>
-    <row r="720" spans="11:13" ht="18" thickBot="1">
-      <c r="K720" s="15"/>
-      <c r="M720" s="12"/>
-    </row>
-    <row r="721" spans="11:13" ht="18" thickBot="1">
-      <c r="K721" s="15"/>
-      <c r="M721" s="12"/>
-    </row>
-    <row r="722" spans="11:13" ht="18" thickBot="1">
-      <c r="K722" s="15"/>
-      <c r="M722" s="12"/>
-    </row>
-    <row r="723" spans="11:13" ht="18" thickBot="1">
-      <c r="K723" s="15"/>
-      <c r="M723" s="12"/>
-    </row>
-    <row r="724" spans="11:13" ht="18" thickBot="1">
-      <c r="K724" s="15"/>
-      <c r="M724" s="12"/>
-    </row>
-    <row r="725" spans="11:13" ht="18" thickBot="1">
-      <c r="K725" s="15"/>
-      <c r="M725" s="12"/>
-    </row>
-    <row r="726" spans="11:13" ht="18" thickBot="1">
-      <c r="K726" s="15"/>
-      <c r="M726" s="12"/>
-    </row>
-    <row r="727" spans="11:13" ht="18" thickBot="1">
-      <c r="K727" s="15"/>
-      <c r="M727" s="12"/>
-    </row>
-    <row r="728" spans="11:13" ht="18" thickBot="1">
-      <c r="K728" s="15"/>
-      <c r="M728" s="12"/>
-    </row>
-    <row r="729" spans="11:13" ht="18" thickBot="1">
-      <c r="K729" s="15"/>
-      <c r="M729" s="12"/>
-    </row>
-    <row r="730" spans="11:13" ht="18" thickBot="1">
-      <c r="K730" s="15"/>
-      <c r="M730" s="12"/>
-    </row>
-    <row r="731" spans="11:13" ht="18" thickBot="1">
-      <c r="K731" s="15"/>
-      <c r="M731" s="12"/>
-    </row>
-    <row r="732" spans="11:13" ht="18" thickBot="1">
-      <c r="K732" s="15"/>
-      <c r="M732" s="12"/>
-    </row>
-    <row r="733" spans="11:13" ht="18" thickBot="1">
-      <c r="K733" s="15"/>
-      <c r="M733" s="12"/>
-    </row>
-    <row r="734" spans="11:13" ht="18" thickBot="1">
-      <c r="K734" s="15"/>
-      <c r="M734" s="12"/>
-    </row>
-    <row r="735" spans="11:13" ht="18" thickBot="1">
-      <c r="K735" s="15"/>
-      <c r="M735" s="12"/>
-    </row>
-    <row r="736" spans="11:13" ht="18" thickBot="1">
-      <c r="K736" s="15"/>
-      <c r="M736" s="12"/>
-    </row>
-    <row r="737" spans="11:13" ht="18" thickBot="1">
-      <c r="K737" s="15"/>
-      <c r="M737" s="12"/>
-    </row>
-    <row r="738" spans="11:13" ht="18" thickBot="1">
-      <c r="K738" s="15"/>
-      <c r="M738" s="12"/>
-    </row>
-    <row r="739" spans="11:13" ht="18" thickBot="1">
-      <c r="K739" s="15"/>
-      <c r="M739" s="12"/>
-    </row>
-    <row r="740" spans="11:13" ht="18" thickBot="1">
-      <c r="K740" s="15"/>
-      <c r="M740" s="12"/>
-    </row>
-    <row r="741" spans="11:13" ht="18" thickBot="1">
-      <c r="K741" s="15"/>
-      <c r="M741" s="12"/>
-    </row>
-    <row r="742" spans="11:13" ht="18" thickBot="1">
-      <c r="K742" s="15"/>
-      <c r="M742" s="12"/>
-    </row>
-    <row r="743" spans="11:13" ht="18" thickBot="1">
-      <c r="K743" s="15"/>
-      <c r="M743" s="12"/>
-    </row>
-    <row r="744" spans="11:13" ht="18" thickBot="1">
-      <c r="K744" s="15"/>
-      <c r="M744" s="12"/>
-    </row>
-    <row r="745" spans="11:13" ht="18" thickBot="1">
-      <c r="K745" s="15"/>
-      <c r="M745" s="12"/>
-    </row>
-    <row r="746" spans="11:13" ht="18" thickBot="1">
-      <c r="K746" s="15"/>
-      <c r="M746" s="12"/>
-    </row>
-    <row r="747" spans="11:13" ht="18" thickBot="1">
-      <c r="K747" s="15"/>
-      <c r="M747" s="12"/>
-    </row>
-    <row r="748" spans="11:13" ht="18" thickBot="1">
-      <c r="K748" s="15"/>
-      <c r="M748" s="12"/>
-    </row>
-    <row r="749" spans="11:13" ht="18" thickBot="1">
-      <c r="K749" s="15"/>
-      <c r="M749" s="12"/>
-    </row>
-    <row r="750" spans="11:13" ht="18" thickBot="1">
-      <c r="K750" s="15"/>
-      <c r="M750" s="12"/>
-    </row>
-    <row r="751" spans="11:13" ht="18" thickBot="1">
-      <c r="K751" s="15"/>
-      <c r="M751" s="12"/>
-    </row>
-    <row r="752" spans="11:13" ht="18" thickBot="1">
-      <c r="K752" s="15"/>
-      <c r="M752" s="12"/>
-    </row>
-    <row r="753" spans="11:13" ht="18" thickBot="1">
-      <c r="K753" s="15"/>
-      <c r="M753" s="12"/>
-    </row>
-    <row r="754" spans="11:13" ht="18" thickBot="1">
-      <c r="K754" s="15"/>
-      <c r="M754" s="12"/>
-    </row>
-    <row r="755" spans="11:13" ht="18" thickBot="1">
-      <c r="K755" s="15"/>
-      <c r="M755" s="12"/>
-    </row>
-    <row r="756" spans="11:13" ht="18" thickBot="1">
-      <c r="K756" s="15"/>
-      <c r="M756" s="12"/>
-    </row>
-    <row r="757" spans="11:13" ht="18" thickBot="1">
-      <c r="K757" s="15"/>
-      <c r="M757" s="12"/>
-    </row>
-    <row r="758" spans="11:13" ht="18" thickBot="1">
-      <c r="K758" s="15"/>
-      <c r="M758" s="12"/>
-    </row>
-    <row r="759" spans="11:13" ht="18" thickBot="1">
-      <c r="K759" s="15"/>
-      <c r="M759" s="12"/>
-    </row>
-    <row r="760" spans="11:13" ht="18" thickBot="1">
-      <c r="K760" s="15"/>
-      <c r="M760" s="12"/>
-    </row>
-    <row r="761" spans="11:13" ht="18" thickBot="1">
-      <c r="K761" s="15"/>
-      <c r="M761" s="12"/>
-    </row>
-    <row r="762" spans="11:13" ht="18" thickBot="1">
-      <c r="K762" s="15"/>
-      <c r="M762" s="12"/>
-    </row>
-    <row r="763" spans="11:13" ht="18" thickBot="1">
-      <c r="K763" s="15"/>
-      <c r="M763" s="12"/>
-    </row>
-    <row r="764" spans="11:13" ht="18" thickBot="1">
-      <c r="K764" s="15"/>
-      <c r="M764" s="12"/>
-    </row>
-    <row r="765" spans="11:13" ht="18" thickBot="1">
-      <c r="K765" s="15"/>
-      <c r="M765" s="12"/>
-    </row>
-    <row r="766" spans="11:13" ht="18" thickBot="1">
-      <c r="K766" s="15"/>
-      <c r="M766" s="12"/>
-    </row>
-    <row r="767" spans="11:13" ht="18" thickBot="1">
-      <c r="K767" s="15"/>
-      <c r="M767" s="12"/>
-    </row>
-    <row r="768" spans="11:13" ht="18" thickBot="1">
-      <c r="K768" s="15"/>
-      <c r="M768" s="12"/>
-    </row>
-    <row r="769" spans="11:13" ht="18" thickBot="1">
-      <c r="K769" s="15"/>
-      <c r="M769" s="12"/>
-    </row>
-    <row r="770" spans="11:13" ht="18" thickBot="1">
-      <c r="K770" s="15"/>
-      <c r="M770" s="12"/>
-    </row>
-    <row r="771" spans="11:13" ht="18" thickBot="1">
-      <c r="K771" s="15"/>
-      <c r="M771" s="12"/>
-    </row>
-    <row r="772" spans="11:13" ht="18" thickBot="1">
-      <c r="K772" s="15"/>
-      <c r="M772" s="12"/>
-    </row>
-    <row r="773" spans="11:13" ht="18" thickBot="1">
-      <c r="K773" s="15"/>
-      <c r="M773" s="12"/>
-    </row>
-    <row r="774" spans="11:13" ht="18" thickBot="1">
-      <c r="K774" s="15"/>
-      <c r="M774" s="12"/>
-    </row>
-    <row r="775" spans="11:13" ht="18" thickBot="1">
-      <c r="K775" s="15"/>
-      <c r="M775" s="12"/>
-    </row>
-    <row r="776" spans="11:13" ht="18" thickBot="1">
-      <c r="K776" s="15"/>
-      <c r="M776" s="12"/>
-    </row>
-    <row r="777" spans="11:13" ht="18" thickBot="1">
-      <c r="K777" s="15"/>
-      <c r="M777" s="12"/>
-    </row>
-    <row r="778" spans="11:13" ht="18" thickBot="1">
-      <c r="K778" s="15"/>
-      <c r="M778" s="12"/>
-    </row>
-    <row r="779" spans="11:13" ht="18" thickBot="1">
-      <c r="K779" s="15"/>
-      <c r="M779" s="12"/>
-    </row>
-    <row r="780" spans="11:13" ht="18" thickBot="1">
-      <c r="K780" s="15"/>
-      <c r="M780" s="12"/>
-    </row>
-    <row r="781" spans="11:13" ht="18" thickBot="1">
-      <c r="K781" s="15"/>
-      <c r="M781" s="12"/>
-    </row>
-    <row r="782" spans="11:13" ht="18" thickBot="1">
-      <c r="K782" s="15"/>
-      <c r="M782" s="12"/>
-    </row>
-    <row r="783" spans="11:13" ht="18" thickBot="1">
-      <c r="K783" s="15"/>
-      <c r="M783" s="12"/>
-    </row>
-    <row r="784" spans="11:13" ht="18" thickBot="1">
-      <c r="K784" s="15"/>
-      <c r="M784" s="12"/>
-    </row>
-    <row r="785" spans="11:13" ht="18" thickBot="1">
-      <c r="K785" s="15"/>
-      <c r="M785" s="12"/>
-    </row>
-    <row r="786" spans="11:13" ht="18" thickBot="1">
-      <c r="K786" s="15"/>
-      <c r="M786" s="12"/>
-    </row>
-    <row r="787" spans="11:13" ht="18" thickBot="1">
-      <c r="K787" s="15"/>
-      <c r="M787" s="12"/>
-    </row>
-    <row r="788" spans="11:13" ht="18" thickBot="1">
-      <c r="K788" s="15"/>
-      <c r="M788" s="12"/>
-    </row>
-    <row r="789" spans="11:13" ht="18" thickBot="1">
-      <c r="K789" s="15"/>
-      <c r="M789" s="12"/>
-    </row>
-    <row r="790" spans="11:13" ht="18" thickBot="1">
-      <c r="K790" s="15"/>
-      <c r="M790" s="12"/>
-    </row>
-    <row r="791" spans="11:13" ht="18" thickBot="1">
-      <c r="K791" s="15"/>
-      <c r="M791" s="12"/>
-    </row>
-    <row r="792" spans="11:13" ht="18" thickBot="1">
-      <c r="K792" s="15"/>
-      <c r="M792" s="12"/>
-    </row>
-    <row r="793" spans="11:13" ht="18" thickBot="1">
-      <c r="K793" s="15"/>
-      <c r="M793" s="12"/>
-    </row>
-    <row r="794" spans="11:13" ht="18" thickBot="1">
-      <c r="K794" s="15"/>
-      <c r="M794" s="12"/>
-    </row>
-    <row r="795" spans="11:13" ht="18" thickBot="1">
-      <c r="K795" s="15"/>
-      <c r="M795" s="12"/>
-    </row>
-    <row r="796" spans="11:13" ht="18" thickBot="1">
-      <c r="K796" s="15"/>
-      <c r="M796" s="12"/>
-    </row>
-    <row r="797" spans="11:13" ht="18" thickBot="1">
-      <c r="K797" s="15"/>
-      <c r="M797" s="12"/>
-    </row>
-    <row r="798" spans="11:13" ht="18" thickBot="1">
-      <c r="K798" s="15"/>
-      <c r="M798" s="12"/>
-    </row>
-    <row r="799" spans="11:13" ht="18" thickBot="1">
-      <c r="K799" s="15"/>
-      <c r="M799" s="12"/>
-    </row>
-    <row r="800" spans="11:13" ht="18" thickBot="1">
-      <c r="K800" s="15"/>
-      <c r="M800" s="12"/>
-    </row>
-    <row r="801" spans="11:13" ht="18" thickBot="1">
-      <c r="K801" s="15"/>
-      <c r="M801" s="12"/>
-    </row>
-    <row r="802" spans="11:13" ht="18" thickBot="1">
-      <c r="K802" s="15"/>
-      <c r="M802" s="12"/>
-    </row>
-    <row r="803" spans="11:13" ht="18" thickBot="1">
-      <c r="K803" s="15"/>
-      <c r="M803" s="12"/>
-    </row>
-    <row r="804" spans="11:13" ht="18" thickBot="1">
-      <c r="K804" s="15"/>
-      <c r="M804" s="12"/>
-    </row>
-    <row r="805" spans="11:13" ht="18" thickBot="1">
-      <c r="K805" s="15"/>
-      <c r="M805" s="12"/>
-    </row>
-    <row r="806" spans="11:13" ht="18" thickBot="1">
-      <c r="K806" s="15"/>
-      <c r="M806" s="12"/>
-    </row>
-    <row r="807" spans="11:13" ht="18" thickBot="1">
-      <c r="K807" s="15"/>
-      <c r="M807" s="12"/>
-    </row>
-    <row r="808" spans="11:13" ht="18" thickBot="1">
-      <c r="K808" s="15"/>
-      <c r="M808" s="12"/>
-    </row>
-    <row r="809" spans="11:13" ht="18" thickBot="1">
-      <c r="K809" s="15"/>
-      <c r="M809" s="12"/>
-    </row>
-    <row r="810" spans="11:13" ht="18" thickBot="1">
-      <c r="K810" s="15"/>
-      <c r="M810" s="12"/>
-    </row>
-    <row r="811" spans="11:13" ht="18" thickBot="1">
-      <c r="K811" s="15"/>
-      <c r="M811" s="12"/>
-    </row>
-    <row r="812" spans="11:13" ht="18" thickBot="1">
-      <c r="K812" s="15"/>
-      <c r="M812" s="12"/>
-    </row>
-    <row r="813" spans="11:13" ht="18" thickBot="1">
-      <c r="K813" s="15"/>
-      <c r="M813" s="12"/>
-    </row>
-    <row r="814" spans="11:13" ht="18" thickBot="1">
-      <c r="K814" s="15"/>
-      <c r="M814" s="12"/>
-    </row>
-    <row r="815" spans="11:13" ht="18" thickBot="1">
-      <c r="K815" s="15"/>
-      <c r="M815" s="12"/>
-    </row>
-    <row r="816" spans="11:13" ht="18" thickBot="1">
-      <c r="K816" s="15"/>
-      <c r="M816" s="12"/>
-    </row>
-    <row r="817" spans="11:13" ht="18" thickBot="1">
-      <c r="K817" s="15"/>
-      <c r="M817" s="12"/>
-    </row>
-    <row r="818" spans="11:13" ht="18" thickBot="1">
-      <c r="K818" s="15"/>
-      <c r="M818" s="12"/>
-    </row>
-    <row r="819" spans="11:13" ht="18" thickBot="1">
-      <c r="K819" s="15"/>
-      <c r="M819" s="12"/>
-    </row>
-    <row r="820" spans="11:13" ht="18" thickBot="1">
-      <c r="K820" s="15"/>
-      <c r="M820" s="12"/>
-    </row>
-    <row r="821" spans="11:13" ht="18" thickBot="1">
-      <c r="K821" s="15"/>
-      <c r="M821" s="12"/>
-    </row>
-    <row r="822" spans="11:13" ht="18" thickBot="1">
-      <c r="K822" s="15"/>
-      <c r="M822" s="12"/>
-    </row>
-    <row r="823" spans="11:13" ht="18" thickBot="1">
-      <c r="K823" s="15"/>
-      <c r="M823" s="12"/>
-    </row>
-    <row r="824" spans="11:13" ht="18" thickBot="1">
-      <c r="K824" s="15"/>
-      <c r="M824" s="12"/>
-    </row>
-    <row r="825" spans="11:13" ht="18" thickBot="1">
-      <c r="K825" s="15"/>
-      <c r="M825" s="12"/>
-    </row>
-    <row r="826" spans="11:13" ht="18" thickBot="1">
-      <c r="K826" s="15"/>
-      <c r="M826" s="12"/>
-    </row>
-    <row r="827" spans="11:13" ht="18" thickBot="1">
-      <c r="K827" s="15"/>
-      <c r="M827" s="12"/>
-    </row>
-    <row r="828" spans="11:13" ht="18" thickBot="1">
-      <c r="K828" s="15"/>
-      <c r="M828" s="12"/>
-    </row>
-    <row r="829" spans="11:13" ht="18" thickBot="1">
-      <c r="K829" s="15"/>
-      <c r="M829" s="12"/>
-    </row>
-    <row r="830" spans="11:13" ht="18" thickBot="1">
-      <c r="K830" s="15"/>
-      <c r="M830" s="12"/>
-    </row>
-    <row r="831" spans="11:13" ht="18" thickBot="1">
-      <c r="K831" s="15"/>
-      <c r="M831" s="12"/>
-    </row>
-    <row r="832" spans="11:13" ht="18" thickBot="1">
-      <c r="K832" s="15"/>
-      <c r="M832" s="12"/>
-    </row>
-    <row r="833" spans="11:13" ht="18" thickBot="1">
-      <c r="K833" s="15"/>
-      <c r="M833" s="12"/>
-    </row>
-    <row r="834" spans="11:13" ht="18" thickBot="1">
-      <c r="K834" s="15"/>
-      <c r="M834" s="12"/>
-    </row>
-    <row r="835" spans="11:13" ht="18" thickBot="1">
-      <c r="K835" s="15"/>
-      <c r="M835" s="12"/>
-    </row>
-    <row r="836" spans="11:13" ht="18" thickBot="1">
-      <c r="K836" s="15"/>
-      <c r="M836" s="12"/>
-    </row>
-    <row r="837" spans="11:13" ht="18" thickBot="1">
-      <c r="K837" s="15"/>
-      <c r="M837" s="12"/>
-    </row>
-    <row r="838" spans="11:13" ht="18" thickBot="1">
-      <c r="K838" s="15"/>
-      <c r="M838" s="12"/>
-    </row>
-    <row r="839" spans="11:13" ht="18" thickBot="1">
-      <c r="K839" s="15"/>
-      <c r="M839" s="12"/>
-    </row>
-    <row r="840" spans="11:13" ht="18" thickBot="1">
-      <c r="K840" s="15"/>
-      <c r="M840" s="12"/>
-    </row>
-    <row r="841" spans="11:13" ht="18" thickBot="1">
-      <c r="K841" s="15"/>
-      <c r="M841" s="12"/>
-    </row>
-    <row r="842" spans="11:13" ht="18" thickBot="1">
-      <c r="K842" s="15"/>
-      <c r="M842" s="12"/>
-    </row>
-    <row r="843" spans="11:13" ht="18" thickBot="1">
-      <c r="K843" s="15"/>
-      <c r="M843" s="12"/>
-    </row>
-    <row r="844" spans="11:13" ht="18" thickBot="1">
-      <c r="K844" s="15"/>
-      <c r="M844" s="12"/>
-    </row>
-    <row r="845" spans="11:13" ht="18" thickBot="1">
-      <c r="K845" s="15"/>
-      <c r="M845" s="12"/>
-    </row>
-    <row r="846" spans="11:13" ht="18" thickBot="1">
-      <c r="K846" s="15"/>
-      <c r="M846" s="12"/>
-    </row>
-    <row r="847" spans="11:13" ht="18" thickBot="1">
-      <c r="K847" s="15"/>
-      <c r="M847" s="12"/>
-    </row>
-    <row r="848" spans="11:13" ht="18" thickBot="1">
-      <c r="K848" s="15"/>
-      <c r="M848" s="12"/>
-    </row>
-    <row r="849" spans="11:13" ht="18" thickBot="1">
-      <c r="K849" s="15"/>
-      <c r="M849" s="12"/>
-    </row>
-    <row r="850" spans="11:13" ht="18" thickBot="1">
-      <c r="K850" s="15"/>
-      <c r="M850" s="12"/>
-    </row>
-    <row r="851" spans="11:13" ht="18" thickBot="1">
-      <c r="K851" s="15"/>
-      <c r="M851" s="12"/>
-    </row>
-    <row r="852" spans="11:13" ht="18" thickBot="1">
-      <c r="K852" s="15"/>
-      <c r="M852" s="12"/>
-    </row>
-    <row r="853" spans="11:13" ht="18" thickBot="1">
-      <c r="K853" s="15"/>
-      <c r="M853" s="12"/>
-    </row>
-    <row r="854" spans="11:13" ht="18" thickBot="1">
-      <c r="K854" s="15"/>
-      <c r="M854" s="12"/>
-    </row>
-    <row r="855" spans="11:13" ht="18" thickBot="1">
-      <c r="K855" s="15"/>
-      <c r="M855" s="12"/>
-    </row>
-    <row r="856" spans="11:13" ht="18" thickBot="1">
-      <c r="K856" s="15"/>
-      <c r="M856" s="12"/>
-    </row>
-    <row r="857" spans="11:13" ht="18" thickBot="1">
-      <c r="K857" s="15"/>
-      <c r="M857" s="12"/>
-    </row>
-    <row r="858" spans="11:13" ht="18" thickBot="1">
-      <c r="K858" s="15"/>
-      <c r="M858" s="12"/>
-    </row>
-    <row r="859" spans="11:13" ht="18" thickBot="1">
-      <c r="K859" s="15"/>
-      <c r="M859" s="12"/>
-    </row>
-    <row r="860" spans="11:13" ht="18" thickBot="1">
-      <c r="K860" s="15"/>
-      <c r="M860" s="12"/>
-    </row>
-    <row r="861" spans="11:13" ht="18" thickBot="1">
-      <c r="K861" s="15"/>
-      <c r="M861" s="12"/>
-    </row>
-    <row r="862" spans="11:13" ht="18" thickBot="1">
-      <c r="K862" s="15"/>
-      <c r="M862" s="12"/>
-    </row>
-    <row r="863" spans="11:13" ht="18" thickBot="1">
-      <c r="K863" s="15"/>
-      <c r="M863" s="12"/>
-    </row>
-    <row r="864" spans="11:13" ht="18" thickBot="1">
-      <c r="K864" s="15"/>
-      <c r="M864" s="12"/>
-    </row>
-    <row r="865" spans="11:13" ht="18" thickBot="1">
-      <c r="K865" s="15"/>
-      <c r="M865" s="12"/>
-    </row>
-    <row r="866" spans="11:13" ht="18" thickBot="1">
-      <c r="K866" s="15"/>
-      <c r="M866" s="12"/>
-    </row>
-    <row r="867" spans="11:13" ht="18" thickBot="1">
-      <c r="K867" s="15"/>
-      <c r="M867" s="12"/>
-    </row>
-    <row r="868" spans="11:13" ht="18" thickBot="1">
-      <c r="K868" s="15"/>
-      <c r="M868" s="12"/>
-    </row>
-    <row r="869" spans="11:13" ht="18" thickBot="1">
-      <c r="K869" s="15"/>
-      <c r="M869" s="12"/>
-    </row>
-    <row r="870" spans="11:13" ht="18" thickBot="1">
-      <c r="K870" s="15"/>
-      <c r="M870" s="12"/>
-    </row>
-    <row r="871" spans="11:13" ht="18" thickBot="1">
-      <c r="K871" s="15"/>
-      <c r="M871" s="12"/>
-    </row>
-    <row r="872" spans="11:13" ht="18" thickBot="1">
-      <c r="K872" s="15"/>
-      <c r="M872" s="12"/>
-    </row>
-    <row r="873" spans="11:13" ht="18" thickBot="1">
-      <c r="K873" s="15"/>
-      <c r="M873" s="12"/>
-    </row>
-    <row r="874" spans="11:13" ht="18" thickBot="1">
-      <c r="K874" s="15"/>
-      <c r="M874" s="12"/>
-    </row>
-    <row r="875" spans="11:13" ht="18" thickBot="1">
-      <c r="K875" s="15"/>
-      <c r="M875" s="12"/>
-    </row>
-    <row r="876" spans="11:13" ht="18" thickBot="1">
-      <c r="K876" s="15"/>
-      <c r="M876" s="12"/>
-    </row>
-    <row r="877" spans="11:13" ht="18" thickBot="1">
-      <c r="K877" s="15"/>
-      <c r="M877" s="12"/>
-    </row>
-    <row r="878" spans="11:13" ht="18" thickBot="1">
-      <c r="K878" s="15"/>
-      <c r="M878" s="12"/>
-    </row>
-    <row r="879" spans="11:13" ht="18" thickBot="1">
-      <c r="K879" s="15"/>
-      <c r="M879" s="12"/>
-    </row>
-    <row r="880" spans="11:13" ht="18" thickBot="1">
-      <c r="K880" s="15"/>
-      <c r="M880" s="12"/>
-    </row>
-    <row r="881" spans="11:13" ht="18" thickBot="1">
-      <c r="K881" s="15"/>
-      <c r="M881" s="12"/>
-    </row>
-    <row r="882" spans="11:13" ht="18" thickBot="1">
-      <c r="K882" s="15"/>
-      <c r="M882" s="12"/>
-    </row>
-    <row r="883" spans="11:13" ht="18" thickBot="1">
-      <c r="K883" s="15"/>
-      <c r="M883" s="12"/>
-    </row>
-    <row r="884" spans="11:13" ht="18" thickBot="1">
-      <c r="K884" s="15"/>
-      <c r="M884" s="12"/>
-    </row>
-    <row r="885" spans="11:13" ht="18" thickBot="1">
-      <c r="K885" s="15"/>
-      <c r="M885" s="12"/>
-    </row>
-    <row r="886" spans="11:13" ht="18" thickBot="1">
-      <c r="K886" s="15"/>
-      <c r="M886" s="12"/>
-    </row>
-    <row r="887" spans="11:13" ht="18" thickBot="1">
-      <c r="K887" s="15"/>
-      <c r="M887" s="12"/>
-    </row>
-    <row r="888" spans="11:13" ht="18" thickBot="1">
-      <c r="K888" s="15"/>
-      <c r="M888" s="12"/>
-    </row>
-    <row r="889" spans="11:13" ht="18" thickBot="1">
-      <c r="K889" s="15"/>
-      <c r="M889" s="12"/>
-    </row>
-    <row r="890" spans="11:13" ht="18" thickBot="1">
-      <c r="K890" s="15"/>
-      <c r="M890" s="12"/>
-    </row>
-    <row r="891" spans="11:13" ht="18" thickBot="1">
-      <c r="K891" s="15"/>
-      <c r="M891" s="12"/>
-    </row>
-    <row r="892" spans="11:13" ht="18" thickBot="1">
-      <c r="K892" s="15"/>
-      <c r="M892" s="12"/>
-    </row>
-    <row r="893" spans="11:13" ht="18" thickBot="1">
-      <c r="K893" s="15"/>
-      <c r="M893" s="12"/>
-    </row>
-    <row r="894" spans="11:13" ht="18" thickBot="1">
-      <c r="K894" s="15"/>
-      <c r="M894" s="12"/>
-    </row>
-    <row r="895" spans="11:13" ht="18" thickBot="1">
-      <c r="K895" s="15"/>
-      <c r="M895" s="12"/>
-    </row>
-    <row r="896" spans="11:13" ht="18" thickBot="1">
-      <c r="K896" s="15"/>
-      <c r="M896" s="12"/>
-    </row>
-    <row r="897" spans="11:13" ht="18" thickBot="1">
-      <c r="K897" s="15"/>
-      <c r="M897" s="12"/>
-    </row>
-    <row r="898" spans="11:13" ht="18" thickBot="1">
-      <c r="K898" s="15"/>
-      <c r="M898" s="12"/>
-    </row>
-    <row r="899" spans="11:13" ht="18" thickBot="1">
-      <c r="K899" s="15"/>
-      <c r="M899" s="12"/>
-    </row>
-    <row r="900" spans="11:13" ht="18" thickBot="1">
-      <c r="K900" s="15"/>
-      <c r="M900" s="12"/>
-    </row>
-    <row r="901" spans="11:13" ht="18" thickBot="1">
-      <c r="K901" s="15"/>
-      <c r="M901" s="12"/>
-    </row>
-    <row r="902" spans="11:13" ht="18" thickBot="1">
-      <c r="K902" s="15"/>
-      <c r="M902" s="12"/>
-    </row>
-    <row r="903" spans="11:13" ht="18" thickBot="1">
-      <c r="K903" s="15"/>
-      <c r="M903" s="12"/>
-    </row>
-    <row r="904" spans="11:13" ht="18" thickBot="1">
-      <c r="K904" s="15"/>
-      <c r="M904" s="12"/>
-    </row>
-    <row r="905" spans="11:13" ht="18" thickBot="1">
-      <c r="K905" s="15"/>
-      <c r="M905" s="12"/>
-    </row>
-    <row r="906" spans="11:13" ht="18" thickBot="1">
-      <c r="K906" s="15"/>
-      <c r="M906" s="12"/>
-    </row>
-    <row r="907" spans="11:13" ht="18" thickBot="1">
-      <c r="K907" s="15"/>
-      <c r="M907" s="12"/>
-    </row>
-    <row r="908" spans="11:13" ht="18" thickBot="1">
-      <c r="K908" s="15"/>
-      <c r="M908" s="12"/>
-    </row>
-    <row r="909" spans="11:13" ht="18" thickBot="1">
-      <c r="K909" s="15"/>
-      <c r="M909" s="12"/>
-    </row>
-    <row r="910" spans="11:13" ht="18" thickBot="1">
-      <c r="K910" s="15"/>
-      <c r="M910" s="12"/>
-    </row>
-    <row r="911" spans="11:13" ht="18" thickBot="1">
-      <c r="K911" s="15"/>
-      <c r="M911" s="12"/>
-    </row>
-    <row r="912" spans="11:13" ht="18" thickBot="1">
-      <c r="K912" s="15"/>
-      <c r="M912" s="12"/>
-    </row>
-    <row r="913" spans="11:13" ht="18" thickBot="1">
-      <c r="K913" s="15"/>
-      <c r="M913" s="12"/>
-    </row>
-    <row r="914" spans="11:13" ht="18" thickBot="1">
-      <c r="K914" s="15"/>
-      <c r="M914" s="12"/>
-    </row>
-    <row r="915" spans="11:13" ht="18" thickBot="1">
-      <c r="K915" s="15"/>
-      <c r="M915" s="12"/>
-    </row>
-    <row r="916" spans="11:13" ht="18" thickBot="1">
-      <c r="K916" s="15"/>
-      <c r="M916" s="12"/>
-    </row>
-    <row r="917" spans="11:13" ht="18" thickBot="1">
-      <c r="K917" s="15"/>
-      <c r="M917" s="12"/>
-    </row>
-    <row r="918" spans="11:13" ht="18" thickBot="1">
-      <c r="K918" s="15"/>
-      <c r="M918" s="12"/>
-    </row>
-    <row r="919" spans="11:13" ht="18" thickBot="1">
-      <c r="K919" s="15"/>
-      <c r="M919" s="12"/>
-    </row>
-    <row r="920" spans="11:13" ht="18" thickBot="1">
-      <c r="K920" s="15"/>
-      <c r="M920" s="12"/>
-    </row>
-    <row r="921" spans="11:13" ht="18" thickBot="1">
-      <c r="K921" s="15"/>
-      <c r="M921" s="12"/>
-    </row>
-    <row r="922" spans="11:13" ht="18" thickBot="1">
-      <c r="K922" s="15"/>
-      <c r="M922" s="12"/>
-    </row>
-    <row r="923" spans="11:13" ht="18" thickBot="1">
-      <c r="K923" s="15"/>
-      <c r="M923" s="12"/>
-    </row>
-    <row r="924" spans="11:13" ht="18" thickBot="1">
-      <c r="K924" s="15"/>
-      <c r="M924" s="12"/>
-    </row>
-    <row r="925" spans="11:13" ht="18" thickBot="1">
-      <c r="K925" s="15"/>
-      <c r="M925" s="12"/>
-    </row>
-    <row r="926" spans="11:13" ht="18" thickBot="1">
-      <c r="K926" s="15"/>
-      <c r="M926" s="12"/>
-    </row>
-    <row r="927" spans="11:13" ht="18" thickBot="1">
-      <c r="K927" s="15"/>
-      <c r="M927" s="12"/>
-    </row>
-    <row r="928" spans="11:13" ht="18" thickBot="1">
-      <c r="K928" s="15"/>
-      <c r="M928" s="12"/>
-    </row>
-    <row r="929" spans="11:13" ht="18" thickBot="1">
-      <c r="K929" s="15"/>
-      <c r="M929" s="12"/>
-    </row>
-    <row r="930" spans="11:13" ht="18" thickBot="1">
-      <c r="K930" s="15"/>
-      <c r="M930" s="12"/>
-    </row>
-    <row r="931" spans="11:13" ht="18" thickBot="1">
-      <c r="K931" s="15"/>
-      <c r="M931" s="12"/>
-    </row>
-    <row r="932" spans="11:13" ht="18" thickBot="1">
-      <c r="K932" s="15"/>
-      <c r="M932" s="12"/>
-    </row>
-    <row r="933" spans="11:13" ht="18" thickBot="1">
-      <c r="K933" s="15"/>
-      <c r="M933" s="12"/>
-    </row>
-    <row r="934" spans="11:13" ht="18" thickBot="1">
-      <c r="K934" s="15"/>
-      <c r="M934" s="12"/>
-    </row>
-    <row r="935" spans="11:13" ht="18" thickBot="1">
-      <c r="K935" s="15"/>
-      <c r="M935" s="12"/>
-    </row>
-    <row r="936" spans="11:13" ht="18" thickBot="1">
-      <c r="K936" s="15"/>
-      <c r="M936" s="12"/>
-    </row>
-    <row r="937" spans="11:13" ht="18" thickBot="1">
-      <c r="K937" s="15"/>
-      <c r="M937" s="12"/>
-    </row>
-    <row r="938" spans="11:13" ht="18" thickBot="1">
-      <c r="K938" s="15"/>
-      <c r="M938" s="12"/>
-    </row>
-    <row r="939" spans="11:13" ht="18" thickBot="1">
-      <c r="K939" s="15"/>
-      <c r="M939" s="12"/>
-    </row>
-    <row r="940" spans="11:13" ht="18" thickBot="1">
-      <c r="K940" s="15"/>
-      <c r="M940" s="12"/>
-    </row>
-    <row r="941" spans="11:13" ht="18" thickBot="1">
-      <c r="K941" s="15"/>
-      <c r="M941" s="12"/>
-    </row>
-    <row r="942" spans="11:13" ht="18" thickBot="1">
-      <c r="K942" s="15"/>
-      <c r="M942" s="12"/>
-    </row>
-    <row r="943" spans="11:13" ht="18" thickBot="1">
-      <c r="K943" s="15"/>
-      <c r="M943" s="12"/>
-    </row>
-    <row r="944" spans="11:13" ht="18" thickBot="1">
-      <c r="K944" s="15"/>
-      <c r="M944" s="12"/>
-    </row>
-    <row r="945" spans="11:13" ht="18" thickBot="1">
-      <c r="K945" s="15"/>
-      <c r="M945" s="12"/>
-    </row>
-    <row r="946" spans="11:13" ht="18" thickBot="1">
-      <c r="K946" s="15"/>
-      <c r="M946" s="12"/>
-    </row>
-    <row r="947" spans="11:13" ht="18" thickBot="1">
-      <c r="K947" s="15"/>
-      <c r="M947" s="12"/>
-    </row>
-    <row r="948" spans="11:13" ht="18" thickBot="1">
-      <c r="K948" s="15"/>
-      <c r="M948" s="12"/>
-    </row>
-    <row r="949" spans="11:13" ht="18" thickBot="1">
-      <c r="K949" s="15"/>
-      <c r="M949" s="12"/>
-    </row>
-    <row r="950" spans="11:13" ht="18" thickBot="1">
-      <c r="K950" s="15"/>
-      <c r="M950" s="12"/>
-    </row>
-    <row r="951" spans="11:13" ht="18" thickBot="1">
-      <c r="K951" s="15"/>
-      <c r="M951" s="12"/>
-    </row>
-    <row r="952" spans="11:13" ht="18" thickBot="1">
-      <c r="K952" s="15"/>
-      <c r="M952" s="12"/>
-    </row>
-    <row r="953" spans="11:13" ht="18" thickBot="1">
-      <c r="K953" s="15"/>
-      <c r="M953" s="12"/>
-    </row>
-    <row r="954" spans="11:13" ht="18" thickBot="1">
-      <c r="K954" s="15"/>
-      <c r="M954" s="12"/>
-    </row>
-    <row r="955" spans="11:13" ht="18" thickBot="1">
-      <c r="K955" s="15"/>
-      <c r="M955" s="12"/>
-    </row>
-    <row r="956" spans="11:13" ht="18" thickBot="1">
-      <c r="K956" s="15"/>
-      <c r="M956" s="12"/>
-    </row>
-    <row r="957" spans="11:13" ht="18" thickBot="1">
-      <c r="K957" s="15"/>
-      <c r="M957" s="12"/>
-    </row>
-    <row r="958" spans="11:13" ht="18" thickBot="1">
-      <c r="K958" s="15"/>
-      <c r="M958" s="12"/>
-    </row>
-    <row r="959" spans="11:13" ht="18" thickBot="1">
-      <c r="K959" s="15"/>
-      <c r="M959" s="12"/>
-    </row>
-    <row r="960" spans="11:13" ht="18" thickBot="1">
-      <c r="K960" s="15"/>
-      <c r="M960" s="12"/>
-    </row>
-    <row r="961" spans="11:13" ht="18" thickBot="1">
-      <c r="K961" s="15"/>
-      <c r="M961" s="12"/>
-    </row>
-    <row r="962" spans="11:13" ht="18" thickBot="1">
-      <c r="K962" s="15"/>
-      <c r="M962" s="12"/>
-    </row>
-    <row r="963" spans="11:13" ht="18" thickBot="1">
-      <c r="K963" s="15"/>
-      <c r="M963" s="12"/>
-    </row>
-    <row r="964" spans="11:13" ht="18" thickBot="1">
-      <c r="K964" s="15"/>
-      <c r="M964" s="12"/>
-    </row>
-    <row r="965" spans="11:13" ht="18" thickBot="1">
-      <c r="K965" s="15"/>
-      <c r="M965" s="12"/>
-    </row>
-    <row r="966" spans="11:13" ht="18" thickBot="1">
-      <c r="K966" s="15"/>
-      <c r="M966" s="12"/>
-    </row>
-    <row r="967" spans="11:13" ht="18" thickBot="1">
-      <c r="K967" s="15"/>
-      <c r="M967" s="12"/>
-    </row>
-    <row r="968" spans="11:13" ht="18" thickBot="1">
-      <c r="K968" s="15"/>
-      <c r="M968" s="12"/>
-    </row>
-    <row r="969" spans="11:13" ht="18" thickBot="1">
-      <c r="K969" s="15"/>
-      <c r="M969" s="12"/>
-    </row>
-    <row r="970" spans="11:13" ht="18" thickBot="1">
-      <c r="K970" s="15"/>
-      <c r="M970" s="12"/>
-    </row>
-    <row r="971" spans="11:13" ht="18" thickBot="1">
-      <c r="K971" s="15"/>
-      <c r="M971" s="12"/>
-    </row>
-    <row r="972" spans="11:13" ht="18" thickBot="1">
-      <c r="K972" s="15"/>
-      <c r="M972" s="12"/>
-    </row>
-    <row r="973" spans="11:13" ht="18" thickBot="1">
-      <c r="K973" s="15"/>
-      <c r="M973" s="12"/>
-    </row>
-    <row r="974" spans="11:13" ht="18" thickBot="1">
-      <c r="K974" s="15"/>
-      <c r="M974" s="12"/>
-    </row>
-    <row r="975" spans="11:13" ht="18" thickBot="1">
-      <c r="K975" s="15"/>
-      <c r="M975" s="12"/>
-    </row>
-    <row r="976" spans="11:13" ht="18" thickBot="1">
-      <c r="K976" s="15"/>
-      <c r="M976" s="12"/>
-    </row>
-    <row r="977" spans="11:13" ht="18" thickBot="1">
-      <c r="K977" s="15"/>
-      <c r="M977" s="12"/>
-    </row>
-    <row r="978" spans="11:13" ht="18" thickBot="1">
-      <c r="K978" s="15"/>
-      <c r="M978" s="12"/>
-    </row>
-    <row r="979" spans="11:13" ht="18" thickBot="1">
-      <c r="K979" s="15"/>
-      <c r="M979" s="12"/>
-    </row>
-    <row r="980" spans="11:13" ht="18" thickBot="1">
-      <c r="K980" s="15"/>
-      <c r="M980" s="12"/>
-    </row>
-    <row r="981" spans="11:13" ht="18" thickBot="1">
-      <c r="K981" s="15"/>
-      <c r="M981" s="12"/>
-    </row>
-    <row r="982" spans="11:13" ht="18" thickBot="1">
-      <c r="K982" s="15"/>
-      <c r="M982" s="12"/>
-    </row>
-    <row r="983" spans="11:13" ht="18" thickBot="1">
-      <c r="K983" s="15"/>
-      <c r="M983" s="12"/>
-    </row>
-    <row r="984" spans="11:13" ht="18" thickBot="1">
-      <c r="K984" s="15"/>
-      <c r="M984" s="12"/>
-    </row>
-    <row r="985" spans="11:13" ht="18" thickBot="1">
-      <c r="K985" s="15"/>
-      <c r="M985" s="12"/>
-    </row>
-    <row r="986" spans="11:13" ht="18" thickBot="1">
-      <c r="K986" s="15"/>
-      <c r="M986" s="12"/>
-    </row>
-    <row r="987" spans="11:13" ht="18" thickBot="1">
-      <c r="K987" s="15"/>
-      <c r="M987" s="12"/>
-    </row>
-    <row r="988" spans="11:13" ht="18" thickBot="1">
-      <c r="K988" s="15"/>
-      <c r="M988" s="12"/>
-    </row>
-    <row r="989" spans="11:13" ht="18" thickBot="1">
-      <c r="K989" s="15"/>
-      <c r="M989" s="12"/>
-    </row>
-    <row r="990" spans="11:13" ht="18" thickBot="1">
-      <c r="K990" s="15"/>
-      <c r="M990" s="12"/>
-    </row>
-    <row r="991" spans="11:13" ht="18" thickBot="1">
-      <c r="K991" s="15"/>
-      <c r="M991" s="12"/>
-    </row>
-    <row r="992" spans="11:13" ht="18" thickBot="1">
-      <c r="K992" s="15"/>
-      <c r="M992" s="12"/>
-    </row>
-    <row r="993" spans="11:13" ht="18" thickBot="1">
-      <c r="K993" s="15"/>
-      <c r="M993" s="12"/>
-    </row>
-    <row r="994" spans="11:13" ht="18" thickBot="1">
-      <c r="K994" s="15"/>
-      <c r="M994" s="12"/>
-    </row>
-    <row r="995" spans="11:13" ht="18" thickBot="1">
-      <c r="K995" s="15"/>
-      <c r="M995" s="12"/>
-    </row>
-    <row r="996" spans="11:13" ht="18" thickBot="1">
-      <c r="K996" s="15"/>
-      <c r="M996" s="12"/>
-    </row>
-    <row r="997" spans="11:13" ht="18" thickBot="1">
-      <c r="K997" s="15"/>
-      <c r="M997" s="12"/>
-    </row>
-    <row r="998" spans="11:13" ht="18" thickBot="1">
-      <c r="K998" s="15"/>
-      <c r="M998" s="12"/>
-    </row>
-    <row r="999" spans="11:13" ht="18" thickBot="1">
-      <c r="K999" s="15"/>
-      <c r="M999" s="12"/>
-    </row>
-    <row r="1000" spans="11:13" ht="18" thickBot="1">
-      <c r="K1000" s="15"/>
-      <c r="M1000" s="12"/>
+      <c r="K208" s="13"/>
+    </row>
+    <row r="209" spans="11:11" ht="18" thickBot="1">
+      <c r="K209" s="13"/>
+    </row>
+    <row r="210" spans="11:11" ht="18" thickBot="1">
+      <c r="K210" s="13"/>
+    </row>
+    <row r="211" spans="11:11" ht="18" thickBot="1">
+      <c r="K211" s="13"/>
+    </row>
+    <row r="212" spans="11:11" ht="18" thickBot="1">
+      <c r="K212" s="13"/>
+    </row>
+    <row r="213" spans="11:11" ht="18" thickBot="1">
+      <c r="K213" s="13"/>
+    </row>
+    <row r="214" spans="11:11" ht="18" thickBot="1">
+      <c r="K214" s="13"/>
+    </row>
+    <row r="215" spans="11:11" ht="18" thickBot="1">
+      <c r="K215" s="13"/>
+    </row>
+    <row r="216" spans="11:11" ht="18" thickBot="1">
+      <c r="K216" s="13"/>
+    </row>
+    <row r="217" spans="11:11" ht="18" thickBot="1">
+      <c r="K217" s="13"/>
+    </row>
+    <row r="218" spans="11:11" ht="18" thickBot="1">
+      <c r="K218" s="13"/>
+    </row>
+    <row r="219" spans="11:11" ht="18" thickBot="1">
+      <c r="K219" s="13"/>
+    </row>
+    <row r="220" spans="11:11" ht="18" thickBot="1">
+      <c r="K220" s="13"/>
+    </row>
+    <row r="221" spans="11:11" ht="18" thickBot="1">
+      <c r="K221" s="13"/>
+    </row>
+    <row r="222" spans="11:11" ht="18" thickBot="1">
+      <c r="K222" s="13"/>
+    </row>
+    <row r="223" spans="11:11" ht="18" thickBot="1">
+      <c r="K223" s="13"/>
+    </row>
+    <row r="224" spans="11:11" ht="18" thickBot="1">
+      <c r="K224" s="13"/>
+    </row>
+    <row r="225" spans="11:11" ht="18" thickBot="1">
+      <c r="K225" s="13"/>
+    </row>
+    <row r="226" spans="11:11" ht="18" thickBot="1">
+      <c r="K226" s="13"/>
+    </row>
+    <row r="227" spans="11:11" ht="18" thickBot="1">
+      <c r="K227" s="13"/>
+    </row>
+    <row r="228" spans="11:11" ht="18" thickBot="1">
+      <c r="K228" s="13"/>
+    </row>
+    <row r="229" spans="11:11" ht="18" thickBot="1">
+      <c r="K229" s="13"/>
+    </row>
+    <row r="230" spans="11:11" ht="18" thickBot="1">
+      <c r="K230" s="13"/>
+    </row>
+    <row r="231" spans="11:11" ht="18" thickBot="1">
+      <c r="K231" s="13"/>
+    </row>
+    <row r="232" spans="11:11" ht="18" thickBot="1">
+      <c r="K232" s="13"/>
+    </row>
+    <row r="233" spans="11:11" ht="18" thickBot="1">
+      <c r="K233" s="13"/>
+    </row>
+    <row r="234" spans="11:11" ht="18" thickBot="1">
+      <c r="K234" s="13"/>
+    </row>
+    <row r="235" spans="11:11" ht="18" thickBot="1">
+      <c r="K235" s="13"/>
+    </row>
+    <row r="236" spans="11:11" ht="18" thickBot="1">
+      <c r="K236" s="13"/>
+    </row>
+    <row r="237" spans="11:11" ht="18" thickBot="1">
+      <c r="K237" s="13"/>
+    </row>
+    <row r="238" spans="11:11" ht="18" thickBot="1">
+      <c r="K238" s="13"/>
+    </row>
+    <row r="239" spans="11:11" ht="18" thickBot="1">
+      <c r="K239" s="13"/>
+    </row>
+    <row r="240" spans="11:11" ht="18" thickBot="1">
+      <c r="K240" s="13"/>
+    </row>
+    <row r="241" spans="11:11" ht="18" thickBot="1">
+      <c r="K241" s="13"/>
+    </row>
+    <row r="242" spans="11:11" ht="18" thickBot="1">
+      <c r="K242" s="13"/>
+    </row>
+    <row r="243" spans="11:11" ht="18" thickBot="1">
+      <c r="K243" s="13"/>
+    </row>
+    <row r="244" spans="11:11" ht="18" thickBot="1">
+      <c r="K244" s="13"/>
+    </row>
+    <row r="245" spans="11:11" ht="18" thickBot="1">
+      <c r="K245" s="13"/>
+    </row>
+    <row r="246" spans="11:11" ht="18" thickBot="1">
+      <c r="K246" s="13"/>
+    </row>
+    <row r="247" spans="11:11" ht="18" thickBot="1">
+      <c r="K247" s="13"/>
+    </row>
+    <row r="248" spans="11:11" ht="18" thickBot="1">
+      <c r="K248" s="13"/>
+    </row>
+    <row r="249" spans="11:11" ht="18" thickBot="1">
+      <c r="K249" s="13"/>
+    </row>
+    <row r="250" spans="11:11" ht="18" thickBot="1">
+      <c r="K250" s="13"/>
+    </row>
+    <row r="251" spans="11:11" ht="18" thickBot="1">
+      <c r="K251" s="13"/>
+    </row>
+    <row r="252" spans="11:11" ht="18" thickBot="1">
+      <c r="K252" s="13"/>
+    </row>
+    <row r="253" spans="11:11" ht="18" thickBot="1">
+      <c r="K253" s="13"/>
+    </row>
+    <row r="254" spans="11:11" ht="18" thickBot="1">
+      <c r="K254" s="13"/>
+    </row>
+    <row r="255" spans="11:11" ht="18" thickBot="1">
+      <c r="K255" s="13"/>
+    </row>
+    <row r="256" spans="11:11" ht="18" thickBot="1">
+      <c r="K256" s="13"/>
+    </row>
+    <row r="257" spans="11:11" ht="18" thickBot="1">
+      <c r="K257" s="13"/>
+    </row>
+    <row r="258" spans="11:11" ht="18" thickBot="1">
+      <c r="K258" s="13"/>
+    </row>
+    <row r="259" spans="11:11" ht="18" thickBot="1">
+      <c r="K259" s="13"/>
+    </row>
+    <row r="260" spans="11:11" ht="18" thickBot="1">
+      <c r="K260" s="13"/>
+    </row>
+    <row r="261" spans="11:11" ht="18" thickBot="1">
+      <c r="K261" s="13"/>
+    </row>
+    <row r="262" spans="11:11" ht="18" thickBot="1">
+      <c r="K262" s="13"/>
+    </row>
+    <row r="263" spans="11:11" ht="18" thickBot="1">
+      <c r="K263" s="13"/>
+    </row>
+    <row r="264" spans="11:11" ht="18" thickBot="1">
+      <c r="K264" s="13"/>
+    </row>
+    <row r="265" spans="11:11" ht="18" thickBot="1">
+      <c r="K265" s="13"/>
+    </row>
+    <row r="266" spans="11:11" ht="18" thickBot="1">
+      <c r="K266" s="13"/>
+    </row>
+    <row r="267" spans="11:11" ht="18" thickBot="1">
+      <c r="K267" s="13"/>
+    </row>
+    <row r="268" spans="11:11" ht="18" thickBot="1">
+      <c r="K268" s="13"/>
+    </row>
+    <row r="269" spans="11:11" ht="18" thickBot="1">
+      <c r="K269" s="13"/>
+    </row>
+    <row r="270" spans="11:11" ht="18" thickBot="1">
+      <c r="K270" s="13"/>
+    </row>
+    <row r="271" spans="11:11" ht="18" thickBot="1">
+      <c r="K271" s="13"/>
+    </row>
+    <row r="272" spans="11:11" ht="18" thickBot="1">
+      <c r="K272" s="13"/>
+    </row>
+    <row r="273" spans="11:11" ht="18" thickBot="1">
+      <c r="K273" s="13"/>
+    </row>
+    <row r="274" spans="11:11" ht="18" thickBot="1">
+      <c r="K274" s="13"/>
+    </row>
+    <row r="275" spans="11:11" ht="18" thickBot="1">
+      <c r="K275" s="13"/>
+    </row>
+    <row r="276" spans="11:11" ht="18" thickBot="1">
+      <c r="K276" s="13"/>
+    </row>
+    <row r="277" spans="11:11" ht="18" thickBot="1">
+      <c r="K277" s="13"/>
+    </row>
+    <row r="278" spans="11:11" ht="18" thickBot="1">
+      <c r="K278" s="13"/>
+    </row>
+    <row r="279" spans="11:11" ht="18" thickBot="1">
+      <c r="K279" s="13"/>
+    </row>
+    <row r="280" spans="11:11" ht="18" thickBot="1">
+      <c r="K280" s="13"/>
+    </row>
+    <row r="281" spans="11:11" ht="18" thickBot="1">
+      <c r="K281" s="13"/>
+    </row>
+    <row r="282" spans="11:11" ht="18" thickBot="1">
+      <c r="K282" s="13"/>
+    </row>
+    <row r="283" spans="11:11" ht="18" thickBot="1">
+      <c r="K283" s="13"/>
+    </row>
+    <row r="284" spans="11:11" ht="18" thickBot="1">
+      <c r="K284" s="13"/>
+    </row>
+    <row r="285" spans="11:11" ht="18" thickBot="1">
+      <c r="K285" s="13"/>
+    </row>
+    <row r="286" spans="11:11" ht="18" thickBot="1">
+      <c r="K286" s="13"/>
+    </row>
+    <row r="287" spans="11:11" ht="18" thickBot="1">
+      <c r="K287" s="13"/>
+    </row>
+    <row r="288" spans="11:11" ht="18" thickBot="1">
+      <c r="K288" s="13"/>
+    </row>
+    <row r="289" spans="11:11" ht="18" thickBot="1">
+      <c r="K289" s="13"/>
+    </row>
+    <row r="290" spans="11:11" ht="18" thickBot="1">
+      <c r="K290" s="13"/>
+    </row>
+    <row r="291" spans="11:11" ht="18" thickBot="1">
+      <c r="K291" s="13"/>
+    </row>
+    <row r="292" spans="11:11" ht="18" thickBot="1">
+      <c r="K292" s="13"/>
+    </row>
+    <row r="293" spans="11:11" ht="18" thickBot="1">
+      <c r="K293" s="13"/>
+    </row>
+    <row r="294" spans="11:11" ht="18" thickBot="1">
+      <c r="K294" s="13"/>
+    </row>
+    <row r="295" spans="11:11" ht="18" thickBot="1">
+      <c r="K295" s="13"/>
+    </row>
+    <row r="296" spans="11:11" ht="18" thickBot="1">
+      <c r="K296" s="13"/>
+    </row>
+    <row r="297" spans="11:11" ht="18" thickBot="1">
+      <c r="K297" s="13"/>
+    </row>
+    <row r="298" spans="11:11" ht="18" thickBot="1">
+      <c r="K298" s="13"/>
+    </row>
+    <row r="299" spans="11:11" ht="18" thickBot="1">
+      <c r="K299" s="13"/>
+    </row>
+    <row r="300" spans="11:11" ht="18" thickBot="1">
+      <c r="K300" s="13"/>
+    </row>
+    <row r="301" spans="11:11" ht="18" thickBot="1">
+      <c r="K301" s="13"/>
+    </row>
+    <row r="302" spans="11:11" ht="18" thickBot="1">
+      <c r="K302" s="13"/>
+    </row>
+    <row r="303" spans="11:11" ht="18" thickBot="1">
+      <c r="K303" s="13"/>
+    </row>
+    <row r="304" spans="11:11" ht="18" thickBot="1">
+      <c r="K304" s="13"/>
+    </row>
+    <row r="305" spans="11:11" ht="18" thickBot="1">
+      <c r="K305" s="13"/>
+    </row>
+    <row r="306" spans="11:11" ht="18" thickBot="1">
+      <c r="K306" s="13"/>
+    </row>
+    <row r="307" spans="11:11" ht="18" thickBot="1">
+      <c r="K307" s="13"/>
+    </row>
+    <row r="308" spans="11:11" ht="18" thickBot="1">
+      <c r="K308" s="13"/>
+    </row>
+    <row r="309" spans="11:11" ht="18" thickBot="1">
+      <c r="K309" s="13"/>
+    </row>
+    <row r="310" spans="11:11" ht="18" thickBot="1">
+      <c r="K310" s="13"/>
+    </row>
+    <row r="311" spans="11:11" ht="18" thickBot="1">
+      <c r="K311" s="13"/>
+    </row>
+    <row r="312" spans="11:11" ht="18" thickBot="1">
+      <c r="K312" s="13"/>
+    </row>
+    <row r="313" spans="11:11" ht="18" thickBot="1">
+      <c r="K313" s="13"/>
+    </row>
+    <row r="314" spans="11:11" ht="18" thickBot="1">
+      <c r="K314" s="13"/>
+    </row>
+    <row r="315" spans="11:11" ht="18" thickBot="1">
+      <c r="K315" s="13"/>
+    </row>
+    <row r="316" spans="11:11" ht="18" thickBot="1">
+      <c r="K316" s="13"/>
+    </row>
+    <row r="317" spans="11:11" ht="18" thickBot="1">
+      <c r="K317" s="13"/>
+    </row>
+    <row r="318" spans="11:11" ht="18" thickBot="1">
+      <c r="K318" s="13"/>
+    </row>
+    <row r="319" spans="11:11" ht="18" thickBot="1">
+      <c r="K319" s="13"/>
+    </row>
+    <row r="320" spans="11:11" ht="18" thickBot="1">
+      <c r="K320" s="13"/>
+    </row>
+    <row r="321" spans="11:11" ht="18" thickBot="1">
+      <c r="K321" s="13"/>
+    </row>
+    <row r="322" spans="11:11" ht="18" thickBot="1">
+      <c r="K322" s="13"/>
+    </row>
+    <row r="323" spans="11:11" ht="18" thickBot="1">
+      <c r="K323" s="13"/>
+    </row>
+    <row r="324" spans="11:11" ht="18" thickBot="1">
+      <c r="K324" s="13"/>
+    </row>
+    <row r="325" spans="11:11" ht="18" thickBot="1">
+      <c r="K325" s="13"/>
+    </row>
+    <row r="326" spans="11:11" ht="18" thickBot="1">
+      <c r="K326" s="13"/>
+    </row>
+    <row r="327" spans="11:11" ht="18" thickBot="1">
+      <c r="K327" s="13"/>
+    </row>
+    <row r="328" spans="11:11" ht="18" thickBot="1">
+      <c r="K328" s="13"/>
+    </row>
+    <row r="329" spans="11:11" ht="18" thickBot="1">
+      <c r="K329" s="13"/>
+    </row>
+    <row r="330" spans="11:11" ht="18" thickBot="1">
+      <c r="K330" s="13"/>
+    </row>
+    <row r="331" spans="11:11" ht="18" thickBot="1">
+      <c r="K331" s="13"/>
+    </row>
+    <row r="332" spans="11:11" ht="18" thickBot="1">
+      <c r="K332" s="13"/>
+    </row>
+    <row r="333" spans="11:11" ht="18" thickBot="1">
+      <c r="K333" s="13"/>
+    </row>
+    <row r="334" spans="11:11" ht="18" thickBot="1">
+      <c r="K334" s="13"/>
+    </row>
+    <row r="335" spans="11:11" ht="18" thickBot="1">
+      <c r="K335" s="13"/>
+    </row>
+    <row r="336" spans="11:11" ht="18" thickBot="1">
+      <c r="K336" s="13"/>
+    </row>
+    <row r="337" spans="11:11" ht="18" thickBot="1">
+      <c r="K337" s="13"/>
+    </row>
+    <row r="338" spans="11:11" ht="18" thickBot="1">
+      <c r="K338" s="13"/>
+    </row>
+    <row r="339" spans="11:11" ht="18" thickBot="1">
+      <c r="K339" s="13"/>
+    </row>
+    <row r="340" spans="11:11" ht="18" thickBot="1">
+      <c r="K340" s="13"/>
+    </row>
+    <row r="341" spans="11:11" ht="18" thickBot="1">
+      <c r="K341" s="13"/>
+    </row>
+    <row r="342" spans="11:11" ht="18" thickBot="1">
+      <c r="K342" s="13"/>
+    </row>
+    <row r="343" spans="11:11" ht="18" thickBot="1">
+      <c r="K343" s="13"/>
+    </row>
+    <row r="344" spans="11:11" ht="18" thickBot="1">
+      <c r="K344" s="13"/>
+    </row>
+    <row r="345" spans="11:11" ht="18" thickBot="1">
+      <c r="K345" s="13"/>
+    </row>
+    <row r="346" spans="11:11" ht="18" thickBot="1">
+      <c r="K346" s="13"/>
+    </row>
+    <row r="347" spans="11:11" ht="18" thickBot="1">
+      <c r="K347" s="13"/>
+    </row>
+    <row r="348" spans="11:11" ht="18" thickBot="1">
+      <c r="K348" s="13"/>
+    </row>
+    <row r="349" spans="11:11" ht="18" thickBot="1">
+      <c r="K349" s="13"/>
+    </row>
+    <row r="350" spans="11:11" ht="18" thickBot="1">
+      <c r="K350" s="13"/>
+    </row>
+    <row r="351" spans="11:11" ht="18" thickBot="1">
+      <c r="K351" s="13"/>
+    </row>
+    <row r="352" spans="11:11" ht="18" thickBot="1">
+      <c r="K352" s="13"/>
+    </row>
+    <row r="353" spans="11:11" ht="18" thickBot="1">
+      <c r="K353" s="13"/>
+    </row>
+    <row r="354" spans="11:11" ht="18" thickBot="1">
+      <c r="K354" s="13"/>
+    </row>
+    <row r="355" spans="11:11" ht="18" thickBot="1">
+      <c r="K355" s="13"/>
+    </row>
+    <row r="356" spans="11:11" ht="18" thickBot="1">
+      <c r="K356" s="13"/>
+    </row>
+    <row r="357" spans="11:11" ht="18" thickBot="1">
+      <c r="K357" s="13"/>
+    </row>
+    <row r="358" spans="11:11" ht="18" thickBot="1">
+      <c r="K358" s="13"/>
+    </row>
+    <row r="359" spans="11:11" ht="18" thickBot="1">
+      <c r="K359" s="13"/>
+    </row>
+    <row r="360" spans="11:11" ht="18" thickBot="1">
+      <c r="K360" s="13"/>
+    </row>
+    <row r="361" spans="11:11" ht="18" thickBot="1">
+      <c r="K361" s="13"/>
+    </row>
+    <row r="362" spans="11:11" ht="18" thickBot="1">
+      <c r="K362" s="13"/>
+    </row>
+    <row r="363" spans="11:11" ht="18" thickBot="1">
+      <c r="K363" s="13"/>
+    </row>
+    <row r="364" spans="11:11" ht="18" thickBot="1">
+      <c r="K364" s="13"/>
+    </row>
+    <row r="365" spans="11:11" ht="18" thickBot="1">
+      <c r="K365" s="13"/>
+    </row>
+    <row r="366" spans="11:11" ht="18" thickBot="1">
+      <c r="K366" s="13"/>
+    </row>
+    <row r="367" spans="11:11" ht="18" thickBot="1">
+      <c r="K367" s="13"/>
+    </row>
+    <row r="368" spans="11:11" ht="18" thickBot="1">
+      <c r="K368" s="13"/>
+    </row>
+    <row r="369" spans="11:11" ht="18" thickBot="1">
+      <c r="K369" s="13"/>
+    </row>
+    <row r="370" spans="11:11" ht="18" thickBot="1">
+      <c r="K370" s="13"/>
+    </row>
+    <row r="371" spans="11:11" ht="18" thickBot="1">
+      <c r="K371" s="13"/>
+    </row>
+    <row r="372" spans="11:11" ht="18" thickBot="1">
+      <c r="K372" s="13"/>
+    </row>
+    <row r="373" spans="11:11" ht="18" thickBot="1">
+      <c r="K373" s="13"/>
+    </row>
+    <row r="374" spans="11:11" ht="18" thickBot="1">
+      <c r="K374" s="13"/>
+    </row>
+    <row r="375" spans="11:11" ht="18" thickBot="1">
+      <c r="K375" s="13"/>
+    </row>
+    <row r="376" spans="11:11" ht="18" thickBot="1">
+      <c r="K376" s="13"/>
+    </row>
+    <row r="377" spans="11:11" ht="18" thickBot="1">
+      <c r="K377" s="13"/>
+    </row>
+    <row r="378" spans="11:11" ht="18" thickBot="1">
+      <c r="K378" s="13"/>
+    </row>
+    <row r="379" spans="11:11" ht="18" thickBot="1">
+      <c r="K379" s="13"/>
+    </row>
+    <row r="380" spans="11:11" ht="18" thickBot="1">
+      <c r="K380" s="13"/>
+    </row>
+    <row r="381" spans="11:11" ht="18" thickBot="1">
+      <c r="K381" s="13"/>
+    </row>
+    <row r="382" spans="11:11" ht="18" thickBot="1">
+      <c r="K382" s="13"/>
+    </row>
+    <row r="383" spans="11:11" ht="18" thickBot="1">
+      <c r="K383" s="13"/>
+    </row>
+    <row r="384" spans="11:11" ht="18" thickBot="1">
+      <c r="K384" s="13"/>
+    </row>
+    <row r="385" spans="11:11" ht="18" thickBot="1">
+      <c r="K385" s="13"/>
+    </row>
+    <row r="386" spans="11:11" ht="18" thickBot="1">
+      <c r="K386" s="13"/>
+    </row>
+    <row r="387" spans="11:11" ht="18" thickBot="1">
+      <c r="K387" s="13"/>
+    </row>
+    <row r="388" spans="11:11" ht="18" thickBot="1">
+      <c r="K388" s="13"/>
+    </row>
+    <row r="389" spans="11:11" ht="18" thickBot="1">
+      <c r="K389" s="13"/>
+    </row>
+    <row r="390" spans="11:11" ht="18" thickBot="1">
+      <c r="K390" s="13"/>
+    </row>
+    <row r="391" spans="11:11" ht="18" thickBot="1">
+      <c r="K391" s="13"/>
+    </row>
+    <row r="392" spans="11:11" ht="18" thickBot="1">
+      <c r="K392" s="13"/>
+    </row>
+    <row r="393" spans="11:11" ht="18" thickBot="1">
+      <c r="K393" s="13"/>
+    </row>
+    <row r="394" spans="11:11" ht="18" thickBot="1">
+      <c r="K394" s="13"/>
+    </row>
+    <row r="395" spans="11:11" ht="18" thickBot="1">
+      <c r="K395" s="13"/>
+    </row>
+    <row r="396" spans="11:11" ht="18" thickBot="1">
+      <c r="K396" s="13"/>
+    </row>
+    <row r="397" spans="11:11" ht="18" thickBot="1">
+      <c r="K397" s="13"/>
+    </row>
+    <row r="398" spans="11:11" ht="18" thickBot="1">
+      <c r="K398" s="13"/>
+    </row>
+    <row r="399" spans="11:11" ht="18" thickBot="1">
+      <c r="K399" s="13"/>
+    </row>
+    <row r="400" spans="11:11" ht="18" thickBot="1">
+      <c r="K400" s="13"/>
+    </row>
+    <row r="401" spans="11:11" ht="18" thickBot="1">
+      <c r="K401" s="13"/>
+    </row>
+    <row r="402" spans="11:11" ht="18" thickBot="1">
+      <c r="K402" s="13"/>
+    </row>
+    <row r="403" spans="11:11" ht="18" thickBot="1">
+      <c r="K403" s="13"/>
+    </row>
+    <row r="404" spans="11:11" ht="18" thickBot="1">
+      <c r="K404" s="13"/>
+    </row>
+    <row r="405" spans="11:11" ht="18" thickBot="1">
+      <c r="K405" s="13"/>
+    </row>
+    <row r="406" spans="11:11" ht="18" thickBot="1">
+      <c r="K406" s="13"/>
+    </row>
+    <row r="407" spans="11:11" ht="18" thickBot="1">
+      <c r="K407" s="13"/>
+    </row>
+    <row r="408" spans="11:11" ht="18" thickBot="1">
+      <c r="K408" s="13"/>
+    </row>
+    <row r="409" spans="11:11" ht="18" thickBot="1">
+      <c r="K409" s="13"/>
+    </row>
+    <row r="410" spans="11:11" ht="18" thickBot="1">
+      <c r="K410" s="13"/>
+    </row>
+    <row r="411" spans="11:11" ht="18" thickBot="1">
+      <c r="K411" s="13"/>
+    </row>
+    <row r="412" spans="11:11" ht="18" thickBot="1">
+      <c r="K412" s="13"/>
+    </row>
+    <row r="413" spans="11:11" ht="18" thickBot="1">
+      <c r="K413" s="13"/>
+    </row>
+    <row r="414" spans="11:11" ht="18" thickBot="1">
+      <c r="K414" s="13"/>
+    </row>
+    <row r="415" spans="11:11" ht="18" thickBot="1">
+      <c r="K415" s="13"/>
+    </row>
+    <row r="416" spans="11:11" ht="18" thickBot="1">
+      <c r="K416" s="13"/>
+    </row>
+    <row r="417" spans="11:11" ht="18" thickBot="1">
+      <c r="K417" s="13"/>
+    </row>
+    <row r="418" spans="11:11" ht="18" thickBot="1">
+      <c r="K418" s="13"/>
+    </row>
+    <row r="419" spans="11:11" ht="18" thickBot="1">
+      <c r="K419" s="13"/>
+    </row>
+    <row r="420" spans="11:11" ht="18" thickBot="1">
+      <c r="K420" s="13"/>
+    </row>
+    <row r="421" spans="11:11" ht="18" thickBot="1">
+      <c r="K421" s="13"/>
+    </row>
+    <row r="422" spans="11:11" ht="18" thickBot="1">
+      <c r="K422" s="13"/>
+    </row>
+    <row r="423" spans="11:11" ht="18" thickBot="1">
+      <c r="K423" s="13"/>
+    </row>
+    <row r="424" spans="11:11" ht="18" thickBot="1">
+      <c r="K424" s="13"/>
+    </row>
+    <row r="425" spans="11:11" ht="18" thickBot="1">
+      <c r="K425" s="13"/>
+    </row>
+    <row r="426" spans="11:11" ht="18" thickBot="1">
+      <c r="K426" s="13"/>
+    </row>
+    <row r="427" spans="11:11" ht="18" thickBot="1">
+      <c r="K427" s="13"/>
+    </row>
+    <row r="428" spans="11:11" ht="18" thickBot="1">
+      <c r="K428" s="13"/>
+    </row>
+    <row r="429" spans="11:11" ht="18" thickBot="1">
+      <c r="K429" s="13"/>
+    </row>
+    <row r="430" spans="11:11" ht="18" thickBot="1">
+      <c r="K430" s="13"/>
+    </row>
+    <row r="431" spans="11:11" ht="18" thickBot="1">
+      <c r="K431" s="13"/>
+    </row>
+    <row r="432" spans="11:11" ht="18" thickBot="1">
+      <c r="K432" s="13"/>
+    </row>
+    <row r="433" spans="11:11" ht="18" thickBot="1">
+      <c r="K433" s="13"/>
+    </row>
+    <row r="434" spans="11:11" ht="18" thickBot="1">
+      <c r="K434" s="13"/>
+    </row>
+    <row r="435" spans="11:11" ht="18" thickBot="1">
+      <c r="K435" s="13"/>
+    </row>
+    <row r="436" spans="11:11" ht="18" thickBot="1">
+      <c r="K436" s="13"/>
+    </row>
+    <row r="437" spans="11:11" ht="18" thickBot="1">
+      <c r="K437" s="13"/>
+    </row>
+    <row r="438" spans="11:11" ht="18" thickBot="1">
+      <c r="K438" s="13"/>
+    </row>
+    <row r="439" spans="11:11" ht="18" thickBot="1">
+      <c r="K439" s="13"/>
+    </row>
+    <row r="440" spans="11:11" ht="18" thickBot="1">
+      <c r="K440" s="13"/>
+    </row>
+    <row r="441" spans="11:11" ht="18" thickBot="1">
+      <c r="K441" s="13"/>
+    </row>
+    <row r="442" spans="11:11" ht="18" thickBot="1">
+      <c r="K442" s="13"/>
+    </row>
+    <row r="443" spans="11:11" ht="18" thickBot="1">
+      <c r="K443" s="13"/>
+    </row>
+    <row r="444" spans="11:11" ht="18" thickBot="1">
+      <c r="K444" s="13"/>
+    </row>
+    <row r="445" spans="11:11" ht="18" thickBot="1">
+      <c r="K445" s="13"/>
+    </row>
+    <row r="446" spans="11:11" ht="18" thickBot="1">
+      <c r="K446" s="13"/>
+    </row>
+    <row r="447" spans="11:11" ht="18" thickBot="1">
+      <c r="K447" s="13"/>
+    </row>
+    <row r="448" spans="11:11" ht="18" thickBot="1">
+      <c r="K448" s="13"/>
+    </row>
+    <row r="449" spans="11:11" ht="18" thickBot="1">
+      <c r="K449" s="13"/>
+    </row>
+    <row r="450" spans="11:11" ht="18" thickBot="1">
+      <c r="K450" s="13"/>
+    </row>
+    <row r="451" spans="11:11" ht="18" thickBot="1">
+      <c r="K451" s="13"/>
+    </row>
+    <row r="452" spans="11:11" ht="18" thickBot="1">
+      <c r="K452" s="13"/>
+    </row>
+    <row r="453" spans="11:11" ht="18" thickBot="1">
+      <c r="K453" s="13"/>
+    </row>
+    <row r="454" spans="11:11" ht="18" thickBot="1">
+      <c r="K454" s="13"/>
+    </row>
+    <row r="455" spans="11:11" ht="18" thickBot="1">
+      <c r="K455" s="13"/>
+    </row>
+    <row r="456" spans="11:11" ht="18" thickBot="1">
+      <c r="K456" s="13"/>
+    </row>
+    <row r="457" spans="11:11" ht="18" thickBot="1">
+      <c r="K457" s="13"/>
+    </row>
+    <row r="458" spans="11:11" ht="18" thickBot="1">
+      <c r="K458" s="13"/>
+    </row>
+    <row r="459" spans="11:11" ht="18" thickBot="1">
+      <c r="K459" s="13"/>
+    </row>
+    <row r="460" spans="11:11" ht="18" thickBot="1">
+      <c r="K460" s="13"/>
+    </row>
+    <row r="461" spans="11:11" ht="18" thickBot="1">
+      <c r="K461" s="13"/>
+    </row>
+    <row r="462" spans="11:11" ht="18" thickBot="1">
+      <c r="K462" s="13"/>
+    </row>
+    <row r="463" spans="11:11" ht="18" thickBot="1">
+      <c r="K463" s="13"/>
+    </row>
+    <row r="464" spans="11:11" ht="18" thickBot="1">
+      <c r="K464" s="13"/>
+    </row>
+    <row r="465" spans="11:11" ht="18" thickBot="1">
+      <c r="K465" s="13"/>
+    </row>
+    <row r="466" spans="11:11" ht="18" thickBot="1">
+      <c r="K466" s="13"/>
+    </row>
+    <row r="467" spans="11:11" ht="18" thickBot="1">
+      <c r="K467" s="13"/>
+    </row>
+    <row r="468" spans="11:11" ht="18" thickBot="1">
+      <c r="K468" s="13"/>
+    </row>
+    <row r="469" spans="11:11" ht="18" thickBot="1">
+      <c r="K469" s="13"/>
+    </row>
+    <row r="470" spans="11:11" ht="18" thickBot="1">
+      <c r="K470" s="13"/>
+    </row>
+    <row r="471" spans="11:11" ht="18" thickBot="1">
+      <c r="K471" s="13"/>
+    </row>
+    <row r="472" spans="11:11" ht="18" thickBot="1">
+      <c r="K472" s="13"/>
+    </row>
+    <row r="473" spans="11:11" ht="18" thickBot="1">
+      <c r="K473" s="13"/>
+    </row>
+    <row r="474" spans="11:11" ht="18" thickBot="1">
+      <c r="K474" s="13"/>
+    </row>
+    <row r="475" spans="11:11" ht="18" thickBot="1">
+      <c r="K475" s="13"/>
+    </row>
+    <row r="476" spans="11:11" ht="18" thickBot="1">
+      <c r="K476" s="13"/>
+    </row>
+    <row r="477" spans="11:11" ht="18" thickBot="1">
+      <c r="K477" s="13"/>
+    </row>
+    <row r="478" spans="11:11" ht="18" thickBot="1">
+      <c r="K478" s="13"/>
+    </row>
+    <row r="479" spans="11:11" ht="18" thickBot="1">
+      <c r="K479" s="13"/>
+    </row>
+    <row r="480" spans="11:11" ht="18" thickBot="1">
+      <c r="K480" s="13"/>
+    </row>
+    <row r="481" spans="11:11" ht="18" thickBot="1">
+      <c r="K481" s="13"/>
+    </row>
+    <row r="482" spans="11:11" ht="18" thickBot="1">
+      <c r="K482" s="13"/>
+    </row>
+    <row r="483" spans="11:11" ht="18" thickBot="1">
+      <c r="K483" s="13"/>
+    </row>
+    <row r="484" spans="11:11" ht="18" thickBot="1">
+      <c r="K484" s="13"/>
+    </row>
+    <row r="485" spans="11:11" ht="18" thickBot="1">
+      <c r="K485" s="13"/>
+    </row>
+    <row r="486" spans="11:11" ht="18" thickBot="1">
+      <c r="K486" s="13"/>
+    </row>
+    <row r="487" spans="11:11" ht="18" thickBot="1">
+      <c r="K487" s="13"/>
+    </row>
+    <row r="488" spans="11:11" ht="18" thickBot="1">
+      <c r="K488" s="13"/>
+    </row>
+    <row r="489" spans="11:11" ht="18" thickBot="1">
+      <c r="K489" s="13"/>
+    </row>
+    <row r="490" spans="11:11" ht="18" thickBot="1">
+      <c r="K490" s="13"/>
+    </row>
+    <row r="491" spans="11:11" ht="18" thickBot="1">
+      <c r="K491" s="13"/>
+    </row>
+    <row r="492" spans="11:11" ht="18" thickBot="1">
+      <c r="K492" s="13"/>
+    </row>
+    <row r="493" spans="11:11" ht="18" thickBot="1">
+      <c r="K493" s="13"/>
+    </row>
+    <row r="494" spans="11:11" ht="18" thickBot="1">
+      <c r="K494" s="13"/>
+    </row>
+    <row r="495" spans="11:11" ht="18" thickBot="1">
+      <c r="K495" s="13"/>
+    </row>
+    <row r="496" spans="11:11" ht="18" thickBot="1">
+      <c r="K496" s="13"/>
+    </row>
+    <row r="497" spans="11:11" ht="18" thickBot="1">
+      <c r="K497" s="13"/>
+    </row>
+    <row r="498" spans="11:11" ht="18" thickBot="1">
+      <c r="K498" s="13"/>
+    </row>
+    <row r="499" spans="11:11" ht="18" thickBot="1">
+      <c r="K499" s="13"/>
+    </row>
+    <row r="500" spans="11:11" ht="18" thickBot="1">
+      <c r="K500" s="13"/>
+    </row>
+    <row r="501" spans="11:11" ht="18" thickBot="1">
+      <c r="K501" s="13"/>
+    </row>
+    <row r="502" spans="11:11" ht="18" thickBot="1">
+      <c r="K502" s="13"/>
+    </row>
+    <row r="503" spans="11:11" ht="18" thickBot="1">
+      <c r="K503" s="13"/>
+    </row>
+    <row r="504" spans="11:11" ht="18" thickBot="1">
+      <c r="K504" s="13"/>
+    </row>
+    <row r="505" spans="11:11" ht="18" thickBot="1">
+      <c r="K505" s="13"/>
+    </row>
+    <row r="506" spans="11:11" ht="18" thickBot="1">
+      <c r="K506" s="13"/>
+    </row>
+    <row r="507" spans="11:11" ht="18" thickBot="1">
+      <c r="K507" s="13"/>
+    </row>
+    <row r="508" spans="11:11" ht="18" thickBot="1">
+      <c r="K508" s="13"/>
+    </row>
+    <row r="509" spans="11:11" ht="18" thickBot="1">
+      <c r="K509" s="13"/>
+    </row>
+    <row r="510" spans="11:11" ht="18" thickBot="1">
+      <c r="K510" s="13"/>
+    </row>
+    <row r="511" spans="11:11" ht="18" thickBot="1">
+      <c r="K511" s="13"/>
+    </row>
+    <row r="512" spans="11:11" ht="18" thickBot="1">
+      <c r="K512" s="13"/>
+    </row>
+    <row r="513" spans="11:11" ht="18" thickBot="1">
+      <c r="K513" s="13"/>
+    </row>
+    <row r="514" spans="11:11" ht="18" thickBot="1">
+      <c r="K514" s="13"/>
+    </row>
+    <row r="515" spans="11:11" ht="18" thickBot="1">
+      <c r="K515" s="13"/>
+    </row>
+    <row r="516" spans="11:11" ht="18" thickBot="1">
+      <c r="K516" s="13"/>
+    </row>
+    <row r="517" spans="11:11" ht="18" thickBot="1">
+      <c r="K517" s="13"/>
+    </row>
+    <row r="518" spans="11:11" ht="18" thickBot="1">
+      <c r="K518" s="13"/>
+    </row>
+    <row r="519" spans="11:11" ht="18" thickBot="1">
+      <c r="K519" s="13"/>
+    </row>
+    <row r="520" spans="11:11" ht="18" thickBot="1">
+      <c r="K520" s="13"/>
+    </row>
+    <row r="521" spans="11:11" ht="18" thickBot="1">
+      <c r="K521" s="13"/>
+    </row>
+    <row r="522" spans="11:11" ht="18" thickBot="1">
+      <c r="K522" s="13"/>
+    </row>
+    <row r="523" spans="11:11" ht="18" thickBot="1">
+      <c r="K523" s="13"/>
+    </row>
+    <row r="524" spans="11:11" ht="18" thickBot="1">
+      <c r="K524" s="13"/>
+    </row>
+    <row r="525" spans="11:11" ht="18" thickBot="1">
+      <c r="K525" s="13"/>
+    </row>
+    <row r="526" spans="11:11" ht="18" thickBot="1">
+      <c r="K526" s="13"/>
+    </row>
+    <row r="527" spans="11:11" ht="18" thickBot="1">
+      <c r="K527" s="13"/>
+    </row>
+    <row r="528" spans="11:11" ht="18" thickBot="1">
+      <c r="K528" s="13"/>
+    </row>
+    <row r="529" spans="11:11" ht="18" thickBot="1">
+      <c r="K529" s="13"/>
+    </row>
+    <row r="530" spans="11:11" ht="18" thickBot="1">
+      <c r="K530" s="13"/>
+    </row>
+    <row r="531" spans="11:11" ht="18" thickBot="1">
+      <c r="K531" s="13"/>
+    </row>
+    <row r="532" spans="11:11" ht="18" thickBot="1">
+      <c r="K532" s="13"/>
+    </row>
+    <row r="533" spans="11:11" ht="18" thickBot="1">
+      <c r="K533" s="13"/>
+    </row>
+    <row r="534" spans="11:11" ht="18" thickBot="1">
+      <c r="K534" s="13"/>
+    </row>
+    <row r="535" spans="11:11" ht="18" thickBot="1">
+      <c r="K535" s="13"/>
+    </row>
+    <row r="536" spans="11:11" ht="18" thickBot="1">
+      <c r="K536" s="13"/>
+    </row>
+    <row r="537" spans="11:11" ht="18" thickBot="1">
+      <c r="K537" s="13"/>
+    </row>
+    <row r="538" spans="11:11" ht="18" thickBot="1">
+      <c r="K538" s="13"/>
+    </row>
+    <row r="539" spans="11:11" ht="18" thickBot="1">
+      <c r="K539" s="13"/>
+    </row>
+    <row r="540" spans="11:11" ht="18" thickBot="1">
+      <c r="K540" s="13"/>
+    </row>
+    <row r="541" spans="11:11" ht="18" thickBot="1">
+      <c r="K541" s="13"/>
+    </row>
+    <row r="542" spans="11:11" ht="18" thickBot="1">
+      <c r="K542" s="13"/>
+    </row>
+    <row r="543" spans="11:11" ht="18" thickBot="1">
+      <c r="K543" s="13"/>
+    </row>
+    <row r="544" spans="11:11" ht="18" thickBot="1">
+      <c r="K544" s="13"/>
+    </row>
+    <row r="545" spans="11:11" ht="18" thickBot="1">
+      <c r="K545" s="13"/>
+    </row>
+    <row r="546" spans="11:11" ht="18" thickBot="1">
+      <c r="K546" s="13"/>
+    </row>
+    <row r="547" spans="11:11" ht="18" thickBot="1">
+      <c r="K547" s="13"/>
+    </row>
+    <row r="548" spans="11:11" ht="18" thickBot="1">
+      <c r="K548" s="13"/>
+    </row>
+    <row r="549" spans="11:11" ht="18" thickBot="1">
+      <c r="K549" s="13"/>
+    </row>
+    <row r="550" spans="11:11" ht="18" thickBot="1">
+      <c r="K550" s="13"/>
+    </row>
+    <row r="551" spans="11:11" ht="18" thickBot="1">
+      <c r="K551" s="13"/>
+    </row>
+    <row r="552" spans="11:11" ht="18" thickBot="1">
+      <c r="K552" s="13"/>
+    </row>
+    <row r="553" spans="11:11" ht="18" thickBot="1">
+      <c r="K553" s="13"/>
+    </row>
+    <row r="554" spans="11:11" ht="18" thickBot="1">
+      <c r="K554" s="13"/>
+    </row>
+    <row r="555" spans="11:11" ht="18" thickBot="1">
+      <c r="K555" s="13"/>
+    </row>
+    <row r="556" spans="11:11" ht="18" thickBot="1">
+      <c r="K556" s="13"/>
+    </row>
+    <row r="557" spans="11:11" ht="18" thickBot="1">
+      <c r="K557" s="13"/>
+    </row>
+    <row r="558" spans="11:11" ht="18" thickBot="1">
+      <c r="K558" s="13"/>
+    </row>
+    <row r="559" spans="11:11" ht="18" thickBot="1">
+      <c r="K559" s="13"/>
+    </row>
+    <row r="560" spans="11:11" ht="18" thickBot="1">
+      <c r="K560" s="13"/>
+    </row>
+    <row r="561" spans="11:11" ht="18" thickBot="1">
+      <c r="K561" s="13"/>
+    </row>
+    <row r="562" spans="11:11" ht="18" thickBot="1">
+      <c r="K562" s="13"/>
+    </row>
+    <row r="563" spans="11:11" ht="18" thickBot="1">
+      <c r="K563" s="13"/>
+    </row>
+    <row r="564" spans="11:11" ht="18" thickBot="1">
+      <c r="K564" s="13"/>
+    </row>
+    <row r="565" spans="11:11" ht="18" thickBot="1">
+      <c r="K565" s="13"/>
+    </row>
+    <row r="566" spans="11:11" ht="18" thickBot="1">
+      <c r="K566" s="13"/>
+    </row>
+    <row r="567" spans="11:11" ht="18" thickBot="1">
+      <c r="K567" s="13"/>
+    </row>
+    <row r="568" spans="11:11" ht="18" thickBot="1">
+      <c r="K568" s="13"/>
+    </row>
+    <row r="569" spans="11:11" ht="18" thickBot="1">
+      <c r="K569" s="13"/>
+    </row>
+    <row r="570" spans="11:11" ht="18" thickBot="1">
+      <c r="K570" s="13"/>
+    </row>
+    <row r="571" spans="11:11" ht="18" thickBot="1">
+      <c r="K571" s="13"/>
+    </row>
+    <row r="572" spans="11:11" ht="18" thickBot="1">
+      <c r="K572" s="13"/>
+    </row>
+    <row r="573" spans="11:11" ht="18" thickBot="1">
+      <c r="K573" s="13"/>
+    </row>
+    <row r="574" spans="11:11" ht="18" thickBot="1">
+      <c r="K574" s="13"/>
+    </row>
+    <row r="575" spans="11:11" ht="18" thickBot="1">
+      <c r="K575" s="13"/>
+    </row>
+    <row r="576" spans="11:11" ht="18" thickBot="1">
+      <c r="K576" s="13"/>
+    </row>
+    <row r="577" spans="11:11" ht="18" thickBot="1">
+      <c r="K577" s="13"/>
+    </row>
+    <row r="578" spans="11:11" ht="18" thickBot="1">
+      <c r="K578" s="13"/>
+    </row>
+    <row r="579" spans="11:11" ht="18" thickBot="1">
+      <c r="K579" s="13"/>
+    </row>
+    <row r="580" spans="11:11" ht="18" thickBot="1">
+      <c r="K580" s="13"/>
+    </row>
+    <row r="581" spans="11:11" ht="18" thickBot="1">
+      <c r="K581" s="13"/>
+    </row>
+    <row r="582" spans="11:11" ht="18" thickBot="1">
+      <c r="K582" s="13"/>
+    </row>
+    <row r="583" spans="11:11" ht="18" thickBot="1">
+      <c r="K583" s="13"/>
+    </row>
+    <row r="584" spans="11:11" ht="18" thickBot="1">
+      <c r="K584" s="13"/>
+    </row>
+    <row r="585" spans="11:11" ht="18" thickBot="1">
+      <c r="K585" s="13"/>
+    </row>
+    <row r="586" spans="11:11" ht="18" thickBot="1">
+      <c r="K586" s="13"/>
+    </row>
+    <row r="587" spans="11:11" ht="18" thickBot="1">
+      <c r="K587" s="13"/>
+    </row>
+    <row r="588" spans="11:11" ht="18" thickBot="1">
+      <c r="K588" s="13"/>
+    </row>
+    <row r="589" spans="11:11" ht="18" thickBot="1">
+      <c r="K589" s="13"/>
+    </row>
+    <row r="590" spans="11:11" ht="18" thickBot="1">
+      <c r="K590" s="13"/>
+    </row>
+    <row r="591" spans="11:11" ht="18" thickBot="1">
+      <c r="K591" s="13"/>
+    </row>
+    <row r="592" spans="11:11" ht="18" thickBot="1">
+      <c r="K592" s="13"/>
+    </row>
+    <row r="593" spans="11:11" ht="18" thickBot="1">
+      <c r="K593" s="13"/>
+    </row>
+    <row r="594" spans="11:11" ht="18" thickBot="1">
+      <c r="K594" s="13"/>
+    </row>
+    <row r="595" spans="11:11" ht="18" thickBot="1">
+      <c r="K595" s="13"/>
+    </row>
+    <row r="596" spans="11:11" ht="18" thickBot="1">
+      <c r="K596" s="13"/>
+    </row>
+    <row r="597" spans="11:11" ht="18" thickBot="1">
+      <c r="K597" s="13"/>
+    </row>
+    <row r="598" spans="11:11" ht="18" thickBot="1">
+      <c r="K598" s="13"/>
+    </row>
+    <row r="599" spans="11:11" ht="18" thickBot="1">
+      <c r="K599" s="13"/>
+    </row>
+    <row r="600" spans="11:11" ht="18" thickBot="1">
+      <c r="K600" s="13"/>
+    </row>
+    <row r="601" spans="11:11" ht="18" thickBot="1">
+      <c r="K601" s="13"/>
+    </row>
+    <row r="602" spans="11:11" ht="18" thickBot="1">
+      <c r="K602" s="13"/>
+    </row>
+    <row r="603" spans="11:11" ht="18" thickBot="1">
+      <c r="K603" s="13"/>
+    </row>
+    <row r="604" spans="11:11" ht="18" thickBot="1">
+      <c r="K604" s="13"/>
+    </row>
+    <row r="605" spans="11:11" ht="18" thickBot="1">
+      <c r="K605" s="13"/>
+    </row>
+    <row r="606" spans="11:11" ht="18" thickBot="1">
+      <c r="K606" s="13"/>
+    </row>
+    <row r="607" spans="11:11" ht="18" thickBot="1">
+      <c r="K607" s="13"/>
+    </row>
+    <row r="608" spans="11:11" ht="18" thickBot="1">
+      <c r="K608" s="13"/>
+    </row>
+    <row r="609" spans="11:11" ht="18" thickBot="1">
+      <c r="K609" s="13"/>
+    </row>
+    <row r="610" spans="11:11" ht="18" thickBot="1">
+      <c r="K610" s="13"/>
+    </row>
+    <row r="611" spans="11:11" ht="18" thickBot="1">
+      <c r="K611" s="13"/>
+    </row>
+    <row r="612" spans="11:11" ht="18" thickBot="1">
+      <c r="K612" s="13"/>
+    </row>
+    <row r="613" spans="11:11" ht="18" thickBot="1">
+      <c r="K613" s="13"/>
+    </row>
+    <row r="614" spans="11:11" ht="18" thickBot="1">
+      <c r="K614" s="13"/>
+    </row>
+    <row r="615" spans="11:11" ht="18" thickBot="1">
+      <c r="K615" s="13"/>
+    </row>
+    <row r="616" spans="11:11" ht="18" thickBot="1">
+      <c r="K616" s="13"/>
+    </row>
+    <row r="617" spans="11:11" ht="18" thickBot="1">
+      <c r="K617" s="13"/>
+    </row>
+    <row r="618" spans="11:11" ht="18" thickBot="1">
+      <c r="K618" s="13"/>
+    </row>
+    <row r="619" spans="11:11" ht="18" thickBot="1">
+      <c r="K619" s="13"/>
+    </row>
+    <row r="620" spans="11:11" ht="18" thickBot="1">
+      <c r="K620" s="13"/>
+    </row>
+    <row r="621" spans="11:11" ht="18" thickBot="1">
+      <c r="K621" s="13"/>
+    </row>
+    <row r="622" spans="11:11" ht="18" thickBot="1">
+      <c r="K622" s="13"/>
+    </row>
+    <row r="623" spans="11:11" ht="18" thickBot="1">
+      <c r="K623" s="13"/>
+    </row>
+    <row r="624" spans="11:11" ht="18" thickBot="1">
+      <c r="K624" s="13"/>
+    </row>
+    <row r="625" spans="11:11" ht="18" thickBot="1">
+      <c r="K625" s="13"/>
+    </row>
+    <row r="626" spans="11:11" ht="18" thickBot="1">
+      <c r="K626" s="13"/>
+    </row>
+    <row r="627" spans="11:11" ht="18" thickBot="1">
+      <c r="K627" s="13"/>
+    </row>
+    <row r="628" spans="11:11" ht="18" thickBot="1">
+      <c r="K628" s="13"/>
+    </row>
+    <row r="629" spans="11:11" ht="18" thickBot="1">
+      <c r="K629" s="13"/>
+    </row>
+    <row r="630" spans="11:11" ht="18" thickBot="1">
+      <c r="K630" s="13"/>
+    </row>
+    <row r="631" spans="11:11" ht="18" thickBot="1">
+      <c r="K631" s="13"/>
+    </row>
+    <row r="632" spans="11:11" ht="18" thickBot="1">
+      <c r="K632" s="13"/>
+    </row>
+    <row r="633" spans="11:11" ht="18" thickBot="1">
+      <c r="K633" s="13"/>
+    </row>
+    <row r="634" spans="11:11" ht="18" thickBot="1">
+      <c r="K634" s="13"/>
+    </row>
+    <row r="635" spans="11:11" ht="18" thickBot="1">
+      <c r="K635" s="13"/>
+    </row>
+    <row r="636" spans="11:11" ht="18" thickBot="1">
+      <c r="K636" s="13"/>
+    </row>
+    <row r="637" spans="11:11" ht="18" thickBot="1">
+      <c r="K637" s="13"/>
+    </row>
+    <row r="638" spans="11:11" ht="18" thickBot="1">
+      <c r="K638" s="13"/>
+    </row>
+    <row r="639" spans="11:11" ht="18" thickBot="1">
+      <c r="K639" s="13"/>
+    </row>
+    <row r="640" spans="11:11" ht="18" thickBot="1">
+      <c r="K640" s="13"/>
+    </row>
+    <row r="641" spans="11:11" ht="18" thickBot="1">
+      <c r="K641" s="13"/>
+    </row>
+    <row r="642" spans="11:11" ht="18" thickBot="1">
+      <c r="K642" s="13"/>
+    </row>
+    <row r="643" spans="11:11" ht="18" thickBot="1">
+      <c r="K643" s="13"/>
+    </row>
+    <row r="644" spans="11:11" ht="18" thickBot="1">
+      <c r="K644" s="13"/>
+    </row>
+    <row r="645" spans="11:11" ht="18" thickBot="1">
+      <c r="K645" s="13"/>
+    </row>
+    <row r="646" spans="11:11" ht="18" thickBot="1">
+      <c r="K646" s="13"/>
+    </row>
+    <row r="647" spans="11:11" ht="18" thickBot="1">
+      <c r="K647" s="13"/>
+    </row>
+    <row r="648" spans="11:11" ht="18" thickBot="1">
+      <c r="K648" s="13"/>
+    </row>
+    <row r="649" spans="11:11" ht="18" thickBot="1">
+      <c r="K649" s="13"/>
+    </row>
+    <row r="650" spans="11:11" ht="18" thickBot="1">
+      <c r="K650" s="13"/>
+    </row>
+    <row r="651" spans="11:11" ht="18" thickBot="1">
+      <c r="K651" s="13"/>
+    </row>
+    <row r="652" spans="11:11" ht="18" thickBot="1">
+      <c r="K652" s="13"/>
+    </row>
+    <row r="653" spans="11:11" ht="18" thickBot="1">
+      <c r="K653" s="13"/>
+    </row>
+    <row r="654" spans="11:11" ht="18" thickBot="1">
+      <c r="K654" s="13"/>
+    </row>
+    <row r="655" spans="11:11" ht="18" thickBot="1">
+      <c r="K655" s="13"/>
+    </row>
+    <row r="656" spans="11:11" ht="18" thickBot="1">
+      <c r="K656" s="13"/>
+    </row>
+    <row r="657" spans="11:11" ht="18" thickBot="1">
+      <c r="K657" s="13"/>
+    </row>
+    <row r="658" spans="11:11" ht="18" thickBot="1">
+      <c r="K658" s="13"/>
+    </row>
+    <row r="659" spans="11:11" ht="18" thickBot="1">
+      <c r="K659" s="13"/>
+    </row>
+    <row r="660" spans="11:11" ht="18" thickBot="1">
+      <c r="K660" s="13"/>
+    </row>
+    <row r="661" spans="11:11" ht="18" thickBot="1">
+      <c r="K661" s="13"/>
+    </row>
+    <row r="662" spans="11:11" ht="18" thickBot="1">
+      <c r="K662" s="13"/>
+    </row>
+    <row r="663" spans="11:11" ht="18" thickBot="1">
+      <c r="K663" s="13"/>
+    </row>
+    <row r="664" spans="11:11" ht="18" thickBot="1">
+      <c r="K664" s="13"/>
+    </row>
+    <row r="665" spans="11:11" ht="18" thickBot="1">
+      <c r="K665" s="13"/>
+    </row>
+    <row r="666" spans="11:11" ht="18" thickBot="1">
+      <c r="K666" s="13"/>
+    </row>
+    <row r="667" spans="11:11" ht="18" thickBot="1">
+      <c r="K667" s="13"/>
+    </row>
+    <row r="668" spans="11:11" ht="18" thickBot="1">
+      <c r="K668" s="13"/>
+    </row>
+    <row r="669" spans="11:11" ht="18" thickBot="1">
+      <c r="K669" s="13"/>
+    </row>
+    <row r="670" spans="11:11" ht="18" thickBot="1">
+      <c r="K670" s="13"/>
+    </row>
+    <row r="671" spans="11:11" ht="18" thickBot="1">
+      <c r="K671" s="13"/>
+    </row>
+    <row r="672" spans="11:11" ht="18" thickBot="1">
+      <c r="K672" s="13"/>
+    </row>
+    <row r="673" spans="11:11" ht="18" thickBot="1">
+      <c r="K673" s="13"/>
+    </row>
+    <row r="674" spans="11:11" ht="18" thickBot="1">
+      <c r="K674" s="13"/>
+    </row>
+    <row r="675" spans="11:11" ht="18" thickBot="1">
+      <c r="K675" s="13"/>
+    </row>
+    <row r="676" spans="11:11" ht="18" thickBot="1">
+      <c r="K676" s="13"/>
+    </row>
+    <row r="677" spans="11:11" ht="18" thickBot="1">
+      <c r="K677" s="13"/>
+    </row>
+    <row r="678" spans="11:11" ht="18" thickBot="1">
+      <c r="K678" s="13"/>
+    </row>
+    <row r="679" spans="11:11" ht="18" thickBot="1">
+      <c r="K679" s="13"/>
+    </row>
+    <row r="680" spans="11:11" ht="18" thickBot="1">
+      <c r="K680" s="13"/>
+    </row>
+    <row r="681" spans="11:11" ht="18" thickBot="1">
+      <c r="K681" s="13"/>
+    </row>
+    <row r="682" spans="11:11" ht="18" thickBot="1">
+      <c r="K682" s="13"/>
+    </row>
+    <row r="683" spans="11:11" ht="18" thickBot="1">
+      <c r="K683" s="13"/>
+    </row>
+    <row r="684" spans="11:11" ht="18" thickBot="1">
+      <c r="K684" s="13"/>
+    </row>
+    <row r="685" spans="11:11" ht="18" thickBot="1">
+      <c r="K685" s="13"/>
+    </row>
+    <row r="686" spans="11:11" ht="18" thickBot="1">
+      <c r="K686" s="13"/>
+    </row>
+    <row r="687" spans="11:11" ht="18" thickBot="1">
+      <c r="K687" s="13"/>
+    </row>
+    <row r="688" spans="11:11" ht="18" thickBot="1">
+      <c r="K688" s="13"/>
+    </row>
+    <row r="689" spans="11:11" ht="18" thickBot="1">
+      <c r="K689" s="13"/>
+    </row>
+    <row r="690" spans="11:11" ht="18" thickBot="1">
+      <c r="K690" s="13"/>
+    </row>
+    <row r="691" spans="11:11" ht="18" thickBot="1">
+      <c r="K691" s="13"/>
+    </row>
+    <row r="692" spans="11:11" ht="18" thickBot="1">
+      <c r="K692" s="13"/>
+    </row>
+    <row r="693" spans="11:11" ht="18" thickBot="1">
+      <c r="K693" s="13"/>
+    </row>
+    <row r="694" spans="11:11" ht="18" thickBot="1">
+      <c r="K694" s="13"/>
+    </row>
+    <row r="695" spans="11:11" ht="18" thickBot="1">
+      <c r="K695" s="13"/>
+    </row>
+    <row r="696" spans="11:11" ht="18" thickBot="1">
+      <c r="K696" s="13"/>
+    </row>
+    <row r="697" spans="11:11" ht="18" thickBot="1">
+      <c r="K697" s="13"/>
+    </row>
+    <row r="698" spans="11:11" ht="18" thickBot="1">
+      <c r="K698" s="13"/>
+    </row>
+    <row r="699" spans="11:11" ht="18" thickBot="1">
+      <c r="K699" s="13"/>
+    </row>
+    <row r="700" spans="11:11" ht="18" thickBot="1">
+      <c r="K700" s="13"/>
+    </row>
+    <row r="701" spans="11:11" ht="18" thickBot="1">
+      <c r="K701" s="13"/>
+    </row>
+    <row r="702" spans="11:11" ht="18" thickBot="1">
+      <c r="K702" s="13"/>
+    </row>
+    <row r="703" spans="11:11" ht="18" thickBot="1">
+      <c r="K703" s="13"/>
+    </row>
+    <row r="704" spans="11:11" ht="18" thickBot="1">
+      <c r="K704" s="13"/>
+    </row>
+    <row r="705" spans="11:11" ht="18" thickBot="1">
+      <c r="K705" s="13"/>
+    </row>
+    <row r="706" spans="11:11" ht="18" thickBot="1">
+      <c r="K706" s="13"/>
+    </row>
+    <row r="707" spans="11:11" ht="18" thickBot="1">
+      <c r="K707" s="13"/>
+    </row>
+    <row r="708" spans="11:11" ht="18" thickBot="1">
+      <c r="K708" s="13"/>
+    </row>
+    <row r="709" spans="11:11" ht="18" thickBot="1">
+      <c r="K709" s="13"/>
+    </row>
+    <row r="710" spans="11:11" ht="18" thickBot="1">
+      <c r="K710" s="13"/>
+    </row>
+    <row r="711" spans="11:11" ht="18" thickBot="1">
+      <c r="K711" s="13"/>
+    </row>
+    <row r="712" spans="11:11" ht="18" thickBot="1">
+      <c r="K712" s="13"/>
+    </row>
+    <row r="713" spans="11:11" ht="18" thickBot="1">
+      <c r="K713" s="13"/>
+    </row>
+    <row r="714" spans="11:11" ht="18" thickBot="1">
+      <c r="K714" s="13"/>
+    </row>
+    <row r="715" spans="11:11" ht="18" thickBot="1">
+      <c r="K715" s="13"/>
+    </row>
+    <row r="716" spans="11:11" ht="18" thickBot="1">
+      <c r="K716" s="13"/>
+    </row>
+    <row r="717" spans="11:11" ht="18" thickBot="1">
+      <c r="K717" s="13"/>
+    </row>
+    <row r="718" spans="11:11" ht="18" thickBot="1">
+      <c r="K718" s="13"/>
+    </row>
+    <row r="719" spans="11:11" ht="18" thickBot="1">
+      <c r="K719" s="13"/>
+    </row>
+    <row r="720" spans="11:11" ht="18" thickBot="1">
+      <c r="K720" s="13"/>
+    </row>
+    <row r="721" spans="11:11" ht="18" thickBot="1">
+      <c r="K721" s="13"/>
+    </row>
+    <row r="722" spans="11:11" ht="18" thickBot="1">
+      <c r="K722" s="13"/>
+    </row>
+    <row r="723" spans="11:11" ht="18" thickBot="1">
+      <c r="K723" s="13"/>
+    </row>
+    <row r="724" spans="11:11" ht="18" thickBot="1">
+      <c r="K724" s="13"/>
+    </row>
+    <row r="725" spans="11:11" ht="18" thickBot="1">
+      <c r="K725" s="13"/>
+    </row>
+    <row r="726" spans="11:11" ht="18" thickBot="1">
+      <c r="K726" s="13"/>
+    </row>
+    <row r="727" spans="11:11" ht="18" thickBot="1">
+      <c r="K727" s="13"/>
+    </row>
+    <row r="728" spans="11:11" ht="18" thickBot="1">
+      <c r="K728" s="13"/>
+    </row>
+    <row r="729" spans="11:11" ht="18" thickBot="1">
+      <c r="K729" s="13"/>
+    </row>
+    <row r="730" spans="11:11" ht="18" thickBot="1">
+      <c r="K730" s="13"/>
+    </row>
+    <row r="731" spans="11:11" ht="18" thickBot="1">
+      <c r="K731" s="13"/>
+    </row>
+    <row r="732" spans="11:11" ht="18" thickBot="1">
+      <c r="K732" s="13"/>
+    </row>
+    <row r="733" spans="11:11" ht="18" thickBot="1">
+      <c r="K733" s="13"/>
+    </row>
+    <row r="734" spans="11:11" ht="18" thickBot="1">
+      <c r="K734" s="13"/>
+    </row>
+    <row r="735" spans="11:11" ht="18" thickBot="1">
+      <c r="K735" s="13"/>
+    </row>
+    <row r="736" spans="11:11" ht="18" thickBot="1">
+      <c r="K736" s="13"/>
+    </row>
+    <row r="737" spans="11:11" ht="18" thickBot="1">
+      <c r="K737" s="13"/>
+    </row>
+    <row r="738" spans="11:11" ht="18" thickBot="1">
+      <c r="K738" s="13"/>
+    </row>
+    <row r="739" spans="11:11" ht="18" thickBot="1">
+      <c r="K739" s="13"/>
+    </row>
+    <row r="740" spans="11:11" ht="18" thickBot="1">
+      <c r="K740" s="13"/>
+    </row>
+    <row r="741" spans="11:11" ht="18" thickBot="1">
+      <c r="K741" s="13"/>
+    </row>
+    <row r="742" spans="11:11" ht="18" thickBot="1">
+      <c r="K742" s="13"/>
+    </row>
+    <row r="743" spans="11:11" ht="18" thickBot="1">
+      <c r="K743" s="13"/>
+    </row>
+    <row r="744" spans="11:11" ht="18" thickBot="1">
+      <c r="K744" s="13"/>
+    </row>
+    <row r="745" spans="11:11" ht="18" thickBot="1">
+      <c r="K745" s="13"/>
+    </row>
+    <row r="746" spans="11:11" ht="18" thickBot="1">
+      <c r="K746" s="13"/>
+    </row>
+    <row r="747" spans="11:11" ht="18" thickBot="1">
+      <c r="K747" s="13"/>
+    </row>
+    <row r="748" spans="11:11" ht="18" thickBot="1">
+      <c r="K748" s="13"/>
+    </row>
+    <row r="749" spans="11:11" ht="18" thickBot="1">
+      <c r="K749" s="13"/>
+    </row>
+    <row r="750" spans="11:11" ht="18" thickBot="1">
+      <c r="K750" s="13"/>
+    </row>
+    <row r="751" spans="11:11" ht="18" thickBot="1">
+      <c r="K751" s="13"/>
+    </row>
+    <row r="752" spans="11:11" ht="18" thickBot="1">
+      <c r="K752" s="13"/>
+    </row>
+    <row r="753" spans="11:11" ht="18" thickBot="1">
+      <c r="K753" s="13"/>
+    </row>
+    <row r="754" spans="11:11" ht="18" thickBot="1">
+      <c r="K754" s="13"/>
+    </row>
+    <row r="755" spans="11:11" ht="18" thickBot="1">
+      <c r="K755" s="13"/>
+    </row>
+    <row r="756" spans="11:11" ht="18" thickBot="1">
+      <c r="K756" s="13"/>
+    </row>
+    <row r="757" spans="11:11" ht="18" thickBot="1">
+      <c r="K757" s="13"/>
+    </row>
+    <row r="758" spans="11:11" ht="18" thickBot="1">
+      <c r="K758" s="13"/>
+    </row>
+    <row r="759" spans="11:11" ht="18" thickBot="1">
+      <c r="K759" s="13"/>
+    </row>
+    <row r="760" spans="11:11" ht="18" thickBot="1">
+      <c r="K760" s="13"/>
+    </row>
+    <row r="761" spans="11:11" ht="18" thickBot="1">
+      <c r="K761" s="13"/>
+    </row>
+    <row r="762" spans="11:11" ht="18" thickBot="1">
+      <c r="K762" s="13"/>
+    </row>
+    <row r="763" spans="11:11" ht="18" thickBot="1">
+      <c r="K763" s="13"/>
+    </row>
+    <row r="764" spans="11:11" ht="18" thickBot="1">
+      <c r="K764" s="13"/>
+    </row>
+    <row r="765" spans="11:11" ht="18" thickBot="1">
+      <c r="K765" s="13"/>
+    </row>
+    <row r="766" spans="11:11" ht="18" thickBot="1">
+      <c r="K766" s="13"/>
+    </row>
+    <row r="767" spans="11:11" ht="18" thickBot="1">
+      <c r="K767" s="13"/>
+    </row>
+    <row r="768" spans="11:11" ht="18" thickBot="1">
+      <c r="K768" s="13"/>
+    </row>
+    <row r="769" spans="11:11" ht="18" thickBot="1">
+      <c r="K769" s="13"/>
+    </row>
+    <row r="770" spans="11:11" ht="18" thickBot="1">
+      <c r="K770" s="13"/>
+    </row>
+    <row r="771" spans="11:11" ht="18" thickBot="1">
+      <c r="K771" s="13"/>
+    </row>
+    <row r="772" spans="11:11" ht="18" thickBot="1">
+      <c r="K772" s="13"/>
+    </row>
+    <row r="773" spans="11:11" ht="18" thickBot="1">
+      <c r="K773" s="13"/>
+    </row>
+    <row r="774" spans="11:11" ht="18" thickBot="1">
+      <c r="K774" s="13"/>
+    </row>
+    <row r="775" spans="11:11" ht="18" thickBot="1">
+      <c r="K775" s="13"/>
+    </row>
+    <row r="776" spans="11:11" ht="18" thickBot="1">
+      <c r="K776" s="13"/>
+    </row>
+    <row r="777" spans="11:11" ht="18" thickBot="1">
+      <c r="K777" s="13"/>
+    </row>
+    <row r="778" spans="11:11" ht="18" thickBot="1">
+      <c r="K778" s="13"/>
+    </row>
+    <row r="779" spans="11:11" ht="18" thickBot="1">
+      <c r="K779" s="13"/>
+    </row>
+    <row r="780" spans="11:11" ht="18" thickBot="1">
+      <c r="K780" s="13"/>
+    </row>
+    <row r="781" spans="11:11" ht="18" thickBot="1">
+      <c r="K781" s="13"/>
+    </row>
+    <row r="782" spans="11:11" ht="18" thickBot="1">
+      <c r="K782" s="13"/>
+    </row>
+    <row r="783" spans="11:11" ht="18" thickBot="1">
+      <c r="K783" s="13"/>
+    </row>
+    <row r="784" spans="11:11" ht="18" thickBot="1">
+      <c r="K784" s="13"/>
+    </row>
+    <row r="785" spans="11:11" ht="18" thickBot="1">
+      <c r="K785" s="13"/>
+    </row>
+    <row r="786" spans="11:11" ht="18" thickBot="1">
+      <c r="K786" s="13"/>
+    </row>
+    <row r="787" spans="11:11" ht="18" thickBot="1">
+      <c r="K787" s="13"/>
+    </row>
+    <row r="788" spans="11:11" ht="18" thickBot="1">
+      <c r="K788" s="13"/>
+    </row>
+    <row r="789" spans="11:11" ht="18" thickBot="1">
+      <c r="K789" s="13"/>
+    </row>
+    <row r="790" spans="11:11" ht="18" thickBot="1">
+      <c r="K790" s="13"/>
+    </row>
+    <row r="791" spans="11:11" ht="18" thickBot="1">
+      <c r="K791" s="13"/>
+    </row>
+    <row r="792" spans="11:11" ht="18" thickBot="1">
+      <c r="K792" s="13"/>
+    </row>
+    <row r="793" spans="11:11" ht="18" thickBot="1">
+      <c r="K793" s="13"/>
+    </row>
+    <row r="794" spans="11:11" ht="18" thickBot="1">
+      <c r="K794" s="13"/>
+    </row>
+    <row r="795" spans="11:11" ht="18" thickBot="1">
+      <c r="K795" s="13"/>
+    </row>
+    <row r="796" spans="11:11" ht="18" thickBot="1">
+      <c r="K796" s="13"/>
+    </row>
+    <row r="797" spans="11:11" ht="18" thickBot="1">
+      <c r="K797" s="13"/>
+    </row>
+    <row r="798" spans="11:11" ht="18" thickBot="1">
+      <c r="K798" s="13"/>
+    </row>
+    <row r="799" spans="11:11" ht="18" thickBot="1">
+      <c r="K799" s="13"/>
+    </row>
+    <row r="800" spans="11:11" ht="18" thickBot="1">
+      <c r="K800" s="13"/>
+    </row>
+    <row r="801" spans="11:11" ht="18" thickBot="1">
+      <c r="K801" s="13"/>
+    </row>
+    <row r="802" spans="11:11" ht="18" thickBot="1">
+      <c r="K802" s="13"/>
+    </row>
+    <row r="803" spans="11:11" ht="18" thickBot="1">
+      <c r="K803" s="13"/>
+    </row>
+    <row r="804" spans="11:11" ht="18" thickBot="1">
+      <c r="K804" s="13"/>
+    </row>
+    <row r="805" spans="11:11" ht="18" thickBot="1">
+      <c r="K805" s="13"/>
+    </row>
+    <row r="806" spans="11:11" ht="18" thickBot="1">
+      <c r="K806" s="13"/>
+    </row>
+    <row r="807" spans="11:11" ht="18" thickBot="1">
+      <c r="K807" s="13"/>
+    </row>
+    <row r="808" spans="11:11" ht="18" thickBot="1">
+      <c r="K808" s="13"/>
+    </row>
+    <row r="809" spans="11:11" ht="18" thickBot="1">
+      <c r="K809" s="13"/>
+    </row>
+    <row r="810" spans="11:11" ht="18" thickBot="1">
+      <c r="K810" s="13"/>
+    </row>
+    <row r="811" spans="11:11" ht="18" thickBot="1">
+      <c r="K811" s="13"/>
+    </row>
+    <row r="812" spans="11:11" ht="18" thickBot="1">
+      <c r="K812" s="13"/>
+    </row>
+    <row r="813" spans="11:11" ht="18" thickBot="1">
+      <c r="K813" s="13"/>
+    </row>
+    <row r="814" spans="11:11" ht="18" thickBot="1">
+      <c r="K814" s="13"/>
+    </row>
+    <row r="815" spans="11:11" ht="18" thickBot="1">
+      <c r="K815" s="13"/>
+    </row>
+    <row r="816" spans="11:11" ht="18" thickBot="1">
+      <c r="K816" s="13"/>
+    </row>
+    <row r="817" spans="11:11" ht="18" thickBot="1">
+      <c r="K817" s="13"/>
+    </row>
+    <row r="818" spans="11:11" ht="18" thickBot="1">
+      <c r="K818" s="13"/>
+    </row>
+    <row r="819" spans="11:11" ht="18" thickBot="1">
+      <c r="K819" s="13"/>
+    </row>
+    <row r="820" spans="11:11" ht="18" thickBot="1">
+      <c r="K820" s="13"/>
+    </row>
+    <row r="821" spans="11:11" ht="18" thickBot="1">
+      <c r="K821" s="13"/>
+    </row>
+    <row r="822" spans="11:11" ht="18" thickBot="1">
+      <c r="K822" s="13"/>
+    </row>
+    <row r="823" spans="11:11" ht="18" thickBot="1">
+      <c r="K823" s="13"/>
+    </row>
+    <row r="824" spans="11:11" ht="18" thickBot="1">
+      <c r="K824" s="13"/>
+    </row>
+    <row r="825" spans="11:11" ht="18" thickBot="1">
+      <c r="K825" s="13"/>
+    </row>
+    <row r="826" spans="11:11" ht="18" thickBot="1">
+      <c r="K826" s="13"/>
+    </row>
+    <row r="827" spans="11:11" ht="18" thickBot="1">
+      <c r="K827" s="13"/>
+    </row>
+    <row r="828" spans="11:11" ht="18" thickBot="1">
+      <c r="K828" s="13"/>
+    </row>
+    <row r="829" spans="11:11" ht="18" thickBot="1">
+      <c r="K829" s="13"/>
+    </row>
+    <row r="830" spans="11:11" ht="18" thickBot="1">
+      <c r="K830" s="13"/>
+    </row>
+    <row r="831" spans="11:11" ht="18" thickBot="1">
+      <c r="K831" s="13"/>
+    </row>
+    <row r="832" spans="11:11" ht="18" thickBot="1">
+      <c r="K832" s="13"/>
+    </row>
+    <row r="833" spans="11:11" ht="18" thickBot="1">
+      <c r="K833" s="13"/>
+    </row>
+    <row r="834" spans="11:11" ht="18" thickBot="1">
+      <c r="K834" s="13"/>
+    </row>
+    <row r="835" spans="11:11" ht="18" thickBot="1">
+      <c r="K835" s="13"/>
+    </row>
+    <row r="836" spans="11:11" ht="18" thickBot="1">
+      <c r="K836" s="13"/>
+    </row>
+    <row r="837" spans="11:11" ht="18" thickBot="1">
+      <c r="K837" s="13"/>
+    </row>
+    <row r="838" spans="11:11" ht="18" thickBot="1">
+      <c r="K838" s="13"/>
+    </row>
+    <row r="839" spans="11:11" ht="18" thickBot="1">
+      <c r="K839" s="13"/>
+    </row>
+    <row r="840" spans="11:11" ht="18" thickBot="1">
+      <c r="K840" s="13"/>
+    </row>
+    <row r="841" spans="11:11" ht="18" thickBot="1">
+      <c r="K841" s="13"/>
+    </row>
+    <row r="842" spans="11:11" ht="18" thickBot="1">
+      <c r="K842" s="13"/>
+    </row>
+    <row r="843" spans="11:11" ht="18" thickBot="1">
+      <c r="K843" s="13"/>
+    </row>
+    <row r="844" spans="11:11" ht="18" thickBot="1">
+      <c r="K844" s="13"/>
+    </row>
+    <row r="845" spans="11:11" ht="18" thickBot="1">
+      <c r="K845" s="13"/>
+    </row>
+    <row r="846" spans="11:11" ht="18" thickBot="1">
+      <c r="K846" s="13"/>
+    </row>
+    <row r="847" spans="11:11" ht="18" thickBot="1">
+      <c r="K847" s="13"/>
+    </row>
+    <row r="848" spans="11:11" ht="18" thickBot="1">
+      <c r="K848" s="13"/>
+    </row>
+    <row r="849" spans="11:11" ht="18" thickBot="1">
+      <c r="K849" s="13"/>
+    </row>
+    <row r="850" spans="11:11" ht="18" thickBot="1">
+      <c r="K850" s="13"/>
+    </row>
+    <row r="851" spans="11:11" ht="18" thickBot="1">
+      <c r="K851" s="13"/>
+    </row>
+    <row r="852" spans="11:11" ht="18" thickBot="1">
+      <c r="K852" s="13"/>
+    </row>
+    <row r="853" spans="11:11" ht="18" thickBot="1">
+      <c r="K853" s="13"/>
+    </row>
+    <row r="854" spans="11:11" ht="18" thickBot="1">
+      <c r="K854" s="13"/>
+    </row>
+    <row r="855" spans="11:11" ht="18" thickBot="1">
+      <c r="K855" s="13"/>
+    </row>
+    <row r="856" spans="11:11" ht="18" thickBot="1">
+      <c r="K856" s="13"/>
+    </row>
+    <row r="857" spans="11:11" ht="18" thickBot="1">
+      <c r="K857" s="13"/>
+    </row>
+    <row r="858" spans="11:11" ht="18" thickBot="1">
+      <c r="K858" s="13"/>
+    </row>
+    <row r="859" spans="11:11" ht="18" thickBot="1">
+      <c r="K859" s="13"/>
+    </row>
+    <row r="860" spans="11:11" ht="18" thickBot="1">
+      <c r="K860" s="13"/>
+    </row>
+    <row r="861" spans="11:11" ht="18" thickBot="1">
+      <c r="K861" s="13"/>
+    </row>
+    <row r="862" spans="11:11" ht="18" thickBot="1">
+      <c r="K862" s="13"/>
+    </row>
+    <row r="863" spans="11:11" ht="18" thickBot="1">
+      <c r="K863" s="13"/>
+    </row>
+    <row r="864" spans="11:11" ht="18" thickBot="1">
+      <c r="K864" s="13"/>
+    </row>
+    <row r="865" spans="11:11" ht="18" thickBot="1">
+      <c r="K865" s="13"/>
+    </row>
+    <row r="866" spans="11:11" ht="18" thickBot="1">
+      <c r="K866" s="13"/>
+    </row>
+    <row r="867" spans="11:11" ht="18" thickBot="1">
+      <c r="K867" s="13"/>
+    </row>
+    <row r="868" spans="11:11" ht="18" thickBot="1">
+      <c r="K868" s="13"/>
+    </row>
+    <row r="869" spans="11:11" ht="18" thickBot="1">
+      <c r="K869" s="13"/>
+    </row>
+    <row r="870" spans="11:11" ht="18" thickBot="1">
+      <c r="K870" s="13"/>
+    </row>
+    <row r="871" spans="11:11" ht="18" thickBot="1">
+      <c r="K871" s="13"/>
+    </row>
+    <row r="872" spans="11:11" ht="18" thickBot="1">
+      <c r="K872" s="13"/>
+    </row>
+    <row r="873" spans="11:11" ht="18" thickBot="1">
+      <c r="K873" s="13"/>
+    </row>
+    <row r="874" spans="11:11" ht="18" thickBot="1">
+      <c r="K874" s="13"/>
+    </row>
+    <row r="875" spans="11:11" ht="18" thickBot="1">
+      <c r="K875" s="13"/>
+    </row>
+    <row r="876" spans="11:11" ht="18" thickBot="1">
+      <c r="K876" s="13"/>
+    </row>
+    <row r="877" spans="11:11" ht="18" thickBot="1">
+      <c r="K877" s="13"/>
+    </row>
+    <row r="878" spans="11:11" ht="18" thickBot="1">
+      <c r="K878" s="13"/>
+    </row>
+    <row r="879" spans="11:11" ht="18" thickBot="1">
+      <c r="K879" s="13"/>
+    </row>
+    <row r="880" spans="11:11" ht="18" thickBot="1">
+      <c r="K880" s="13"/>
+    </row>
+    <row r="881" spans="11:11" ht="18" thickBot="1">
+      <c r="K881" s="13"/>
+    </row>
+    <row r="882" spans="11:11" ht="18" thickBot="1">
+      <c r="K882" s="13"/>
+    </row>
+    <row r="883" spans="11:11" ht="18" thickBot="1">
+      <c r="K883" s="13"/>
+    </row>
+    <row r="884" spans="11:11" ht="18" thickBot="1">
+      <c r="K884" s="13"/>
+    </row>
+    <row r="885" spans="11:11" ht="18" thickBot="1">
+      <c r="K885" s="13"/>
+    </row>
+    <row r="886" spans="11:11" ht="18" thickBot="1">
+      <c r="K886" s="13"/>
+    </row>
+    <row r="887" spans="11:11" ht="18" thickBot="1">
+      <c r="K887" s="13"/>
+    </row>
+    <row r="888" spans="11:11" ht="18" thickBot="1">
+      <c r="K888" s="13"/>
+    </row>
+    <row r="889" spans="11:11" ht="18" thickBot="1">
+      <c r="K889" s="13"/>
+    </row>
+    <row r="890" spans="11:11" ht="18" thickBot="1">
+      <c r="K890" s="13"/>
+    </row>
+    <row r="891" spans="11:11" ht="18" thickBot="1">
+      <c r="K891" s="13"/>
+    </row>
+    <row r="892" spans="11:11" ht="18" thickBot="1">
+      <c r="K892" s="13"/>
+    </row>
+    <row r="893" spans="11:11" ht="18" thickBot="1">
+      <c r="K893" s="13"/>
+    </row>
+    <row r="894" spans="11:11" ht="18" thickBot="1">
+      <c r="K894" s="13"/>
+    </row>
+    <row r="895" spans="11:11" ht="18" thickBot="1">
+      <c r="K895" s="13"/>
+    </row>
+    <row r="896" spans="11:11" ht="18" thickBot="1">
+      <c r="K896" s="13"/>
+    </row>
+    <row r="897" spans="11:11" ht="18" thickBot="1">
+      <c r="K897" s="13"/>
+    </row>
+    <row r="898" spans="11:11" ht="18" thickBot="1">
+      <c r="K898" s="13"/>
+    </row>
+    <row r="899" spans="11:11" ht="18" thickBot="1">
+      <c r="K899" s="13"/>
+    </row>
+    <row r="900" spans="11:11" ht="18" thickBot="1">
+      <c r="K900" s="13"/>
+    </row>
+    <row r="901" spans="11:11" ht="18" thickBot="1">
+      <c r="K901" s="13"/>
+    </row>
+    <row r="902" spans="11:11" ht="18" thickBot="1">
+      <c r="K902" s="13"/>
+    </row>
+    <row r="903" spans="11:11" ht="18" thickBot="1">
+      <c r="K903" s="13"/>
+    </row>
+    <row r="904" spans="11:11" ht="18" thickBot="1">
+      <c r="K904" s="13"/>
+    </row>
+    <row r="905" spans="11:11" ht="18" thickBot="1">
+      <c r="K905" s="13"/>
+    </row>
+    <row r="906" spans="11:11" ht="18" thickBot="1">
+      <c r="K906" s="13"/>
+    </row>
+    <row r="907" spans="11:11" ht="18" thickBot="1">
+      <c r="K907" s="13"/>
+    </row>
+    <row r="908" spans="11:11" ht="18" thickBot="1">
+      <c r="K908" s="13"/>
+    </row>
+    <row r="909" spans="11:11" ht="18" thickBot="1">
+      <c r="K909" s="13"/>
+    </row>
+    <row r="910" spans="11:11" ht="18" thickBot="1">
+      <c r="K910" s="13"/>
+    </row>
+    <row r="911" spans="11:11" ht="18" thickBot="1">
+      <c r="K911" s="13"/>
+    </row>
+    <row r="912" spans="11:11" ht="18" thickBot="1">
+      <c r="K912" s="13"/>
+    </row>
+    <row r="913" spans="11:11" ht="18" thickBot="1">
+      <c r="K913" s="13"/>
+    </row>
+    <row r="914" spans="11:11" ht="18" thickBot="1">
+      <c r="K914" s="13"/>
+    </row>
+    <row r="915" spans="11:11" ht="18" thickBot="1">
+      <c r="K915" s="13"/>
+    </row>
+    <row r="916" spans="11:11" ht="18" thickBot="1">
+      <c r="K916" s="13"/>
+    </row>
+    <row r="917" spans="11:11" ht="18" thickBot="1">
+      <c r="K917" s="13"/>
+    </row>
+    <row r="918" spans="11:11" ht="18" thickBot="1">
+      <c r="K918" s="13"/>
+    </row>
+    <row r="919" spans="11:11" ht="18" thickBot="1">
+      <c r="K919" s="13"/>
+    </row>
+    <row r="920" spans="11:11" ht="18" thickBot="1">
+      <c r="K920" s="13"/>
+    </row>
+    <row r="921" spans="11:11" ht="18" thickBot="1">
+      <c r="K921" s="13"/>
+    </row>
+    <row r="922" spans="11:11" ht="18" thickBot="1">
+      <c r="K922" s="13"/>
+    </row>
+    <row r="923" spans="11:11" ht="18" thickBot="1">
+      <c r="K923" s="13"/>
+    </row>
+    <row r="924" spans="11:11" ht="18" thickBot="1">
+      <c r="K924" s="13"/>
+    </row>
+    <row r="925" spans="11:11" ht="18" thickBot="1">
+      <c r="K925" s="13"/>
+    </row>
+    <row r="926" spans="11:11" ht="18" thickBot="1">
+      <c r="K926" s="13"/>
+    </row>
+    <row r="927" spans="11:11" ht="18" thickBot="1">
+      <c r="K927" s="13"/>
+    </row>
+    <row r="928" spans="11:11" ht="18" thickBot="1">
+      <c r="K928" s="13"/>
+    </row>
+    <row r="929" spans="11:11" ht="18" thickBot="1">
+      <c r="K929" s="13"/>
+    </row>
+    <row r="930" spans="11:11" ht="18" thickBot="1">
+      <c r="K930" s="13"/>
+    </row>
+    <row r="931" spans="11:11" ht="18" thickBot="1">
+      <c r="K931" s="13"/>
+    </row>
+    <row r="932" spans="11:11" ht="18" thickBot="1">
+      <c r="K932" s="13"/>
+    </row>
+    <row r="933" spans="11:11" ht="18" thickBot="1">
+      <c r="K933" s="13"/>
+    </row>
+    <row r="934" spans="11:11" ht="18" thickBot="1">
+      <c r="K934" s="13"/>
+    </row>
+    <row r="935" spans="11:11" ht="18" thickBot="1">
+      <c r="K935" s="13"/>
+    </row>
+    <row r="936" spans="11:11" ht="18" thickBot="1">
+      <c r="K936" s="13"/>
+    </row>
+    <row r="937" spans="11:11" ht="18" thickBot="1">
+      <c r="K937" s="13"/>
+    </row>
+    <row r="938" spans="11:11" ht="18" thickBot="1">
+      <c r="K938" s="13"/>
+    </row>
+    <row r="939" spans="11:11" ht="18" thickBot="1">
+      <c r="K939" s="13"/>
+    </row>
+    <row r="940" spans="11:11" ht="18" thickBot="1">
+      <c r="K940" s="13"/>
+    </row>
+    <row r="941" spans="11:11" ht="18" thickBot="1">
+      <c r="K941" s="13"/>
+    </row>
+    <row r="942" spans="11:11" ht="18" thickBot="1">
+      <c r="K942" s="13"/>
+    </row>
+    <row r="943" spans="11:11" ht="18" thickBot="1">
+      <c r="K943" s="13"/>
+    </row>
+    <row r="944" spans="11:11" ht="18" thickBot="1">
+      <c r="K944" s="13"/>
+    </row>
+    <row r="945" spans="11:11" ht="18" thickBot="1">
+      <c r="K945" s="13"/>
+    </row>
+    <row r="946" spans="11:11" ht="18" thickBot="1">
+      <c r="K946" s="13"/>
+    </row>
+    <row r="947" spans="11:11" ht="18" thickBot="1">
+      <c r="K947" s="13"/>
+    </row>
+    <row r="948" spans="11:11" ht="18" thickBot="1">
+      <c r="K948" s="13"/>
+    </row>
+    <row r="949" spans="11:11" ht="18" thickBot="1">
+      <c r="K949" s="13"/>
+    </row>
+    <row r="950" spans="11:11" ht="18" thickBot="1">
+      <c r="K950" s="13"/>
+    </row>
+    <row r="951" spans="11:11" ht="18" thickBot="1">
+      <c r="K951" s="13"/>
+    </row>
+    <row r="952" spans="11:11" ht="18" thickBot="1">
+      <c r="K952" s="13"/>
+    </row>
+    <row r="953" spans="11:11" ht="18" thickBot="1">
+      <c r="K953" s="13"/>
+    </row>
+    <row r="954" spans="11:11" ht="18" thickBot="1">
+      <c r="K954" s="13"/>
+    </row>
+    <row r="955" spans="11:11" ht="18" thickBot="1">
+      <c r="K955" s="13"/>
+    </row>
+    <row r="956" spans="11:11" ht="18" thickBot="1">
+      <c r="K956" s="13"/>
+    </row>
+    <row r="957" spans="11:11" ht="18" thickBot="1">
+      <c r="K957" s="13"/>
+    </row>
+    <row r="958" spans="11:11" ht="18" thickBot="1">
+      <c r="K958" s="13"/>
+    </row>
+    <row r="959" spans="11:11" ht="18" thickBot="1">
+      <c r="K959" s="13"/>
+    </row>
+    <row r="960" spans="11:11" ht="18" thickBot="1">
+      <c r="K960" s="13"/>
+    </row>
+    <row r="961" spans="11:11" ht="18" thickBot="1">
+      <c r="K961" s="13"/>
+    </row>
+    <row r="962" spans="11:11" ht="18" thickBot="1">
+      <c r="K962" s="13"/>
+    </row>
+    <row r="963" spans="11:11" ht="18" thickBot="1">
+      <c r="K963" s="13"/>
+    </row>
+    <row r="964" spans="11:11" ht="18" thickBot="1">
+      <c r="K964" s="13"/>
+    </row>
+    <row r="965" spans="11:11" ht="18" thickBot="1">
+      <c r="K965" s="13"/>
+    </row>
+    <row r="966" spans="11:11" ht="18" thickBot="1">
+      <c r="K966" s="13"/>
+    </row>
+    <row r="967" spans="11:11" ht="18" thickBot="1">
+      <c r="K967" s="13"/>
+    </row>
+    <row r="968" spans="11:11" ht="18" thickBot="1">
+      <c r="K968" s="13"/>
+    </row>
+    <row r="969" spans="11:11" ht="18" thickBot="1">
+      <c r="K969" s="13"/>
+    </row>
+    <row r="970" spans="11:11" ht="18" thickBot="1">
+      <c r="K970" s="13"/>
+    </row>
+    <row r="971" spans="11:11" ht="18" thickBot="1">
+      <c r="K971" s="13"/>
+    </row>
+    <row r="972" spans="11:11" ht="18" thickBot="1">
+      <c r="K972" s="13"/>
+    </row>
+    <row r="973" spans="11:11" ht="18" thickBot="1">
+      <c r="K973" s="13"/>
+    </row>
+    <row r="974" spans="11:11" ht="18" thickBot="1">
+      <c r="K974" s="13"/>
+    </row>
+    <row r="975" spans="11:11" ht="18" thickBot="1">
+      <c r="K975" s="13"/>
+    </row>
+    <row r="976" spans="11:11" ht="18" thickBot="1">
+      <c r="K976" s="13"/>
+    </row>
+    <row r="977" spans="11:11" ht="18" thickBot="1">
+      <c r="K977" s="13"/>
+    </row>
+    <row r="978" spans="11:11" ht="18" thickBot="1">
+      <c r="K978" s="13"/>
+    </row>
+    <row r="979" spans="11:11" ht="18" thickBot="1">
+      <c r="K979" s="13"/>
+    </row>
+    <row r="980" spans="11:11" ht="18" thickBot="1">
+      <c r="K980" s="13"/>
+    </row>
+    <row r="981" spans="11:11" ht="18" thickBot="1">
+      <c r="K981" s="13"/>
+    </row>
+    <row r="982" spans="11:11" ht="18" thickBot="1">
+      <c r="K982" s="13"/>
+    </row>
+    <row r="983" spans="11:11" ht="18" thickBot="1">
+      <c r="K983" s="13"/>
+    </row>
+    <row r="984" spans="11:11" ht="18" thickBot="1">
+      <c r="K984" s="13"/>
+    </row>
+    <row r="985" spans="11:11" ht="18" thickBot="1">
+      <c r="K985" s="13"/>
+    </row>
+    <row r="986" spans="11:11" ht="18" thickBot="1">
+      <c r="K986" s="13"/>
+    </row>
+    <row r="987" spans="11:11" ht="18" thickBot="1">
+      <c r="K987" s="13"/>
+    </row>
+    <row r="988" spans="11:11" ht="18" thickBot="1">
+      <c r="K988" s="13"/>
+    </row>
+    <row r="989" spans="11:11" ht="18" thickBot="1">
+      <c r="K989" s="13"/>
+    </row>
+    <row r="990" spans="11:11" ht="18" thickBot="1">
+      <c r="K990" s="13"/>
+    </row>
+    <row r="991" spans="11:11" ht="18" thickBot="1">
+      <c r="K991" s="13"/>
+    </row>
+    <row r="992" spans="11:11" ht="18" thickBot="1">
+      <c r="K992" s="13"/>
+    </row>
+    <row r="993" spans="11:11" ht="18" thickBot="1">
+      <c r="K993" s="13"/>
+    </row>
+    <row r="994" spans="11:11" ht="18" thickBot="1">
+      <c r="K994" s="13"/>
+    </row>
+    <row r="995" spans="11:11" ht="18" thickBot="1">
+      <c r="K995" s="13"/>
+    </row>
+    <row r="996" spans="11:11" ht="18" thickBot="1">
+      <c r="K996" s="13"/>
+    </row>
+    <row r="997" spans="11:11" ht="18" thickBot="1">
+      <c r="K997" s="13"/>
+    </row>
+    <row r="998" spans="11:11" ht="18" thickBot="1">
+      <c r="K998" s="13"/>
+    </row>
+    <row r="999" spans="11:11" ht="18" thickBot="1">
+      <c r="K999" s="13"/>
+    </row>
+    <row r="1000" spans="11:11" ht="18" thickBot="1">
+      <c r="K1000" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
